--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK73"/>
+  <dimension ref="A1:BK75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT3" t="n">
         <v>1.2</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT8" t="n">
         <v>0.5</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT18" t="n">
         <v>1.25</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>1.53</v>
@@ -5369,7 +5369,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>0.79</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT25" t="n">
         <v>0.25</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT29" t="n">
         <v>1.4</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU32" t="n">
         <v>1.7</v>
@@ -8211,7 +8211,7 @@
         <v>1.67</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>2.05</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT45" t="n">
         <v>0.33</v>
@@ -11256,7 +11256,7 @@
         <v>1.4</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>0.95</v>
@@ -11459,7 +11459,7 @@
         <v>1.75</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.08</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT57" t="n">
         <v>0.33</v>
@@ -12268,7 +12268,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT58" t="n">
         <v>1.25</v>
@@ -14301,7 +14301,7 @@
         <v>1.25</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU68" t="n">
         <v>1.93</v>
@@ -15368,6 +15368,412 @@
       </c>
       <c r="BK73" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5189004</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45038.08333333334</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['5', '28']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>8</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>8</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>5</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5189005</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45038.29166666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2</v>
+      </c>
+      <c r="K75" t="n">
+        <v>4</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['19', '28']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['33', '45+2', '82']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>6</v>
+      </c>
+      <c r="R75" t="n">
+        <v>9</v>
+      </c>
+      <c r="S75" t="n">
+        <v>15</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK75"/>
+  <dimension ref="A1:BK82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT2" t="n">
         <v>1.4</v>
@@ -1309,7 +1309,7 @@
         <v>1.75</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.25</v>
@@ -2121,7 +2121,7 @@
         <v>1.4</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.4</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.25</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>2.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>1.5</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU21" t="n">
         <v>1.61</v>
@@ -4963,7 +4963,7 @@
         <v>0.2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU22" t="n">
         <v>1.4</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT23" t="n">
         <v>1.2</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>3</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU27" t="n">
         <v>1.71</v>
@@ -6384,7 +6384,7 @@
         <v>1.4</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU29" t="n">
         <v>1.31</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT30" t="n">
         <v>1.5</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>1.05</v>
@@ -7196,7 +7196,7 @@
         <v>0.25</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU33" t="n">
         <v>1.05</v>
@@ -7602,7 +7602,7 @@
         <v>1.75</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.14</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT37" t="n">
         <v>2.5</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT38" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>2.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU40" t="n">
         <v>1.61</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT42" t="n">
         <v>1.2</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT44" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>1.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU45" t="n">
         <v>2.41</v>
@@ -9835,7 +9835,7 @@
         <v>3</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU46" t="n">
         <v>1.39</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU47" t="n">
         <v>1.4</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT48" t="n">
         <v>3</v>
@@ -10444,7 +10444,7 @@
         <v>0.2</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU49" t="n">
         <v>1.01</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT50" t="n">
         <v>2.4</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
         <v>1.4</v>
@@ -11865,7 +11865,7 @@
         <v>2.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU56" t="n">
         <v>1.43</v>
@@ -12068,7 +12068,7 @@
         <v>1.4</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>2.14</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT59" t="n">
         <v>1.2</v>
@@ -12677,7 +12677,7 @@
         <v>1.75</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU60" t="n">
         <v>1.47</v>
@@ -12877,10 +12877,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT62" t="n">
         <v>1.5</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU64" t="n">
         <v>1.3</v>
@@ -13892,10 +13892,10 @@
         <v>0.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU66" t="n">
         <v>1.31</v>
@@ -14098,7 +14098,7 @@
         <v>1.4</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU67" t="n">
         <v>1.01</v>
@@ -14501,7 +14501,7 @@
         <v>2.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT69" t="n">
         <v>2.4</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT73" t="n">
         <v>0.25</v>
@@ -15774,6 +15774,1427 @@
       </c>
       <c r="BK75" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5189009</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45039.08333333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7</v>
+      </c>
+      <c r="S76" t="n">
+        <v>11</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5189008</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45039.08333333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3</v>
+      </c>
+      <c r="K77" t="n">
+        <v>4</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="n">
+        <v>5</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['21', '90+2']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['22', '32', '41']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>7</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>11</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5189007</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45039.08333333334</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['3', '26']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>7</v>
+      </c>
+      <c r="T78" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5189006</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45039.08333333334</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="n">
+        <v>4</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['5', '13']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['51', '58']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>9</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5189010</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45039.125</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="n">
+        <v>4</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['41', '50']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['55', '80']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>6</v>
+      </c>
+      <c r="S80" t="n">
+        <v>11</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V80" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5189011</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45039.16666666666</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7</v>
+      </c>
+      <c r="S81" t="n">
+        <v>11</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5189012</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45039.16666666666</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>7</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>11</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V82" t="n">
+        <v>5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK82"/>
+  <dimension ref="A1:BK90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.4</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>1.33</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT8" t="n">
         <v>0.6</v>
@@ -2324,7 +2324,7 @@
         <v>1.4</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT12" t="n">
         <v>1.33</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.4</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>1.61</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU20" t="n">
         <v>1.93</v>
@@ -4760,7 +4760,7 @@
         <v>0.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>1.61</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT22" t="n">
         <v>1.8</v>
@@ -5166,7 +5166,7 @@
         <v>1.4</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU25" t="n">
         <v>1.22</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT27" t="n">
         <v>0.25</v>
@@ -6181,7 +6181,7 @@
         <v>1.4</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU28" t="n">
         <v>1.2</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT29" t="n">
         <v>1.33</v>
@@ -6587,7 +6587,7 @@
         <v>1.4</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU30" t="n">
         <v>1.4</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT33" t="n">
         <v>0.6</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU34" t="n">
         <v>1.15</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
         <v>0.5</v>
@@ -7805,7 +7805,7 @@
         <v>1.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU36" t="n">
         <v>2.48</v>
@@ -8008,7 +8008,7 @@
         <v>1.2</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU37" t="n">
         <v>2.2</v>
@@ -8411,10 +8411,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU39" t="n">
         <v>0.96</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT40" t="n">
         <v>1.8</v>
@@ -8820,7 +8820,7 @@
         <v>3</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.37</v>
@@ -9023,7 +9023,7 @@
         <v>1.2</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.84</v>
@@ -9832,10 +9832,10 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>1.39</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT49" t="n">
         <v>0.6</v>
@@ -10647,7 +10647,7 @@
         <v>1.4</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU50" t="n">
         <v>1.26</v>
@@ -10847,10 +10847,10 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU51" t="n">
         <v>1.11</v>
@@ -11053,7 +11053,7 @@
         <v>1.25</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU52" t="n">
         <v>2.13</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT54" t="n">
         <v>1.4</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU55" t="n">
         <v>1.7</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT56" t="n">
         <v>0.5</v>
@@ -12268,10 +12268,10 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.26</v>
@@ -12471,10 +12471,10 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU59" t="n">
         <v>1.05</v>
@@ -12674,10 +12674,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.47</v>
@@ -13083,7 +13083,7 @@
         <v>1.2</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU62" t="n">
         <v>1.7</v>
@@ -13283,10 +13283,10 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU63" t="n">
         <v>1.41</v>
@@ -13689,10 +13689,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU65" t="n">
         <v>1.03</v>
@@ -14504,7 +14504,7 @@
         <v>0.6</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU69" t="n">
         <v>1.37</v>
@@ -14707,7 +14707,7 @@
         <v>3</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.28</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT71" t="n">
         <v>3</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -15316,7 +15316,7 @@
         <v>1.2</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU73" t="n">
         <v>1.01</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT75" t="n">
         <v>1.4</v>
@@ -15922,7 +15922,7 @@
         <v>0.33</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT76" t="n">
         <v>0.25</v>
@@ -16737,7 +16737,7 @@
         <v>1.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU80" t="n">
         <v>1.44</v>
@@ -17195,6 +17195,1630 @@
       </c>
       <c r="BK82" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5189013</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45045.08333333334</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2</v>
+      </c>
+      <c r="K83" t="n">
+        <v>3</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['39', '45+1', '60', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>8</v>
+      </c>
+      <c r="S83" t="n">
+        <v>11</v>
+      </c>
+      <c r="T83" t="n">
+        <v>4</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5189014</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45045.08333333334</v>
+      </c>
+      <c r="F84" t="n">
+        <v>10</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>10</v>
+      </c>
+      <c r="S84" t="n">
+        <v>13</v>
+      </c>
+      <c r="T84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5189015</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45045.08333333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>10</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['21', '80']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>6</v>
+      </c>
+      <c r="R85" t="n">
+        <v>10</v>
+      </c>
+      <c r="S85" t="n">
+        <v>16</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V85" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5189016</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45045.125</v>
+      </c>
+      <c r="F86" t="n">
+        <v>10</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>10</v>
+      </c>
+      <c r="S86" t="n">
+        <v>13</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5189017</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45045.125</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['8', '34']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V87" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5189018</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45045.125</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>11</v>
+      </c>
+      <c r="S88" t="n">
+        <v>12</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5189019</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45045.20833333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="n">
+        <v>4</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['12', '47', '65']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5189020</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45045.29166666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>10</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>4</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>4</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['48', '64', '86', '87']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK90"/>
+  <dimension ref="A1:BK98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.6</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT5" t="n">
         <v>2.17</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>0.5</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT17" t="n">
         <v>1.4</v>
@@ -4151,7 +4151,7 @@
         <v>1.4</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU18" t="n">
         <v>1.61</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU19" t="n">
         <v>1.53</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>1.4</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU24" t="n">
         <v>0.79</v>
@@ -5775,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU27" t="n">
         <v>1.71</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT28" t="n">
         <v>2.17</v>
@@ -6587,7 +6587,7 @@
         <v>1.4</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.4</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU32" t="n">
         <v>1.7</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
         <v>1.4</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT37" t="n">
         <v>2.6</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU38" t="n">
         <v>2.05</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT39" t="n">
         <v>1.4</v>
@@ -8617,7 +8617,7 @@
         <v>2.2</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.61</v>
@@ -8820,7 +8820,7 @@
         <v>3</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU41" t="n">
         <v>1.37</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
         <v>1.5</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT43" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU43" t="n">
         <v>1.25</v>
@@ -9429,7 +9429,7 @@
         <v>0.6</v>
       </c>
       <c r="AT44" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU44" t="n">
         <v>1.37</v>
@@ -9632,7 +9632,7 @@
         <v>1.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU45" t="n">
         <v>2.41</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10238,10 +10238,10 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU48" t="n">
         <v>1.03</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT49" t="n">
         <v>0.6</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
         <v>0.2</v>
@@ -11253,10 +11253,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU53" t="n">
         <v>0.95</v>
@@ -11459,7 +11459,7 @@
         <v>1.67</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU54" t="n">
         <v>1.08</v>
@@ -11659,10 +11659,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU55" t="n">
         <v>1.7</v>
@@ -12271,7 +12271,7 @@
         <v>1.67</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU58" t="n">
         <v>1.26</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT61" t="n">
         <v>1.33</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU62" t="n">
         <v>1.7</v>
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT63" t="n">
         <v>1.4</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.3</v>
@@ -13689,7 +13689,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT65" t="n">
         <v>2.6</v>
@@ -14095,10 +14095,10 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU67" t="n">
         <v>1.01</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU68" t="n">
         <v>1.93</v>
@@ -14910,7 +14910,7 @@
         <v>0.8</v>
       </c>
       <c r="AT71" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU71" t="n">
         <v>1.16</v>
@@ -15113,7 +15113,7 @@
         <v>2</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU72" t="n">
         <v>1.48</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT73" t="n">
         <v>0.2</v>
@@ -15519,7 +15519,7 @@
         <v>1.4</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU74" t="n">
         <v>2.14</v>
@@ -15722,7 +15722,7 @@
         <v>1.67</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU75" t="n">
         <v>1.32</v>
@@ -15925,7 +15925,7 @@
         <v>1.67</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU76" t="n">
         <v>1.1</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16331,7 +16331,7 @@
         <v>1.4</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU78" t="n">
         <v>1.26</v>
@@ -16531,7 +16531,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT79" t="n">
         <v>0.6</v>
@@ -16734,7 +16734,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT80" t="n">
         <v>1</v>
@@ -17140,7 +17140,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT82" t="n">
         <v>0.5</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT83" t="n">
         <v>1.5</v>
@@ -18158,7 +18158,7 @@
         <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU87" t="n">
         <v>1.35</v>
@@ -18561,10 +18561,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.4</v>
@@ -18819,6 +18819,1630 @@
       </c>
       <c r="BK90" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5189021</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45049.08333333334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>11</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>14</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>15</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5189022</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45049.08333333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>11</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>6</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>6</v>
+      </c>
+      <c r="T92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5189023</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45049.08333333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>11</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['28', '90']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>9</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>9</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5189026</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45049.125</v>
+      </c>
+      <c r="F94" t="n">
+        <v>11</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5189027</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45049.125</v>
+      </c>
+      <c r="F95" t="n">
+        <v>11</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="n">
+        <v>4</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['11', '21', '60']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>9</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>9</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5189024</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45049.125</v>
+      </c>
+      <c r="F96" t="n">
+        <v>11</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['45+5']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['28', '55']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
+        <v>8</v>
+      </c>
+      <c r="S96" t="n">
+        <v>10</v>
+      </c>
+      <c r="T96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5189025</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45049.125</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="n">
+        <v>4</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['73', '90+8']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['11', '60']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>7</v>
+      </c>
+      <c r="S97" t="n">
+        <v>12</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5189028</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45049.29166666666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>11</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>8</v>
+      </c>
+      <c r="T98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK98"/>
+  <dimension ref="A1:BK100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT13" t="n">
         <v>2.6</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT17" t="n">
         <v>1.4</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU19" t="n">
         <v>1.53</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU24" t="n">
         <v>0.79</v>
@@ -5572,7 +5572,7 @@
         <v>1.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU25" t="n">
         <v>1.22</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT32" t="n">
         <v>1.67</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU38" t="n">
         <v>2.05</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU52" t="n">
         <v>2.13</v>
@@ -11256,7 +11256,7 @@
         <v>1.17</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU53" t="n">
         <v>0.95</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT55" t="n">
         <v>2</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT61" t="n">
         <v>1.33</v>
@@ -15316,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU73" t="n">
         <v>1.01</v>
@@ -15519,7 +15519,7 @@
         <v>1.4</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU74" t="n">
         <v>2.14</v>
@@ -16531,7 +16531,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT79" t="n">
         <v>0.6</v>
@@ -16734,7 +16734,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT80" t="n">
         <v>1</v>
@@ -18767,7 +18767,7 @@
         <v>0.8</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU90" t="n">
         <v>1.08</v>
@@ -18967,7 +18967,7 @@
         <v>1.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT91" t="n">
         <v>2</v>
@@ -19579,7 +19579,7 @@
         <v>2.5</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU94" t="n">
         <v>1.33</v>
@@ -20185,7 +20185,7 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT97" t="n">
         <v>2.6</v>
@@ -20443,6 +20443,412 @@
       </c>
       <c r="BK98" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5189029</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45052.08333333334</v>
+      </c>
+      <c r="F99" t="n">
+        <v>12</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3</v>
+      </c>
+      <c r="L99" t="n">
+        <v>5</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>6</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['8', '28', '38', '50', '90+3']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5189030</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45052.29166666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>12</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>6</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>9</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V100" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK100"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
         <v>1.67</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT3" t="n">
         <v>1.5</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT7" t="n">
         <v>0.83</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT12" t="n">
         <v>1.33</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.67</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT18" t="n">
         <v>0.83</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT20" t="n">
         <v>2.6</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -4963,7 +4963,7 @@
         <v>0.57</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU22" t="n">
         <v>1.4</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT23" t="n">
         <v>1.5</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT25" t="n">
         <v>0.17</v>
@@ -5978,7 +5978,7 @@
         <v>2.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU27" t="n">
         <v>1.71</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT29" t="n">
         <v>1.33</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT30" t="n">
         <v>2</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU31" t="n">
         <v>1.05</v>
@@ -7196,7 +7196,7 @@
         <v>0.8</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU33" t="n">
         <v>1.05</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU35" t="n">
         <v>1.14</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU36" t="n">
         <v>2.48</v>
@@ -8414,7 +8414,7 @@
         <v>0.57</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU39" t="n">
         <v>0.96</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU40" t="n">
         <v>1.61</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT44" t="n">
         <v>1.4</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU45" t="n">
         <v>2.41</v>
@@ -10444,7 +10444,7 @@
         <v>0.57</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.01</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT50" t="n">
         <v>2.17</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT54" t="n">
         <v>1.67</v>
@@ -11862,10 +11862,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU56" t="n">
         <v>1.43</v>
@@ -12065,10 +12065,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU57" t="n">
         <v>2.14</v>
@@ -12268,7 +12268,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT58" t="n">
         <v>0.83</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT59" t="n">
         <v>1.5</v>
@@ -13286,7 +13286,7 @@
         <v>2.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU63" t="n">
         <v>1.41</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU64" t="n">
         <v>1.3</v>
@@ -13892,10 +13892,10 @@
         <v>0.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.31</v>
@@ -14098,7 +14098,7 @@
         <v>1.17</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU67" t="n">
         <v>1.01</v>
@@ -14501,7 +14501,7 @@
         <v>2.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT69" t="n">
         <v>2.17</v>
@@ -15516,7 +15516,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT74" t="n">
         <v>0.71</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT75" t="n">
         <v>1.67</v>
@@ -15922,10 +15922,10 @@
         <v>0.33</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU76" t="n">
         <v>1.1</v>
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU77" t="n">
         <v>1.14</v>
@@ -16328,10 +16328,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT78" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU78" t="n">
         <v>1.26</v>
@@ -16534,7 +16534,7 @@
         <v>1.17</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.8</v>
@@ -16937,7 +16937,7 @@
         <v>1.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT81" t="n">
         <v>1.33</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU82" t="n">
         <v>1.7</v>
@@ -17546,7 +17546,7 @@
         <v>2.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT84" t="n">
         <v>2.6</v>
@@ -17749,7 +17749,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT85" t="n">
         <v>1</v>
@@ -17955,7 +17955,7 @@
         <v>1</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU86" t="n">
         <v>1.19</v>
@@ -18358,7 +18358,7 @@
         <v>2.4</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT88" t="n">
         <v>2.17</v>
@@ -18970,7 +18970,7 @@
         <v>1.17</v>
       </c>
       <c r="AT91" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU91" t="n">
         <v>1.68</v>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU96" t="n">
         <v>1.82</v>
@@ -20836,7 +20836,7 @@
         <v>3</v>
       </c>
       <c r="BG100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH100" t="n">
         <v>14</v>
@@ -20848,7 +20848,1225 @@
         <v>17</v>
       </c>
       <c r="BK100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5189031</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45053.04166666666</v>
+      </c>
+      <c r="F101" t="n">
+        <v>12</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>4</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['50', '72', '89']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>5</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5189034</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45053.08333333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>12</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG102" t="n">
         <v>8</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5189035</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45053.08333333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>3</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['45+1', '52', '54']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>7</v>
+      </c>
+      <c r="R103" t="n">
+        <v>8</v>
+      </c>
+      <c r="S103" t="n">
+        <v>15</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V103" t="n">
+        <v>7</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5189032</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45053.08333333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>12</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>4</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>5</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['10', '49', '64', '86']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>7</v>
+      </c>
+      <c r="T104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5189033</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45053.08333333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>12</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>6</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>10</v>
+      </c>
+      <c r="T105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5189036</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45053.125</v>
+      </c>
+      <c r="F106" t="n">
+        <v>12</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>2</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V106" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT26" t="n">
         <v>1.4</v>
@@ -6790,7 +6790,7 @@
         <v>1.43</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU31" t="n">
         <v>1.05</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT41" t="n">
         <v>0.83</v>
@@ -12068,7 +12068,7 @@
         <v>1.67</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU57" t="n">
         <v>2.14</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT70" t="n">
         <v>1.5</v>
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU77" t="n">
         <v>1.14</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU106" t="n">
         <v>1.29</v>
@@ -22067,6 +22067,209 @@
       </c>
       <c r="BK106" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5189037</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45056.3125</v>
+      </c>
+      <c r="F107" t="n">
+        <v>10</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['70', '75']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>10</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2</v>
+      </c>
+      <c r="S107" t="n">
+        <v>12</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V107" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK107"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT4" t="n">
         <v>1.33</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>0.5</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT10" t="n">
         <v>0.17</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT19" t="n">
         <v>0.71</v>
@@ -4557,7 +4557,7 @@
         <v>2.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU20" t="n">
         <v>1.93</v>
@@ -5166,7 +5166,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
         <v>0.17</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT29" t="n">
         <v>1.33</v>
@@ -6587,7 +6587,7 @@
         <v>1.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU30" t="n">
         <v>1.4</v>
@@ -7396,7 +7396,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT34" t="n">
         <v>2.17</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU35" t="n">
         <v>1.14</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT36" t="n">
         <v>1.17</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU37" t="n">
         <v>2.2</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU42" t="n">
         <v>1.84</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT47" t="n">
         <v>1.33</v>
@@ -10850,7 +10850,7 @@
         <v>0.8</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU51" t="n">
         <v>1.11</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT52" t="n">
         <v>0.17</v>
@@ -11662,7 +11662,7 @@
         <v>1.17</v>
       </c>
       <c r="AT55" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU55" t="n">
         <v>1.7</v>
@@ -11865,7 +11865,7 @@
         <v>2.33</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU56" t="n">
         <v>1.43</v>
@@ -12268,7 +12268,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
         <v>0.83</v>
@@ -12474,7 +12474,7 @@
         <v>1.43</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU59" t="n">
         <v>1.05</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU62" t="n">
         <v>1.7</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT64" t="n">
         <v>2.14</v>
@@ -13692,7 +13692,7 @@
         <v>0.57</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU65" t="n">
         <v>1.03</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT68" t="n">
         <v>1.67</v>
@@ -14707,7 +14707,7 @@
         <v>2.25</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU70" t="n">
         <v>1.28</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT72" t="n">
         <v>1.4</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
         <v>1.67</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU82" t="n">
         <v>1.7</v>
@@ -17346,7 +17346,7 @@
         <v>0.57</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU83" t="n">
         <v>1.03</v>
@@ -17549,7 +17549,7 @@
         <v>1.43</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU84" t="n">
         <v>1.07</v>
@@ -17749,7 +17749,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT85" t="n">
         <v>1</v>
@@ -17952,7 +17952,7 @@
         <v>1.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT86" t="n">
         <v>1.17</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT87" t="n">
         <v>0.83</v>
@@ -18564,7 +18564,7 @@
         <v>2.5</v>
       </c>
       <c r="AT89" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU89" t="n">
         <v>1.4</v>
@@ -19173,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="AT92" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU92" t="n">
         <v>1.25</v>
@@ -19982,7 +19982,7 @@
         <v>0.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT96" t="n">
         <v>0.83</v>
@@ -21403,10 +21403,10 @@
         <v>0.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU103" t="n">
         <v>1.51</v>
@@ -22270,6 +22270,818 @@
       </c>
       <c r="BK107" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5189038</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45058.3125</v>
+      </c>
+      <c r="F108" t="n">
+        <v>13</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>3</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['12', '25']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>6</v>
+      </c>
+      <c r="S108" t="n">
+        <v>10</v>
+      </c>
+      <c r="T108" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X108" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5189039</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45059.08333333334</v>
+      </c>
+      <c r="F109" t="n">
+        <v>13</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['47', '90+5']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>8</v>
+      </c>
+      <c r="S109" t="n">
+        <v>12</v>
+      </c>
+      <c r="T109" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5189040</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45059.125</v>
+      </c>
+      <c r="F110" t="n">
+        <v>13</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="n">
+        <v>6</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['59', '60']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['6', '70', '75', '87']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>8</v>
+      </c>
+      <c r="T110" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V110" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5189041</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45059.16666666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>13</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>10</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>13</v>
+      </c>
+      <c r="T111" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V111" t="n">
+        <v>5</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X111" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>23</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>30</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0.57</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT6" t="n">
         <v>2.14</v>
@@ -2527,7 +2527,7 @@
         <v>0.86</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT16" t="n">
         <v>1.71</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT23" t="n">
         <v>1.71</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT24" t="n">
         <v>0.71</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU25" t="n">
         <v>1.22</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT27" t="n">
         <v>0.83</v>
@@ -6181,7 +6181,7 @@
         <v>1.17</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU28" t="n">
         <v>1.2</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT30" t="n">
         <v>1.71</v>
@@ -6790,7 +6790,7 @@
         <v>1.43</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU31" t="n">
         <v>1.05</v>
@@ -6993,7 +6993,7 @@
         <v>1.17</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU32" t="n">
         <v>1.7</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -7399,7 +7399,7 @@
         <v>0.86</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU34" t="n">
         <v>1.15</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT41" t="n">
         <v>0.83</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU44" t="n">
         <v>1.37</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT48" t="n">
         <v>2.6</v>
@@ -10644,10 +10644,10 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU50" t="n">
         <v>1.26</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT51" t="n">
         <v>2.17</v>
@@ -11053,7 +11053,7 @@
         <v>0.83</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU52" t="n">
         <v>2.13</v>
@@ -11459,7 +11459,7 @@
         <v>1.43</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU54" t="n">
         <v>1.08</v>
@@ -12068,7 +12068,7 @@
         <v>1.67</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU57" t="n">
         <v>2.14</v>
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT63" t="n">
         <v>1.17</v>
@@ -13892,7 +13892,7 @@
         <v>0.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT66" t="n">
         <v>0.5</v>
@@ -14301,7 +14301,7 @@
         <v>0.83</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU68" t="n">
         <v>1.93</v>
@@ -14504,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU69" t="n">
         <v>1.37</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT70" t="n">
         <v>1.71</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT71" t="n">
         <v>2.6</v>
@@ -15113,7 +15113,7 @@
         <v>2.17</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU72" t="n">
         <v>1.48</v>
@@ -15313,10 +15313,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU73" t="n">
         <v>1.01</v>
@@ -15722,7 +15722,7 @@
         <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU75" t="n">
         <v>1.32</v>
@@ -16125,10 +16125,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU77" t="n">
         <v>1.14</v>
@@ -16328,7 +16328,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT78" t="n">
         <v>2.14</v>
@@ -18361,7 +18361,7 @@
         <v>2.33</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU88" t="n">
         <v>1.49</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT89" t="n">
         <v>1.71</v>
@@ -18764,10 +18764,10 @@
         <v>0.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU90" t="n">
         <v>1.08</v>
@@ -19170,7 +19170,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT92" t="n">
         <v>1.71</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU93" t="n">
         <v>1.88</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT94" t="n">
         <v>0.71</v>
@@ -19782,7 +19782,7 @@
         <v>1.17</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU95" t="n">
         <v>1.02</v>
@@ -20797,7 +20797,7 @@
         <v>1.67</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU100" t="n">
         <v>1.52</v>
@@ -21809,7 +21809,7 @@
         <v>0.8</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT105" t="n">
         <v>0.83</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU106" t="n">
         <v>1.29</v>
@@ -22215,10 +22215,10 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU107" t="n">
         <v>1.29</v>
@@ -22740,13 +22740,13 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R110" t="n">
         <v>3</v>
       </c>
       <c r="S110" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T110" t="n">
         <v>3.05</v>
@@ -23082,6 +23082,1021 @@
       </c>
       <c r="BK111" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5189044</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45060.0625</v>
+      </c>
+      <c r="F112" t="n">
+        <v>13</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>7</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>11</v>
+      </c>
+      <c r="T112" t="n">
+        <v>4</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X112" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5189042</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45060.0625</v>
+      </c>
+      <c r="F113" t="n">
+        <v>13</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['29', '84']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>3</v>
+      </c>
+      <c r="R113" t="n">
+        <v>8</v>
+      </c>
+      <c r="S113" t="n">
+        <v>11</v>
+      </c>
+      <c r="T113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2</v>
+      </c>
+      <c r="V113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5189043</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45060.0625</v>
+      </c>
+      <c r="F114" t="n">
+        <v>13</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['57', '67']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>7</v>
+      </c>
+      <c r="R114" t="n">
+        <v>6</v>
+      </c>
+      <c r="S114" t="n">
+        <v>13</v>
+      </c>
+      <c r="T114" t="n">
+        <v>4</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X114" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5189045</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45060.0625</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>4</v>
+      </c>
+      <c r="S115" t="n">
+        <v>9</v>
+      </c>
+      <c r="T115" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V115" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5189046</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45060.16666666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>13</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['45+2', '54', '59']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>9</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2</v>
+      </c>
+      <c r="S116" t="n">
+        <v>11</v>
+      </c>
+      <c r="T116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V116" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X116" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK116"/>
+  <dimension ref="A1:BK125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.17</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT5" t="n">
         <v>1.86</v>
@@ -1918,7 +1918,7 @@
         <v>1.43</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT10" t="n">
         <v>0.14</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT11" t="n">
         <v>0.83</v>
@@ -2933,7 +2933,7 @@
         <v>2.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT14" t="n">
         <v>1.14</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.67</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU18" t="n">
         <v>1.61</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU19" t="n">
         <v>1.53</v>
@@ -4557,7 +4557,7 @@
         <v>2.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU20" t="n">
         <v>1.93</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT22" t="n">
         <v>2.14</v>
@@ -5369,7 +5369,7 @@
         <v>0.86</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU24" t="n">
         <v>0.79</v>
@@ -5775,7 +5775,7 @@
         <v>2.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT27" t="n">
         <v>0.83</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT28" t="n">
         <v>1.86</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU29" t="n">
         <v>1.31</v>
@@ -6587,7 +6587,7 @@
         <v>1.57</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU30" t="n">
         <v>1.4</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU32" t="n">
         <v>1.7</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -7396,7 +7396,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT34" t="n">
         <v>1.86</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>2.48</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU37" t="n">
         <v>2.2</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU38" t="n">
         <v>2.05</v>
@@ -8411,10 +8411,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>0.96</v>
@@ -8820,7 +8820,7 @@
         <v>2.4</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU41" t="n">
         <v>1.37</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT42" t="n">
         <v>1.71</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AU43" t="n">
         <v>1.25</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU44" t="n">
         <v>1.37</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10035,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU47" t="n">
         <v>1.4</v>
@@ -10241,7 +10241,7 @@
         <v>0.86</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AU48" t="n">
         <v>1.03</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT49" t="n">
         <v>0.5</v>
@@ -10847,10 +10847,10 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU51" t="n">
         <v>1.11</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT52" t="n">
         <v>0.14</v>
@@ -11253,10 +11253,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU53" t="n">
         <v>0.95</v>
@@ -11459,7 +11459,7 @@
         <v>1.43</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU54" t="n">
         <v>1.08</v>
@@ -11659,10 +11659,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.7</v>
@@ -12271,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU58" t="n">
         <v>1.26</v>
@@ -12877,10 +12877,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU62" t="n">
         <v>1.7</v>
@@ -13283,10 +13283,10 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.41</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT64" t="n">
         <v>2.14</v>
@@ -13689,10 +13689,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU65" t="n">
         <v>1.03</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT67" t="n">
         <v>0.83</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU68" t="n">
         <v>1.93</v>
@@ -14907,10 +14907,10 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AU71" t="n">
         <v>1.16</v>
@@ -15113,7 +15113,7 @@
         <v>2.17</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU72" t="n">
         <v>1.48</v>
@@ -15519,7 +15519,7 @@
         <v>1.67</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU74" t="n">
         <v>2.14</v>
@@ -15722,7 +15722,7 @@
         <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU75" t="n">
         <v>1.32</v>
@@ -16531,7 +16531,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT79" t="n">
         <v>0.5</v>
@@ -16734,7 +16734,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT80" t="n">
         <v>1</v>
@@ -16940,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU81" t="n">
         <v>1.38</v>
@@ -17140,7 +17140,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT82" t="n">
         <v>0.83</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT83" t="n">
         <v>1.71</v>
@@ -17549,7 +17549,7 @@
         <v>1.43</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU84" t="n">
         <v>1.07</v>
@@ -17952,10 +17952,10 @@
         <v>1.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.19</v>
@@ -18158,7 +18158,7 @@
         <v>2.17</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU87" t="n">
         <v>1.35</v>
@@ -18561,10 +18561,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU89" t="n">
         <v>1.4</v>
@@ -18764,7 +18764,7 @@
         <v>0.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT90" t="n">
         <v>0.14</v>
@@ -18967,7 +18967,7 @@
         <v>1.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT91" t="n">
         <v>2.14</v>
@@ -19173,7 +19173,7 @@
         <v>0.86</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.25</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU93" t="n">
         <v>1.88</v>
@@ -19576,10 +19576,10 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU94" t="n">
         <v>1.33</v>
@@ -19779,10 +19779,10 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU95" t="n">
         <v>1.02</v>
@@ -19982,7 +19982,7 @@
         <v>0.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT96" t="n">
         <v>0.83</v>
@@ -20185,10 +20185,10 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AU97" t="n">
         <v>1.51</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU98" t="n">
         <v>1.08</v>
@@ -20591,10 +20591,10 @@
         <v>0.83</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU99" t="n">
         <v>1.59</v>
@@ -20794,7 +20794,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT100" t="n">
         <v>0.14</v>
@@ -21609,7 +21609,7 @@
         <v>2.33</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU104" t="n">
         <v>1.36</v>
@@ -22421,7 +22421,7 @@
         <v>2.17</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU108" t="n">
         <v>1.34</v>
@@ -22624,7 +22624,7 @@
         <v>2</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU109" t="n">
         <v>1.54</v>
@@ -22824,7 +22824,7 @@
         <v>1.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT110" t="n">
         <v>1.71</v>
@@ -23027,7 +23027,7 @@
         <v>0.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT111" t="n">
         <v>0.83</v>
@@ -23233,7 +23233,7 @@
         <v>0.86</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU112" t="n">
         <v>1.25</v>
@@ -23433,7 +23433,7 @@
         <v>2.17</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT113" t="n">
         <v>1.86</v>
@@ -23639,7 +23639,7 @@
         <v>1.57</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU114" t="n">
         <v>1.35</v>
@@ -23839,7 +23839,7 @@
         <v>1.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT115" t="n">
         <v>1.14</v>
@@ -24097,6 +24097,1833 @@
       </c>
       <c r="BK116" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5189047</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45065.3125</v>
+      </c>
+      <c r="F117" t="n">
+        <v>14</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['7', '72']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>3</v>
+      </c>
+      <c r="R117" t="n">
+        <v>4</v>
+      </c>
+      <c r="S117" t="n">
+        <v>7</v>
+      </c>
+      <c r="T117" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V117" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X117" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5189048</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45066.04166666666</v>
+      </c>
+      <c r="F118" t="n">
+        <v>14</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>6</v>
+      </c>
+      <c r="R118" t="n">
+        <v>4</v>
+      </c>
+      <c r="S118" t="n">
+        <v>10</v>
+      </c>
+      <c r="T118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V118" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5189049</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45066.125</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>2</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>3</v>
+      </c>
+      <c r="R119" t="n">
+        <v>7</v>
+      </c>
+      <c r="S119" t="n">
+        <v>10</v>
+      </c>
+      <c r="T119" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V119" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X119" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5189050</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45066.125</v>
+      </c>
+      <c r="F120" t="n">
+        <v>14</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['53', '89']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>6</v>
+      </c>
+      <c r="R120" t="n">
+        <v>3</v>
+      </c>
+      <c r="S120" t="n">
+        <v>9</v>
+      </c>
+      <c r="T120" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V120" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X120" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5189051</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45066.125</v>
+      </c>
+      <c r="F121" t="n">
+        <v>14</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>2</v>
+      </c>
+      <c r="L121" t="n">
+        <v>2</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>3</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['43', '48']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>4</v>
+      </c>
+      <c r="R121" t="n">
+        <v>7</v>
+      </c>
+      <c r="S121" t="n">
+        <v>11</v>
+      </c>
+      <c r="T121" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U121" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5189052</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45066.16666666666</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>8</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1</v>
+      </c>
+      <c r="S122" t="n">
+        <v>9</v>
+      </c>
+      <c r="T122" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V122" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X122" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5189053</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45066.16666666666</v>
+      </c>
+      <c r="F123" t="n">
+        <v>14</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="n">
+        <v>3</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['44', '48']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>1</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1</v>
+      </c>
+      <c r="S123" t="n">
+        <v>2</v>
+      </c>
+      <c r="T123" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X123" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5189054</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45066.20833333334</v>
+      </c>
+      <c r="F124" t="n">
+        <v>14</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['11', '80']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>4</v>
+      </c>
+      <c r="R124" t="n">
+        <v>9</v>
+      </c>
+      <c r="S124" t="n">
+        <v>13</v>
+      </c>
+      <c r="T124" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V124" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X124" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5189055</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45066.29166666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['37', '79']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>7</v>
+      </c>
+      <c r="R125" t="n">
+        <v>6</v>
+      </c>
+      <c r="S125" t="n">
+        <v>13</v>
+      </c>
+      <c r="T125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V125" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X125" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK125"/>
+  <dimension ref="A1:BK134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT2" t="n">
         <v>1.63</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT3" t="n">
         <v>1.71</v>
@@ -1309,7 +1309,7 @@
         <v>2.17</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0.88</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT7" t="n">
         <v>0.71</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0.88</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0.71</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT13" t="n">
         <v>2.33</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT18" t="n">
         <v>0.71</v>
@@ -4354,7 +4354,7 @@
         <v>0.88</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU19" t="n">
         <v>1.53</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT20" t="n">
         <v>1.86</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU21" t="n">
         <v>1.61</v>
@@ -4963,7 +4963,7 @@
         <v>0.88</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>1.4</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT23" t="n">
         <v>1.71</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU24" t="n">
         <v>0.79</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU25" t="n">
         <v>1.22</v>
@@ -5978,7 +5978,7 @@
         <v>2.13</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU27" t="n">
         <v>1.71</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>1.2</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.31</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT30" t="n">
         <v>1.5</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT31" t="n">
         <v>1.14</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT32" t="n">
         <v>1.63</v>
@@ -7196,7 +7196,7 @@
         <v>1.14</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU33" t="n">
         <v>1.05</v>
@@ -7399,7 +7399,7 @@
         <v>0.88</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU34" t="n">
         <v>1.15</v>
@@ -7602,7 +7602,7 @@
         <v>2.17</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU35" t="n">
         <v>1.14</v>
@@ -8211,7 +8211,7 @@
         <v>1.86</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU38" t="n">
         <v>2.05</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.61</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT43" t="n">
         <v>2.33</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT44" t="n">
         <v>1.86</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU45" t="n">
         <v>2.41</v>
@@ -9835,7 +9835,7 @@
         <v>2.13</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU46" t="n">
         <v>1.39</v>
@@ -10038,7 +10038,7 @@
         <v>0.88</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU47" t="n">
         <v>1.4</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT48" t="n">
         <v>2.33</v>
@@ -10444,7 +10444,7 @@
         <v>0.88</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU49" t="n">
         <v>1.01</v>
@@ -10644,10 +10644,10 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU50" t="n">
         <v>1.26</v>
@@ -11053,7 +11053,7 @@
         <v>0.71</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU52" t="n">
         <v>2.13</v>
@@ -11253,10 +11253,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU53" t="n">
         <v>0.95</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT54" t="n">
         <v>1.63</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT55" t="n">
         <v>1.5</v>
@@ -11862,10 +11862,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU56" t="n">
         <v>1.43</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT57" t="n">
         <v>1.14</v>
@@ -12268,7 +12268,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT58" t="n">
         <v>0.71</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT59" t="n">
         <v>1.71</v>
@@ -12677,7 +12677,7 @@
         <v>2.17</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU60" t="n">
         <v>1.47</v>
@@ -12880,7 +12880,7 @@
         <v>1.86</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13489,7 +13489,7 @@
         <v>0.88</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.3</v>
@@ -13892,10 +13892,10 @@
         <v>0.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU66" t="n">
         <v>1.31</v>
@@ -14095,10 +14095,10 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU67" t="n">
         <v>1.01</v>
@@ -14501,10 +14501,10 @@
         <v>2.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU69" t="n">
         <v>1.37</v>
@@ -15313,10 +15313,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU73" t="n">
         <v>1.01</v>
@@ -15516,10 +15516,10 @@
         <v>0.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU74" t="n">
         <v>2.14</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT75" t="n">
         <v>1.63</v>
@@ -15922,10 +15922,10 @@
         <v>0.33</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU76" t="n">
         <v>1.1</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT77" t="n">
         <v>1.14</v>
@@ -16328,10 +16328,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU78" t="n">
         <v>1.26</v>
@@ -16531,10 +16531,10 @@
         <v>0.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU79" t="n">
         <v>1.8</v>
@@ -16737,7 +16737,7 @@
         <v>1.86</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU80" t="n">
         <v>1.44</v>
@@ -16937,10 +16937,10 @@
         <v>1.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1.38</v>
@@ -17143,7 +17143,7 @@
         <v>0.86</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU82" t="n">
         <v>1.7</v>
@@ -17546,7 +17546,7 @@
         <v>2.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT84" t="n">
         <v>1.86</v>
@@ -17749,10 +17749,10 @@
         <v>1.2</v>
       </c>
       <c r="AS85" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT85" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU85" t="n">
         <v>1.42</v>
@@ -18358,10 +18358,10 @@
         <v>2.4</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU88" t="n">
         <v>1.49</v>
@@ -18767,7 +18767,7 @@
         <v>1.14</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.08</v>
@@ -18967,10 +18967,10 @@
         <v>1.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU91" t="n">
         <v>1.68</v>
@@ -19170,7 +19170,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT92" t="n">
         <v>1.5</v>
@@ -19579,7 +19579,7 @@
         <v>2.13</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU94" t="n">
         <v>1.33</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT95" t="n">
         <v>1.63</v>
@@ -19985,7 +19985,7 @@
         <v>0.71</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU96" t="n">
         <v>1.82</v>
@@ -20591,10 +20591,10 @@
         <v>0.83</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU99" t="n">
         <v>1.59</v>
@@ -20797,7 +20797,7 @@
         <v>1.86</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU100" t="n">
         <v>1.52</v>
@@ -20997,10 +20997,10 @@
         <v>0.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU101" t="n">
         <v>2.02</v>
@@ -21200,10 +21200,10 @@
         <v>2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU102" t="n">
         <v>1.03</v>
@@ -21403,10 +21403,10 @@
         <v>0.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU103" t="n">
         <v>1.51</v>
@@ -21606,7 +21606,7 @@
         <v>1.4</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT104" t="n">
         <v>1</v>
@@ -21809,10 +21809,10 @@
         <v>0.8</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU105" t="n">
         <v>1.24</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT106" t="n">
         <v>1.14</v>
@@ -22621,7 +22621,7 @@
         <v>2.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT109" t="n">
         <v>1.86</v>
@@ -23030,7 +23030,7 @@
         <v>0.88</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU111" t="n">
         <v>1.2</v>
@@ -23230,7 +23230,7 @@
         <v>1.4</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT112" t="n">
         <v>1.86</v>
@@ -23436,7 +23436,7 @@
         <v>1.14</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU113" t="n">
         <v>1.16</v>
@@ -23636,7 +23636,7 @@
         <v>1.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT114" t="n">
         <v>1.63</v>
@@ -24045,7 +24045,7 @@
         <v>2.4</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU116" t="n">
         <v>1.52</v>
@@ -24245,7 +24245,7 @@
         <v>1.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT117" t="n">
         <v>1</v>
@@ -24451,7 +24451,7 @@
         <v>2.13</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.51</v>
@@ -24654,7 +24654,7 @@
         <v>1.14</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU119" t="n">
         <v>1.21</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT124" t="n">
         <v>0.71</v>
@@ -25924,6 +25924,1833 @@
       </c>
       <c r="BK125" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5189056</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45073.04166666666</v>
+      </c>
+      <c r="F126" t="n">
+        <v>15</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="n">
+        <v>3</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['1', '55']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>7</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2</v>
+      </c>
+      <c r="S126" t="n">
+        <v>9</v>
+      </c>
+      <c r="T126" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V126" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5189057</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45073.08333333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>15</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>3</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>3</v>
+      </c>
+      <c r="L127" t="n">
+        <v>3</v>
+      </c>
+      <c r="M127" t="n">
+        <v>2</v>
+      </c>
+      <c r="N127" t="n">
+        <v>5</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['20', '41', '44']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['59', '85']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>10</v>
+      </c>
+      <c r="R127" t="n">
+        <v>4</v>
+      </c>
+      <c r="S127" t="n">
+        <v>14</v>
+      </c>
+      <c r="T127" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V127" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X127" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5189058</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45073.08333333334</v>
+      </c>
+      <c r="F128" t="n">
+        <v>15</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>10</v>
+      </c>
+      <c r="R128" t="n">
+        <v>3</v>
+      </c>
+      <c r="S128" t="n">
+        <v>13</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V128" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X128" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5189059</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45073.20833333334</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2</v>
+      </c>
+      <c r="L129" t="n">
+        <v>2</v>
+      </c>
+      <c r="M129" t="n">
+        <v>2</v>
+      </c>
+      <c r="N129" t="n">
+        <v>4</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['27', '69']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['34', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>3</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
+      <c r="S129" t="n">
+        <v>3</v>
+      </c>
+      <c r="T129" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V129" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X129" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5189060</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45073.29166666666</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['52', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>6</v>
+      </c>
+      <c r="R130" t="n">
+        <v>6</v>
+      </c>
+      <c r="S130" t="n">
+        <v>12</v>
+      </c>
+      <c r="T130" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V130" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5189061</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45074.08333333334</v>
+      </c>
+      <c r="F131" t="n">
+        <v>15</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>2</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['8', '20']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>4</v>
+      </c>
+      <c r="R131" t="n">
+        <v>4</v>
+      </c>
+      <c r="S131" t="n">
+        <v>8</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V131" t="n">
+        <v>5</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X131" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5189062</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45074.08333333334</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>3</v>
+      </c>
+      <c r="N132" t="n">
+        <v>4</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['2', '43', '56']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>7</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2</v>
+      </c>
+      <c r="S132" t="n">
+        <v>9</v>
+      </c>
+      <c r="T132" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V132" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5189063</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45074.08333333334</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['43', '85']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>4</v>
+      </c>
+      <c r="R133" t="n">
+        <v>5</v>
+      </c>
+      <c r="S133" t="n">
+        <v>9</v>
+      </c>
+      <c r="T133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V133" t="n">
+        <v>5</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5189064</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45074.20833333334</v>
+      </c>
+      <c r="F134" t="n">
+        <v>15</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['21', '45+1']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>7</v>
+      </c>
+      <c r="R134" t="n">
+        <v>1</v>
+      </c>
+      <c r="S134" t="n">
+        <v>8</v>
+      </c>
+      <c r="T134" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V134" t="n">
+        <v>5</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X134" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,27 @@
     <t>['72', '90+2']</t>
   </si>
   <si>
+    <t>['34', '44']</t>
+  </si>
+  <si>
+    <t>['2', '83']</t>
+  </si>
+  <si>
+    <t>['21', '31', '43']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['15', '34', '53', '90+1']</t>
+  </si>
+  <si>
+    <t>['59', '71', '90+3']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -779,6 +800,21 @@
   </si>
   <si>
     <t>['50']</t>
+  </si>
+  <si>
+    <t>['1', '62', '89']</t>
+  </si>
+  <si>
+    <t>['30', '62']</t>
+  </si>
+  <si>
+    <t>['24', '32']</t>
+  </si>
+  <si>
+    <t>['55', '73']</t>
+  </si>
+  <si>
+    <t>['10', '18', '31', '69', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK135"/>
+  <dimension ref="A1:BK143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,7 +1420,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1474,7 +1510,7 @@
         <v>1.29</v>
       </c>
       <c r="AT2">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1662,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT3">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1853,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT4">
         <v>1.5</v>
@@ -1957,7 +1993,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2044,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT5">
         <v>2</v>
@@ -2238,7 +2274,7 @@
         <v>0.75</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2339,7 +2375,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2429,7 +2465,7 @@
         <v>1.63</v>
       </c>
       <c r="AT7">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2721,7 +2757,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2912,7 +2948,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2999,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT10">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3103,7 +3139,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3190,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT11">
         <v>0.71</v>
@@ -3485,7 +3521,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3676,7 +3712,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3766,7 +3802,7 @@
         <v>0.86</v>
       </c>
       <c r="AT14">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3867,7 +3903,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3954,10 +3990,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT15">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4058,7 +4094,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4336,10 +4372,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4440,7 +4476,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4527,10 +4563,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT18">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU18">
         <v>1.61</v>
@@ -4631,7 +4667,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4718,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT19">
         <v>0.67</v>
@@ -4822,7 +4858,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -5013,7 +5049,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5204,7 +5240,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5291,10 +5327,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT22">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU22">
         <v>1.4</v>
@@ -5395,7 +5431,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5485,7 +5521,7 @@
         <v>1.38</v>
       </c>
       <c r="AT23">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5867,7 +5903,7 @@
         <v>2.11</v>
       </c>
       <c r="AT25">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU25">
         <v>1.22</v>
@@ -5968,7 +6004,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6055,10 +6091,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT26">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6246,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT27">
         <v>0.71</v>
@@ -6541,7 +6577,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6923,7 +6959,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7013,7 +7049,7 @@
         <v>1.63</v>
       </c>
       <c r="AT31">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU31">
         <v>1.05</v>
@@ -7204,7 +7240,7 @@
         <v>1.25</v>
       </c>
       <c r="AT32">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU32">
         <v>1.7</v>
@@ -7496,7 +7532,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7583,7 +7619,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT34">
         <v>2</v>
@@ -7687,7 +7723,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7774,7 +7810,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT35">
         <v>0.71</v>
@@ -7878,7 +7914,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7965,10 +8001,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU36">
         <v>2.48</v>
@@ -8069,7 +8105,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8347,7 +8383,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT38">
         <v>0.67</v>
@@ -8451,7 +8487,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8538,10 +8574,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
+        <v>0.78</v>
+      </c>
+      <c r="AT39">
         <v>0.88</v>
-      </c>
-      <c r="AT39">
-        <v>1</v>
       </c>
       <c r="AU39">
         <v>0.96</v>
@@ -8732,7 +8768,7 @@
         <v>2.43</v>
       </c>
       <c r="AT40">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU40">
         <v>1.61</v>
@@ -8833,7 +8869,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8920,10 +8956,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT41">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU41">
         <v>1.37</v>
@@ -9024,7 +9060,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9114,7 +9150,7 @@
         <v>0.86</v>
       </c>
       <c r="AT42">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU42">
         <v>1.84</v>
@@ -9496,7 +9532,7 @@
         <v>1.29</v>
       </c>
       <c r="AT44">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU44">
         <v>1.37</v>
@@ -9684,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT45">
         <v>0.71</v>
@@ -9788,7 +9824,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -9875,7 +9911,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT46">
         <v>0.86</v>
@@ -9979,7 +10015,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10066,7 +10102,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT47">
         <v>1.5</v>
@@ -10170,7 +10206,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10361,7 +10397,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10448,7 +10484,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT49">
         <v>0.43</v>
@@ -10552,7 +10588,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10743,7 +10779,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10934,7 +10970,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11021,10 +11057,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT52">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU52">
         <v>2.13</v>
@@ -11406,7 +11442,7 @@
         <v>1.63</v>
       </c>
       <c r="AT54">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU54">
         <v>1.08</v>
@@ -11507,7 +11543,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11976,10 +12012,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT57">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU57">
         <v>2.14</v>
@@ -12170,7 +12206,7 @@
         <v>2.11</v>
       </c>
       <c r="AT58">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU58">
         <v>1.26</v>
@@ -12271,7 +12307,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12361,7 +12397,7 @@
         <v>1.63</v>
       </c>
       <c r="AT59">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU59">
         <v>1.05</v>
@@ -12462,7 +12498,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12549,7 +12585,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT60">
         <v>0.86</v>
@@ -12740,7 +12776,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT61">
         <v>1.5</v>
@@ -13122,10 +13158,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU63">
         <v>1.41</v>
@@ -13313,10 +13349,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT64">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU64">
         <v>1.3</v>
@@ -13417,7 +13453,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13504,7 +13540,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT65">
         <v>1.63</v>
@@ -13608,7 +13644,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13990,7 +14026,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14077,10 +14113,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT68">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU68">
         <v>1.93</v>
@@ -14181,7 +14217,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14372,7 +14408,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14459,10 +14495,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT70">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU70">
         <v>1.28</v>
@@ -14563,7 +14599,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14754,7 +14790,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14841,10 +14877,10 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT72">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU72">
         <v>1.48</v>
@@ -14945,7 +14981,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15035,7 +15071,7 @@
         <v>0.75</v>
       </c>
       <c r="AT73">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU73">
         <v>1.01</v>
@@ -15136,7 +15172,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15223,7 +15259,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>0.67</v>
@@ -15327,7 +15363,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15417,7 +15453,7 @@
         <v>2.11</v>
       </c>
       <c r="AT75">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU75">
         <v>1.32</v>
@@ -15709,7 +15745,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15799,7 +15835,7 @@
         <v>0.75</v>
       </c>
       <c r="AT77">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU77">
         <v>1.14</v>
@@ -15900,7 +15936,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -15990,7 +16026,7 @@
         <v>1.38</v>
       </c>
       <c r="AT78">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16091,7 +16127,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16282,7 +16318,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16369,7 +16405,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT80">
         <v>0.86</v>
@@ -16664,7 +16700,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16855,7 +16891,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16942,10 +16978,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT83">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU83">
         <v>1.03</v>
@@ -17046,7 +17082,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17428,7 +17464,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17515,10 +17551,10 @@
         <v>1.5</v>
       </c>
       <c r="AS86">
+        <v>0.78</v>
+      </c>
+      <c r="AT86">
         <v>0.88</v>
-      </c>
-      <c r="AT86">
-        <v>1</v>
       </c>
       <c r="AU86">
         <v>1.19</v>
@@ -17706,10 +17742,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT87">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU87">
         <v>1.35</v>
@@ -17810,7 +17846,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -18001,7 +18037,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18088,7 +18124,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT89">
         <v>1.5</v>
@@ -18282,7 +18318,7 @@
         <v>1.14</v>
       </c>
       <c r="AT90">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU90">
         <v>1.08</v>
@@ -18383,7 +18419,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18473,7 +18509,7 @@
         <v>1.25</v>
       </c>
       <c r="AT91">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU91">
         <v>1.68</v>
@@ -18574,7 +18610,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18765,7 +18801,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18855,7 +18891,7 @@
         <v>0.86</v>
       </c>
       <c r="AT93">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU93">
         <v>1.88</v>
@@ -19043,7 +19079,7 @@
         <v>1</v>
       </c>
       <c r="AS94">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT94">
         <v>0.67</v>
@@ -19147,7 +19183,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19237,7 +19273,7 @@
         <v>1.38</v>
       </c>
       <c r="AT95">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU95">
         <v>1.02</v>
@@ -19338,7 +19374,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>2</v>
@@ -19425,7 +19461,7 @@
         <v>0.25</v>
       </c>
       <c r="AS96">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT96">
         <v>0.71</v>
@@ -19529,7 +19565,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19616,7 +19652,7 @@
         <v>3</v>
       </c>
       <c r="AS97">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT97">
         <v>2.33</v>
@@ -19807,10 +19843,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT98">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU98">
         <v>1.08</v>
@@ -19911,7 +19947,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20189,10 +20225,10 @@
         <v>0.2</v>
       </c>
       <c r="AS100">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT100">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU100">
         <v>1.52</v>
@@ -20293,7 +20329,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20380,7 +20416,7 @@
         <v>0.6</v>
       </c>
       <c r="AS101">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT101">
         <v>0.43</v>
@@ -20574,7 +20610,7 @@
         <v>1.63</v>
       </c>
       <c r="AT102">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU102">
         <v>1.03</v>
@@ -20866,7 +20902,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20956,7 +20992,7 @@
         <v>2.43</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU104">
         <v>1.36</v>
@@ -21338,7 +21374,7 @@
         <v>1.29</v>
       </c>
       <c r="AT106">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU106">
         <v>1.29</v>
@@ -21439,7 +21475,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21526,10 +21562,10 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT107">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU107">
         <v>1.29</v>
@@ -21630,7 +21666,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21717,7 +21753,7 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT108">
         <v>1.5</v>
@@ -22012,7 +22048,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22099,10 +22135,10 @@
         <v>1.5</v>
       </c>
       <c r="AS110">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT110">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU110">
         <v>1.74</v>
@@ -22290,7 +22326,7 @@
         <v>0.4</v>
       </c>
       <c r="AS111">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT111">
         <v>0.71</v>
@@ -22394,7 +22430,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22484,7 +22520,7 @@
         <v>0.75</v>
       </c>
       <c r="AT112">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU112">
         <v>1.25</v>
@@ -22776,7 +22812,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22866,7 +22902,7 @@
         <v>1.38</v>
       </c>
       <c r="AT114">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU114">
         <v>1.35</v>
@@ -23054,10 +23090,10 @@
         <v>1.17</v>
       </c>
       <c r="AS115">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT115">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU115">
         <v>1.41</v>
@@ -23245,10 +23281,10 @@
         <v>0.17</v>
       </c>
       <c r="AS116">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT116">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU116">
         <v>1.52</v>
@@ -23349,7 +23385,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23439,7 +23475,7 @@
         <v>1.25</v>
       </c>
       <c r="AT117">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU117">
         <v>1.79</v>
@@ -23627,7 +23663,7 @@
         <v>1.33</v>
       </c>
       <c r="AS118">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT118">
         <v>1.5</v>
@@ -23731,7 +23767,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23922,7 +23958,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24009,10 +24045,10 @@
         <v>1.67</v>
       </c>
       <c r="AS120">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT120">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU120">
         <v>1.63</v>
@@ -24113,7 +24149,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24200,7 +24236,7 @@
         <v>2.17</v>
       </c>
       <c r="AS121">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT121">
         <v>1.63</v>
@@ -24391,7 +24427,7 @@
         <v>2.6</v>
       </c>
       <c r="AS122">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT122">
         <v>2.33</v>
@@ -24582,7 +24618,7 @@
         <v>1.71</v>
       </c>
       <c r="AS123">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT123">
         <v>1.5</v>
@@ -24776,7 +24812,7 @@
         <v>1.38</v>
       </c>
       <c r="AT124">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU124">
         <v>1.29</v>
@@ -24877,7 +24913,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -24967,7 +25003,7 @@
         <v>0.86</v>
       </c>
       <c r="AT125">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU125">
         <v>1.84</v>
@@ -25068,7 +25104,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25259,7 +25295,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25537,7 +25573,7 @@
         <v>1</v>
       </c>
       <c r="AS128">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT128">
         <v>0.86</v>
@@ -25641,7 +25677,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25731,7 +25767,7 @@
         <v>1.38</v>
       </c>
       <c r="AT129">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU129">
         <v>1.26</v>
@@ -25832,7 +25868,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26214,7 +26250,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26304,7 +26340,7 @@
         <v>1.38</v>
       </c>
       <c r="AT132">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU132">
         <v>1.39</v>
@@ -26787,16 +26823,16 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S135">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T135">
         <v>3.2</v>
@@ -26874,7 +26910,7 @@
         <v>1.86</v>
       </c>
       <c r="AS135">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT135">
         <v>1.63</v>
@@ -26913,22 +26949,1550 @@
         <v>3.04</v>
       </c>
       <c r="BF135">
+        <v>7</v>
+      </c>
+      <c r="BG135">
+        <v>5</v>
+      </c>
+      <c r="BH135">
+        <v>9</v>
+      </c>
+      <c r="BI135">
+        <v>6</v>
+      </c>
+      <c r="BJ135">
+        <v>16</v>
+      </c>
+      <c r="BK135">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5189067</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45080.125</v>
+      </c>
+      <c r="F136">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>67</v>
+      </c>
+      <c r="H136" t="s">
+        <v>75</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>3</v>
+      </c>
+      <c r="N136">
+        <v>5</v>
+      </c>
+      <c r="O136" t="s">
+        <v>180</v>
+      </c>
+      <c r="P136" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q136">
+        <v>8</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>10</v>
+      </c>
+      <c r="T136">
+        <v>3.3</v>
+      </c>
+      <c r="U136">
+        <v>2.3</v>
+      </c>
+      <c r="V136">
+        <v>2.7</v>
+      </c>
+      <c r="W136">
+        <v>1.29</v>
+      </c>
+      <c r="X136">
+        <v>3.35</v>
+      </c>
+      <c r="Y136">
+        <v>2.34</v>
+      </c>
+      <c r="Z136">
+        <v>1.54</v>
+      </c>
+      <c r="AA136">
+        <v>5</v>
+      </c>
+      <c r="AB136">
+        <v>1.14</v>
+      </c>
+      <c r="AC136">
+        <v>2.13</v>
+      </c>
+      <c r="AD136">
+        <v>5.53</v>
+      </c>
+      <c r="AE136">
+        <v>2.18</v>
+      </c>
+      <c r="AF136">
+        <v>1.01</v>
+      </c>
+      <c r="AG136">
+        <v>9.9</v>
+      </c>
+      <c r="AH136">
+        <v>1.18</v>
+      </c>
+      <c r="AI136">
+        <v>4.5</v>
+      </c>
+      <c r="AJ136">
+        <v>1.55</v>
+      </c>
+      <c r="AK136">
+        <v>2.38</v>
+      </c>
+      <c r="AL136">
+        <v>1.5</v>
+      </c>
+      <c r="AM136">
+        <v>2.5</v>
+      </c>
+      <c r="AN136">
+        <v>1.57</v>
+      </c>
+      <c r="AO136">
+        <v>1.22</v>
+      </c>
+      <c r="AP136">
+        <v>1.4</v>
+      </c>
+      <c r="AQ136">
+        <v>2.17</v>
+      </c>
+      <c r="AR136">
+        <v>1.63</v>
+      </c>
+      <c r="AS136">
+        <v>1.86</v>
+      </c>
+      <c r="AT136">
+        <v>1.78</v>
+      </c>
+      <c r="AU136">
+        <v>1.33</v>
+      </c>
+      <c r="AV136">
+        <v>1.38</v>
+      </c>
+      <c r="AW136">
+        <v>2.71</v>
+      </c>
+      <c r="AX136">
+        <v>2.1</v>
+      </c>
+      <c r="AY136">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ136">
+        <v>1.99</v>
+      </c>
+      <c r="BA136">
+        <v>1.26</v>
+      </c>
+      <c r="BB136">
+        <v>1.49</v>
+      </c>
+      <c r="BC136">
+        <v>1.95</v>
+      </c>
+      <c r="BD136">
+        <v>2.41</v>
+      </c>
+      <c r="BE136">
+        <v>3.2</v>
+      </c>
+      <c r="BF136">
+        <v>7</v>
+      </c>
+      <c r="BG136">
+        <v>8</v>
+      </c>
+      <c r="BH136">
+        <v>10</v>
+      </c>
+      <c r="BI136">
+        <v>6</v>
+      </c>
+      <c r="BJ136">
+        <v>17</v>
+      </c>
+      <c r="BK136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5189068</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45080.125</v>
+      </c>
+      <c r="F137">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>74</v>
+      </c>
+      <c r="H137" t="s">
+        <v>81</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
         <v>4</v>
       </c>
-      <c r="BG135">
+      <c r="O137" t="s">
+        <v>181</v>
+      </c>
+      <c r="P137" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q137">
+        <v>7</v>
+      </c>
+      <c r="R137">
+        <v>5</v>
+      </c>
+      <c r="S137">
+        <v>12</v>
+      </c>
+      <c r="T137">
+        <v>2.6</v>
+      </c>
+      <c r="U137">
+        <v>2.2</v>
+      </c>
+      <c r="V137">
+        <v>3.5</v>
+      </c>
+      <c r="W137">
+        <v>1.36</v>
+      </c>
+      <c r="X137">
+        <v>3</v>
+      </c>
+      <c r="Y137">
+        <v>2.62</v>
+      </c>
+      <c r="Z137">
+        <v>1.44</v>
+      </c>
+      <c r="AA137">
+        <v>6.5</v>
+      </c>
+      <c r="AB137">
+        <v>1.1</v>
+      </c>
+      <c r="AC137">
+        <v>1.55</v>
+      </c>
+      <c r="AD137">
+        <v>5.43</v>
+      </c>
+      <c r="AE137">
+        <v>3.57</v>
+      </c>
+      <c r="AF137">
+        <v>1.05</v>
+      </c>
+      <c r="AG137">
+        <v>9</v>
+      </c>
+      <c r="AH137">
+        <v>1.29</v>
+      </c>
+      <c r="AI137">
+        <v>3.5</v>
+      </c>
+      <c r="AJ137">
+        <v>1.9</v>
+      </c>
+      <c r="AK137">
+        <v>1.98</v>
+      </c>
+      <c r="AL137">
+        <v>1.7</v>
+      </c>
+      <c r="AM137">
+        <v>2.05</v>
+      </c>
+      <c r="AN137">
+        <v>1.29</v>
+      </c>
+      <c r="AO137">
+        <v>1.25</v>
+      </c>
+      <c r="AP137">
+        <v>1.75</v>
+      </c>
+      <c r="AQ137">
+        <v>0.71</v>
+      </c>
+      <c r="AR137">
+        <v>0.71</v>
+      </c>
+      <c r="AS137">
+        <v>0.75</v>
+      </c>
+      <c r="AT137">
+        <v>0.75</v>
+      </c>
+      <c r="AU137">
+        <v>1.56</v>
+      </c>
+      <c r="AV137">
+        <v>1.3</v>
+      </c>
+      <c r="AW137">
+        <v>2.86</v>
+      </c>
+      <c r="AX137">
+        <v>1.59</v>
+      </c>
+      <c r="AY137">
+        <v>8.9</v>
+      </c>
+      <c r="AZ137">
+        <v>2.84</v>
+      </c>
+      <c r="BA137">
+        <v>1.31</v>
+      </c>
+      <c r="BB137">
+        <v>1.59</v>
+      </c>
+      <c r="BC137">
+        <v>2.02</v>
+      </c>
+      <c r="BD137">
+        <v>2.65</v>
+      </c>
+      <c r="BE137">
+        <v>3.64</v>
+      </c>
+      <c r="BF137">
+        <v>6</v>
+      </c>
+      <c r="BG137">
+        <v>8</v>
+      </c>
+      <c r="BH137">
         <v>4</v>
       </c>
-      <c r="BH135">
-        <v>3</v>
-      </c>
-      <c r="BI135">
-        <v>2</v>
-      </c>
-      <c r="BJ135">
+      <c r="BI137">
+        <v>4</v>
+      </c>
+      <c r="BJ137">
+        <v>10</v>
+      </c>
+      <c r="BK137">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5189069</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45080.16666666666</v>
+      </c>
+      <c r="F138">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>80</v>
+      </c>
+      <c r="H138" t="s">
+        <v>70</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>4</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>182</v>
+      </c>
+      <c r="P138" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q138">
+        <v>2</v>
+      </c>
+      <c r="R138">
+        <v>5</v>
+      </c>
+      <c r="S138">
         <v>7</v>
       </c>
-      <c r="BK135">
+      <c r="T138">
+        <v>2.63</v>
+      </c>
+      <c r="U138">
+        <v>2.05</v>
+      </c>
+      <c r="V138">
+        <v>4.33</v>
+      </c>
+      <c r="W138">
+        <v>1.48</v>
+      </c>
+      <c r="X138">
+        <v>2.5</v>
+      </c>
+      <c r="Y138">
+        <v>3.2</v>
+      </c>
+      <c r="Z138">
+        <v>1.3</v>
+      </c>
+      <c r="AA138">
+        <v>7.5</v>
+      </c>
+      <c r="AB138">
+        <v>1.06</v>
+      </c>
+      <c r="AC138">
+        <v>1.32</v>
+      </c>
+      <c r="AD138">
+        <v>7.6</v>
+      </c>
+      <c r="AE138">
+        <v>4.46</v>
+      </c>
+      <c r="AF138">
+        <v>1.06</v>
+      </c>
+      <c r="AG138">
+        <v>7.5</v>
+      </c>
+      <c r="AH138">
+        <v>1.36</v>
+      </c>
+      <c r="AI138">
+        <v>2.87</v>
+      </c>
+      <c r="AJ138">
+        <v>2.2</v>
+      </c>
+      <c r="AK138">
+        <v>1.63</v>
+      </c>
+      <c r="AL138">
+        <v>1.91</v>
+      </c>
+      <c r="AM138">
+        <v>1.8</v>
+      </c>
+      <c r="AN138">
+        <v>1.29</v>
+      </c>
+      <c r="AO138">
+        <v>1.33</v>
+      </c>
+      <c r="AP138">
+        <v>1.78</v>
+      </c>
+      <c r="AQ138">
+        <v>1.86</v>
+      </c>
+      <c r="AR138">
+        <v>1.86</v>
+      </c>
+      <c r="AS138">
+        <v>2</v>
+      </c>
+      <c r="AT138">
+        <v>1.63</v>
+      </c>
+      <c r="AU138">
+        <v>1.46</v>
+      </c>
+      <c r="AV138">
+        <v>1.17</v>
+      </c>
+      <c r="AW138">
+        <v>2.63</v>
+      </c>
+      <c r="AX138">
+        <v>1.66</v>
+      </c>
+      <c r="AY138">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ138">
+        <v>2.65</v>
+      </c>
+      <c r="BA138">
+        <v>1.33</v>
+      </c>
+      <c r="BB138">
+        <v>1.62</v>
+      </c>
+      <c r="BC138">
+        <v>2.08</v>
+      </c>
+      <c r="BD138">
+        <v>2.72</v>
+      </c>
+      <c r="BE138">
+        <v>3.74</v>
+      </c>
+      <c r="BF138">
+        <v>8</v>
+      </c>
+      <c r="BG138">
+        <v>4</v>
+      </c>
+      <c r="BH138">
+        <v>2</v>
+      </c>
+      <c r="BI138">
+        <v>5</v>
+      </c>
+      <c r="BJ138">
+        <v>10</v>
+      </c>
+      <c r="BK138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5189070</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45080.25</v>
+      </c>
+      <c r="F139">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s">
+        <v>77</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+      <c r="K139">
+        <v>3</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>183</v>
+      </c>
+      <c r="P139" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q139">
+        <v>7</v>
+      </c>
+      <c r="R139">
         <v>6</v>
+      </c>
+      <c r="S139">
+        <v>13</v>
+      </c>
+      <c r="T139">
+        <v>3.05</v>
+      </c>
+      <c r="U139">
+        <v>1.96</v>
+      </c>
+      <c r="V139">
+        <v>3.92</v>
+      </c>
+      <c r="W139">
+        <v>1.5</v>
+      </c>
+      <c r="X139">
+        <v>2.45</v>
+      </c>
+      <c r="Y139">
+        <v>3.25</v>
+      </c>
+      <c r="Z139">
+        <v>1.3</v>
+      </c>
+      <c r="AA139">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB139">
+        <v>1.04</v>
+      </c>
+      <c r="AC139">
+        <v>3</v>
+      </c>
+      <c r="AD139">
+        <v>3.37</v>
+      </c>
+      <c r="AE139">
+        <v>2.09</v>
+      </c>
+      <c r="AF139">
+        <v>1.06</v>
+      </c>
+      <c r="AG139">
+        <v>6.8</v>
+      </c>
+      <c r="AH139">
+        <v>1.43</v>
+      </c>
+      <c r="AI139">
+        <v>2.57</v>
+      </c>
+      <c r="AJ139">
+        <v>2.23</v>
+      </c>
+      <c r="AK139">
+        <v>1.58</v>
+      </c>
+      <c r="AL139">
+        <v>1.95</v>
+      </c>
+      <c r="AM139">
+        <v>1.8</v>
+      </c>
+      <c r="AN139">
+        <v>1.36</v>
+      </c>
+      <c r="AO139">
+        <v>1.36</v>
+      </c>
+      <c r="AP139">
+        <v>1.58</v>
+      </c>
+      <c r="AQ139">
+        <v>2.13</v>
+      </c>
+      <c r="AR139">
+        <v>0.5</v>
+      </c>
+      <c r="AS139">
+        <v>1.89</v>
+      </c>
+      <c r="AT139">
+        <v>0.78</v>
+      </c>
+      <c r="AU139">
+        <v>1.51</v>
+      </c>
+      <c r="AV139">
+        <v>1.21</v>
+      </c>
+      <c r="AW139">
+        <v>2.72</v>
+      </c>
+      <c r="AX139">
+        <v>1.79</v>
+      </c>
+      <c r="AY139">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ139">
+        <v>2.41</v>
+      </c>
+      <c r="BA139">
+        <v>1.45</v>
+      </c>
+      <c r="BB139">
+        <v>1.83</v>
+      </c>
+      <c r="BC139">
+        <v>2.36</v>
+      </c>
+      <c r="BD139">
+        <v>3.2</v>
+      </c>
+      <c r="BE139">
+        <v>4.5</v>
+      </c>
+      <c r="BF139">
+        <v>5</v>
+      </c>
+      <c r="BG139">
+        <v>6</v>
+      </c>
+      <c r="BH139">
+        <v>7</v>
+      </c>
+      <c r="BI139">
+        <v>3</v>
+      </c>
+      <c r="BJ139">
+        <v>12</v>
+      </c>
+      <c r="BK139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>5189071</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45080.27083333334</v>
+      </c>
+      <c r="F140">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>68</v>
+      </c>
+      <c r="H140" t="s">
+        <v>72</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>184</v>
+      </c>
+      <c r="P140" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q140">
+        <v>2</v>
+      </c>
+      <c r="R140">
+        <v>5</v>
+      </c>
+      <c r="S140">
+        <v>7</v>
+      </c>
+      <c r="T140">
+        <v>3.3</v>
+      </c>
+      <c r="U140">
+        <v>2.15</v>
+      </c>
+      <c r="V140">
+        <v>2.9</v>
+      </c>
+      <c r="W140">
+        <v>1.35</v>
+      </c>
+      <c r="X140">
+        <v>2.95</v>
+      </c>
+      <c r="Y140">
+        <v>2.65</v>
+      </c>
+      <c r="Z140">
+        <v>1.42</v>
+      </c>
+      <c r="AA140">
+        <v>6.45</v>
+      </c>
+      <c r="AB140">
+        <v>1.09</v>
+      </c>
+      <c r="AC140">
+        <v>2.69</v>
+      </c>
+      <c r="AD140">
+        <v>3.15</v>
+      </c>
+      <c r="AE140">
+        <v>2.42</v>
+      </c>
+      <c r="AF140">
+        <v>1.01</v>
+      </c>
+      <c r="AG140">
+        <v>9.9</v>
+      </c>
+      <c r="AH140">
+        <v>1.24</v>
+      </c>
+      <c r="AI140">
+        <v>3.55</v>
+      </c>
+      <c r="AJ140">
+        <v>1.89</v>
+      </c>
+      <c r="AK140">
+        <v>1.99</v>
+      </c>
+      <c r="AL140">
+        <v>1.65</v>
+      </c>
+      <c r="AM140">
+        <v>2.15</v>
+      </c>
+      <c r="AN140">
+        <v>1.58</v>
+      </c>
+      <c r="AO140">
+        <v>1.3</v>
+      </c>
+      <c r="AP140">
+        <v>1.42</v>
+      </c>
+      <c r="AQ140">
+        <v>0.88</v>
+      </c>
+      <c r="AR140">
+        <v>1.14</v>
+      </c>
+      <c r="AS140">
+        <v>0.78</v>
+      </c>
+      <c r="AT140">
+        <v>1.38</v>
+      </c>
+      <c r="AU140">
+        <v>1.12</v>
+      </c>
+      <c r="AV140">
+        <v>0.98</v>
+      </c>
+      <c r="AW140">
+        <v>2.1</v>
+      </c>
+      <c r="AX140">
+        <v>2.23</v>
+      </c>
+      <c r="AY140">
+        <v>8.6</v>
+      </c>
+      <c r="AZ140">
+        <v>1.89</v>
+      </c>
+      <c r="BA140">
+        <v>1.32</v>
+      </c>
+      <c r="BB140">
+        <v>1.6</v>
+      </c>
+      <c r="BC140">
+        <v>2.05</v>
+      </c>
+      <c r="BD140">
+        <v>2.69</v>
+      </c>
+      <c r="BE140">
+        <v>3.64</v>
+      </c>
+      <c r="BF140">
+        <v>3</v>
+      </c>
+      <c r="BG140">
+        <v>5</v>
+      </c>
+      <c r="BH140">
+        <v>2</v>
+      </c>
+      <c r="BI140">
+        <v>7</v>
+      </c>
+      <c r="BJ140">
+        <v>5</v>
+      </c>
+      <c r="BK140">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5189072</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45080.29166666666</v>
+      </c>
+      <c r="F141">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>73</v>
+      </c>
+      <c r="H141" t="s">
+        <v>76</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>3</v>
+      </c>
+      <c r="K141">
+        <v>5</v>
+      </c>
+      <c r="L141">
+        <v>4</v>
+      </c>
+      <c r="M141">
+        <v>5</v>
+      </c>
+      <c r="N141">
+        <v>9</v>
+      </c>
+      <c r="O141" t="s">
+        <v>185</v>
+      </c>
+      <c r="P141" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q141">
+        <v>4</v>
+      </c>
+      <c r="R141">
+        <v>4</v>
+      </c>
+      <c r="S141">
+        <v>8</v>
+      </c>
+      <c r="T141">
+        <v>3.5</v>
+      </c>
+      <c r="U141">
+        <v>2.25</v>
+      </c>
+      <c r="V141">
+        <v>2.7</v>
+      </c>
+      <c r="W141">
+        <v>1.33</v>
+      </c>
+      <c r="X141">
+        <v>3</v>
+      </c>
+      <c r="Y141">
+        <v>2.5</v>
+      </c>
+      <c r="Z141">
+        <v>1.48</v>
+      </c>
+      <c r="AA141">
+        <v>5.5</v>
+      </c>
+      <c r="AB141">
+        <v>1.11</v>
+      </c>
+      <c r="AC141">
+        <v>2.75</v>
+      </c>
+      <c r="AD141">
+        <v>3.25</v>
+      </c>
+      <c r="AE141">
+        <v>2.33</v>
+      </c>
+      <c r="AF141">
+        <v>1.04</v>
+      </c>
+      <c r="AG141">
+        <v>10</v>
+      </c>
+      <c r="AH141">
+        <v>1.22</v>
+      </c>
+      <c r="AI141">
+        <v>3.8</v>
+      </c>
+      <c r="AJ141">
+        <v>1.82</v>
+      </c>
+      <c r="AK141">
+        <v>2.06</v>
+      </c>
+      <c r="AL141">
+        <v>1.57</v>
+      </c>
+      <c r="AM141">
+        <v>2.25</v>
+      </c>
+      <c r="AN141">
+        <v>1.62</v>
+      </c>
+      <c r="AO141">
+        <v>1.33</v>
+      </c>
+      <c r="AP141">
+        <v>1.38</v>
+      </c>
+      <c r="AQ141">
+        <v>0.88</v>
+      </c>
+      <c r="AR141">
+        <v>1.71</v>
+      </c>
+      <c r="AS141">
+        <v>0.78</v>
+      </c>
+      <c r="AT141">
+        <v>1.88</v>
+      </c>
+      <c r="AU141">
+        <v>1.45</v>
+      </c>
+      <c r="AV141">
+        <v>1.31</v>
+      </c>
+      <c r="AW141">
+        <v>2.76</v>
+      </c>
+      <c r="AX141">
+        <v>2.14</v>
+      </c>
+      <c r="AY141">
+        <v>8.4</v>
+      </c>
+      <c r="AZ141">
+        <v>1.97</v>
+      </c>
+      <c r="BA141">
+        <v>1.37</v>
+      </c>
+      <c r="BB141">
+        <v>1.68</v>
+      </c>
+      <c r="BC141">
+        <v>2.12</v>
+      </c>
+      <c r="BD141">
+        <v>2.84</v>
+      </c>
+      <c r="BE141">
+        <v>3.9</v>
+      </c>
+      <c r="BF141">
+        <v>8</v>
+      </c>
+      <c r="BG141">
+        <v>13</v>
+      </c>
+      <c r="BH141">
+        <v>4</v>
+      </c>
+      <c r="BI141">
+        <v>4</v>
+      </c>
+      <c r="BJ141">
+        <v>12</v>
+      </c>
+      <c r="BK141">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5189073</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45081.08333333334</v>
+      </c>
+      <c r="F142">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>66</v>
+      </c>
+      <c r="H142" t="s">
+        <v>69</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>186</v>
+      </c>
+      <c r="P142" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q142">
+        <v>1</v>
+      </c>
+      <c r="R142">
+        <v>9</v>
+      </c>
+      <c r="S142">
+        <v>10</v>
+      </c>
+      <c r="T142">
+        <v>1.91</v>
+      </c>
+      <c r="U142">
+        <v>2.38</v>
+      </c>
+      <c r="V142">
+        <v>7.5</v>
+      </c>
+      <c r="W142">
+        <v>1.36</v>
+      </c>
+      <c r="X142">
+        <v>3</v>
+      </c>
+      <c r="Y142">
+        <v>2.63</v>
+      </c>
+      <c r="Z142">
+        <v>1.44</v>
+      </c>
+      <c r="AA142">
+        <v>7</v>
+      </c>
+      <c r="AB142">
+        <v>1.1</v>
+      </c>
+      <c r="AC142">
+        <v>1.38</v>
+      </c>
+      <c r="AD142">
+        <v>4.55</v>
+      </c>
+      <c r="AE142">
+        <v>7.4</v>
+      </c>
+      <c r="AF142">
+        <v>1.05</v>
+      </c>
+      <c r="AG142">
+        <v>9</v>
+      </c>
+      <c r="AH142">
+        <v>1.29</v>
+      </c>
+      <c r="AI142">
+        <v>3.5</v>
+      </c>
+      <c r="AJ142">
+        <v>1.9</v>
+      </c>
+      <c r="AK142">
+        <v>1.98</v>
+      </c>
+      <c r="AL142">
+        <v>2.1</v>
+      </c>
+      <c r="AM142">
+        <v>1.67</v>
+      </c>
+      <c r="AN142">
+        <v>1.07</v>
+      </c>
+      <c r="AO142">
+        <v>1.18</v>
+      </c>
+      <c r="AP142">
+        <v>2.88</v>
+      </c>
+      <c r="AQ142">
+        <v>1.86</v>
+      </c>
+      <c r="AR142">
+        <v>1</v>
+      </c>
+      <c r="AS142">
+        <v>2</v>
+      </c>
+      <c r="AT142">
+        <v>0.88</v>
+      </c>
+      <c r="AU142">
+        <v>2.04</v>
+      </c>
+      <c r="AV142">
+        <v>1.29</v>
+      </c>
+      <c r="AW142">
+        <v>3.33</v>
+      </c>
+      <c r="AX142">
+        <v>1.17</v>
+      </c>
+      <c r="AY142">
+        <v>11</v>
+      </c>
+      <c r="AZ142">
+        <v>6</v>
+      </c>
+      <c r="BA142">
+        <v>1.24</v>
+      </c>
+      <c r="BB142">
+        <v>1.44</v>
+      </c>
+      <c r="BC142">
+        <v>2</v>
+      </c>
+      <c r="BD142">
+        <v>2.1</v>
+      </c>
+      <c r="BE142">
+        <v>2.63</v>
+      </c>
+      <c r="BF142">
+        <v>11</v>
+      </c>
+      <c r="BG142">
+        <v>5</v>
+      </c>
+      <c r="BH142">
+        <v>4</v>
+      </c>
+      <c r="BI142">
+        <v>7</v>
+      </c>
+      <c r="BJ142">
+        <v>15</v>
+      </c>
+      <c r="BK142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5189074</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45081.20833333334</v>
+      </c>
+      <c r="F143">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>82</v>
+      </c>
+      <c r="H143" t="s">
+        <v>79</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143" t="s">
+        <v>84</v>
+      </c>
+      <c r="P143" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q143">
+        <v>6</v>
+      </c>
+      <c r="R143">
+        <v>6</v>
+      </c>
+      <c r="S143">
+        <v>12</v>
+      </c>
+      <c r="T143">
+        <v>3.2</v>
+      </c>
+      <c r="U143">
+        <v>1.95</v>
+      </c>
+      <c r="V143">
+        <v>4</v>
+      </c>
+      <c r="W143">
+        <v>1.53</v>
+      </c>
+      <c r="X143">
+        <v>2.38</v>
+      </c>
+      <c r="Y143">
+        <v>3.75</v>
+      </c>
+      <c r="Z143">
+        <v>1.25</v>
+      </c>
+      <c r="AA143">
+        <v>11</v>
+      </c>
+      <c r="AB143">
+        <v>1.05</v>
+      </c>
+      <c r="AC143">
+        <v>2.29</v>
+      </c>
+      <c r="AD143">
+        <v>3.2</v>
+      </c>
+      <c r="AE143">
+        <v>3</v>
+      </c>
+      <c r="AF143">
+        <v>1.08</v>
+      </c>
+      <c r="AG143">
+        <v>7</v>
+      </c>
+      <c r="AH143">
+        <v>1.44</v>
+      </c>
+      <c r="AI143">
+        <v>2.55</v>
+      </c>
+      <c r="AJ143">
+        <v>2.2</v>
+      </c>
+      <c r="AK143">
+        <v>1.61</v>
+      </c>
+      <c r="AL143">
+        <v>2.05</v>
+      </c>
+      <c r="AM143">
+        <v>1.7</v>
+      </c>
+      <c r="AN143">
+        <v>1.36</v>
+      </c>
+      <c r="AO143">
+        <v>1.33</v>
+      </c>
+      <c r="AP143">
+        <v>1.55</v>
+      </c>
+      <c r="AQ143">
+        <v>2.5</v>
+      </c>
+      <c r="AR143">
+        <v>2</v>
+      </c>
+      <c r="AS143">
+        <v>2.29</v>
+      </c>
+      <c r="AT143">
+        <v>1.89</v>
+      </c>
+      <c r="AU143">
+        <v>1.7</v>
+      </c>
+      <c r="AV143">
+        <v>1.31</v>
+      </c>
+      <c r="AW143">
+        <v>3.01</v>
+      </c>
+      <c r="AX143">
+        <v>1.73</v>
+      </c>
+      <c r="AY143">
+        <v>8</v>
+      </c>
+      <c r="AZ143">
+        <v>2.4</v>
+      </c>
+      <c r="BA143">
+        <v>1.32</v>
+      </c>
+      <c r="BB143">
+        <v>1.57</v>
+      </c>
+      <c r="BC143">
+        <v>2</v>
+      </c>
+      <c r="BD143">
+        <v>2.4</v>
+      </c>
+      <c r="BE143">
+        <v>3.65</v>
+      </c>
+      <c r="BF143">
+        <v>3</v>
+      </c>
+      <c r="BG143">
+        <v>4</v>
+      </c>
+      <c r="BH143">
+        <v>4</v>
+      </c>
+      <c r="BI143">
+        <v>5</v>
+      </c>
+      <c r="BJ143">
+        <v>7</v>
+      </c>
+      <c r="BK143">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -457,10 +457,10 @@
     <t>['21', '80']</t>
   </si>
   <si>
-    <t>['8', '34']</t>
+    <t>['72']</t>
   </si>
   <si>
-    <t>['72']</t>
+    <t>['8', '34']</t>
   </si>
   <si>
     <t>['85']</t>
@@ -472,10 +472,10 @@
     <t>['3']</t>
   </si>
   <si>
-    <t>['45+5']</t>
+    <t>['73', '90+8']</t>
   </si>
   <si>
-    <t>['73', '90+8']</t>
+    <t>['45+5']</t>
   </si>
   <si>
     <t>['53']</t>
@@ -490,10 +490,10 @@
     <t>['50', '72', '89']</t>
   </si>
   <si>
-    <t>['45+1', '52', '54']</t>
+    <t>['10', '49', '64', '86']</t>
   </si>
   <si>
-    <t>['10', '49', '64', '86']</t>
+    <t>['45+1', '52', '54']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -526,10 +526,10 @@
     <t>['43', '48']</t>
   </si>
   <si>
-    <t>['66']</t>
+    <t>['44', '48']</t>
   </si>
   <si>
-    <t>['44', '48']</t>
+    <t>['66']</t>
   </si>
   <si>
     <t>['11', '80']</t>
@@ -541,13 +541,13 @@
     <t>['27', '69']</t>
   </si>
   <si>
-    <t>['8', '20']</t>
-  </si>
-  <si>
     <t>['48']</t>
   </si>
   <si>
     <t>['43', '85']</t>
+  </si>
+  <si>
+    <t>['8', '20']</t>
   </si>
   <si>
     <t>['21', '45+1']</t>
@@ -730,10 +730,10 @@
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['8']</t>
+    <t>['41']</t>
   </si>
   <si>
-    <t>['41']</t>
+    <t>['8']</t>
   </si>
   <si>
     <t>['12', '47', '65']</t>
@@ -748,10 +748,10 @@
     <t>['11', '21', '60']</t>
   </si>
   <si>
-    <t>['28', '55']</t>
+    <t>['11', '60']</t>
   </si>
   <si>
-    <t>['11', '60']</t>
+    <t>['28', '55']</t>
   </si>
   <si>
     <t>['30']</t>
@@ -2184,7 +2184,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -17422,7 +17422,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>5189016</v>
+        <v>5189018</v>
       </c>
       <c r="C86" t="s">
         <v>63</v>
@@ -17437,10 +17437,10 @@
         <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H86" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -17461,118 +17461,118 @@
         <v>2</v>
       </c>
       <c r="O86" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P86" t="s">
         <v>238</v>
       </c>
       <c r="Q86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S86">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T86">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V86">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="W86">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="X86">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="Y86">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Z86">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AA86">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AB86">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC86">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AD86">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AE86">
         <v>3.1</v>
       </c>
       <c r="AF86">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH86">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AI86">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AJ86">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="AK86">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AL86">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="AM86">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AN86">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AO86">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AP86">
+        <v>1.68</v>
+      </c>
+      <c r="AQ86">
+        <v>2.5</v>
+      </c>
+      <c r="AR86">
+        <v>2.4</v>
+      </c>
+      <c r="AS86">
+        <v>2.43</v>
+      </c>
+      <c r="AT86">
+        <v>2</v>
+      </c>
+      <c r="AU86">
+        <v>1.49</v>
+      </c>
+      <c r="AV86">
         <v>1.58</v>
       </c>
-      <c r="AQ86">
-        <v>1</v>
-      </c>
-      <c r="AR86">
-        <v>1.5</v>
-      </c>
-      <c r="AS86">
-        <v>0.78</v>
-      </c>
-      <c r="AT86">
-        <v>0.88</v>
-      </c>
-      <c r="AU86">
-        <v>1.19</v>
-      </c>
-      <c r="AV86">
-        <v>1.35</v>
-      </c>
       <c r="AW86">
-        <v>2.54</v>
+        <v>3.07</v>
       </c>
       <c r="AX86">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AY86">
         <v>8</v>
       </c>
       <c r="AZ86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="BA86">
         <v>1.28</v>
@@ -17581,7 +17581,7 @@
         <v>1.53</v>
       </c>
       <c r="BC86">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BD86">
         <v>2.49</v>
@@ -17593,19 +17593,19 @@
         <v>4</v>
       </c>
       <c r="BG86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI86">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BJ86">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BK86">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:63">
@@ -17652,7 +17652,7 @@
         <v>3</v>
       </c>
       <c r="O87" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P87" t="s">
         <v>112</v>
@@ -17804,7 +17804,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>5189018</v>
+        <v>5189016</v>
       </c>
       <c r="C88" t="s">
         <v>63</v>
@@ -17819,10 +17819,10 @@
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H88" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -17843,118 +17843,118 @@
         <v>2</v>
       </c>
       <c r="O88" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P88" t="s">
         <v>239</v>
       </c>
       <c r="Q88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R88">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S88">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T88">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="U88">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="W88">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="X88">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="Y88">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Z88">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AA88">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="AB88">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC88">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AD88">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AE88">
         <v>3.1</v>
       </c>
       <c r="AF88">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG88">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH88">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AI88">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AJ88">
+        <v>2.03</v>
+      </c>
+      <c r="AK88">
+        <v>1.83</v>
+      </c>
+      <c r="AL88">
+        <v>1.8</v>
+      </c>
+      <c r="AM88">
         <v>1.88</v>
       </c>
-      <c r="AK88">
-        <v>1.98</v>
-      </c>
-      <c r="AL88">
-        <v>1.68</v>
-      </c>
-      <c r="AM88">
-        <v>2.05</v>
-      </c>
       <c r="AN88">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AO88">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AP88">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="AQ88">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AR88">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>2.43</v>
+        <v>0.78</v>
       </c>
       <c r="AT88">
-        <v>2</v>
+        <v>0.88</v>
       </c>
       <c r="AU88">
-        <v>1.49</v>
+        <v>1.19</v>
       </c>
       <c r="AV88">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="AW88">
-        <v>3.07</v>
+        <v>2.54</v>
       </c>
       <c r="AX88">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AY88">
         <v>8</v>
       </c>
       <c r="AZ88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="BA88">
         <v>1.28</v>
@@ -17963,7 +17963,7 @@
         <v>1.53</v>
       </c>
       <c r="BC88">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BD88">
         <v>2.49</v>
@@ -17975,19 +17975,19 @@
         <v>4</v>
       </c>
       <c r="BG88">
+        <v>4</v>
+      </c>
+      <c r="BH88">
+        <v>5</v>
+      </c>
+      <c r="BI88">
+        <v>2</v>
+      </c>
+      <c r="BJ88">
+        <v>9</v>
+      </c>
+      <c r="BK88">
         <v>6</v>
-      </c>
-      <c r="BH88">
-        <v>3</v>
-      </c>
-      <c r="BI88">
-        <v>9</v>
-      </c>
-      <c r="BJ88">
-        <v>7</v>
-      </c>
-      <c r="BK88">
-        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:63">
@@ -18950,7 +18950,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>5189026</v>
+        <v>5189027</v>
       </c>
       <c r="C94" t="s">
         <v>63</v>
@@ -18965,175 +18965,175 @@
         <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H94" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O94" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>84</v>
+        <v>243</v>
       </c>
       <c r="Q94">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S94">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T94">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V94">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
       <c r="W94">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="X94">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Y94">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="Z94">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AA94">
-        <v>7.9</v>
+        <v>7.25</v>
       </c>
       <c r="AB94">
+        <v>1.08</v>
+      </c>
+      <c r="AC94">
+        <v>4.15</v>
+      </c>
+      <c r="AD94">
+        <v>3.94</v>
+      </c>
+      <c r="AE94">
+        <v>1.78</v>
+      </c>
+      <c r="AF94">
         <v>1.05</v>
       </c>
-      <c r="AC94">
-        <v>3.04</v>
-      </c>
-      <c r="AD94">
-        <v>3.08</v>
-      </c>
-      <c r="AE94">
-        <v>2.48</v>
-      </c>
-      <c r="AF94">
-        <v>1.07</v>
-      </c>
       <c r="AG94">
-        <v>7.75</v>
+        <v>9</v>
       </c>
       <c r="AH94">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="AI94">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="AJ94">
-        <v>2.45</v>
+        <v>1.61</v>
       </c>
       <c r="AK94">
-        <v>1.48</v>
+        <v>2.18</v>
       </c>
       <c r="AL94">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AM94">
         <v>1.9</v>
       </c>
       <c r="AN94">
+        <v>1.71</v>
+      </c>
+      <c r="AO94">
+        <v>1.29</v>
+      </c>
+      <c r="AP94">
+        <v>1.31</v>
+      </c>
+      <c r="AQ94">
+        <v>1.4</v>
+      </c>
+      <c r="AR94">
+        <v>1.4</v>
+      </c>
+      <c r="AS94">
         <v>1.38</v>
       </c>
-      <c r="AO94">
-        <v>1.28</v>
-      </c>
-      <c r="AP94">
-        <v>1.55</v>
-      </c>
-      <c r="AQ94">
-        <v>2.4</v>
-      </c>
-      <c r="AR94">
-        <v>1</v>
-      </c>
-      <c r="AS94">
-        <v>1.89</v>
-      </c>
       <c r="AT94">
-        <v>0.67</v>
+        <v>1.78</v>
       </c>
       <c r="AU94">
-        <v>1.33</v>
+        <v>1.02</v>
       </c>
       <c r="AV94">
-        <v>1.02</v>
+        <v>1.26</v>
       </c>
       <c r="AW94">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="AX94">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AY94">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ94">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="BA94">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="BB94">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
       <c r="BC94">
-        <v>2.25</v>
+        <v>1.87</v>
       </c>
       <c r="BD94">
-        <v>3.04</v>
+        <v>2.39</v>
       </c>
       <c r="BE94">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="BF94">
         <v>7</v>
       </c>
       <c r="BG94">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH94">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="BI94">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BJ94">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="BK94">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:63">
@@ -19141,7 +19141,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>5189027</v>
+        <v>5189026</v>
       </c>
       <c r="C95" t="s">
         <v>63</v>
@@ -19156,175 +19156,175 @@
         <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H95" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
       <c r="M95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O95" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>84</v>
       </c>
       <c r="Q95">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T95">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="U95">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>2.65</v>
+        <v>3.5</v>
       </c>
       <c r="W95">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="X95">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Y95">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="Z95">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AA95">
-        <v>7.25</v>
+        <v>7.9</v>
       </c>
       <c r="AB95">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AC95">
-        <v>4.15</v>
+        <v>3.04</v>
       </c>
       <c r="AD95">
-        <v>3.94</v>
+        <v>3.08</v>
       </c>
       <c r="AE95">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="AF95">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AG95">
-        <v>9</v>
+        <v>7.75</v>
       </c>
       <c r="AH95">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="AI95">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="AJ95">
-        <v>1.61</v>
+        <v>2.45</v>
       </c>
       <c r="AK95">
-        <v>2.18</v>
+        <v>1.48</v>
       </c>
       <c r="AL95">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AM95">
         <v>1.9</v>
       </c>
       <c r="AN95">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="AO95">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AP95">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="AR95">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.38</v>
+        <v>1.89</v>
       </c>
       <c r="AT95">
-        <v>1.78</v>
+        <v>0.67</v>
       </c>
       <c r="AU95">
+        <v>1.33</v>
+      </c>
+      <c r="AV95">
         <v>1.02</v>
       </c>
-      <c r="AV95">
-        <v>1.26</v>
-      </c>
       <c r="AW95">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="AX95">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AY95">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ95">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="BA95">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="BB95">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="BC95">
-        <v>1.87</v>
+        <v>2.25</v>
       </c>
       <c r="BD95">
-        <v>2.39</v>
+        <v>3.04</v>
       </c>
       <c r="BE95">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="BF95">
         <v>7</v>
       </c>
       <c r="BG95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH95">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="BI95">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BJ95">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="BK95">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:63">
@@ -19332,7 +19332,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>5189024</v>
+        <v>5189025</v>
       </c>
       <c r="C96" t="s">
         <v>63</v>
@@ -19347,28 +19347,28 @@
         <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M96">
         <v>2</v>
       </c>
       <c r="N96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O96" t="s">
         <v>152</v>
@@ -19377,67 +19377,67 @@
         <v>244</v>
       </c>
       <c r="Q96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S96">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="U96">
         <v>2.1</v>
       </c>
       <c r="V96">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W96">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X96">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y96">
-        <v>2.63</v>
+        <v>2.85</v>
       </c>
       <c r="Z96">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AA96">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB96">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AC96">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="AD96">
-        <v>3.58</v>
+        <v>3.25</v>
       </c>
       <c r="AE96">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AF96">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG96">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH96">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AI96">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AJ96">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AK96">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="AL96">
         <v>1.75</v>
@@ -19452,46 +19452,46 @@
         <v>1.25</v>
       </c>
       <c r="AP96">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="AQ96">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="AS96">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AT96">
-        <v>0.71</v>
+        <v>2.33</v>
       </c>
       <c r="AU96">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="AV96">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="AW96">
-        <v>3.06</v>
+        <v>3.3</v>
       </c>
       <c r="AX96">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="AY96">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AZ96">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="BA96">
         <v>1.26</v>
       </c>
       <c r="BB96">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BC96">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="BD96">
         <v>2.41</v>
@@ -19500,22 +19500,22 @@
         <v>3.2</v>
       </c>
       <c r="BF96">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG96">
+        <v>5</v>
+      </c>
+      <c r="BH96">
         <v>6</v>
       </c>
-      <c r="BH96">
-        <v>8</v>
-      </c>
       <c r="BI96">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ96">
         <v>12</v>
       </c>
       <c r="BK96">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:63">
@@ -19523,7 +19523,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>5189025</v>
+        <v>5189024</v>
       </c>
       <c r="C97" t="s">
         <v>63</v>
@@ -19538,28 +19538,28 @@
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H97" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
         <v>1</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M97">
         <v>2</v>
       </c>
       <c r="N97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O97" t="s">
         <v>153</v>
@@ -19568,67 +19568,67 @@
         <v>245</v>
       </c>
       <c r="Q97">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S97">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T97">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
         <v>2.1</v>
       </c>
       <c r="V97">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W97">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X97">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y97">
-        <v>2.85</v>
+        <v>2.63</v>
       </c>
       <c r="Z97">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AA97">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB97">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AC97">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="AD97">
+        <v>3.58</v>
+      </c>
+      <c r="AE97">
+        <v>3.6</v>
+      </c>
+      <c r="AF97">
+        <v>1.05</v>
+      </c>
+      <c r="AG97">
+        <v>9</v>
+      </c>
+      <c r="AH97">
+        <v>1.29</v>
+      </c>
+      <c r="AI97">
         <v>3.25</v>
       </c>
-      <c r="AE97">
-        <v>3.1</v>
-      </c>
-      <c r="AF97">
-        <v>1.06</v>
-      </c>
-      <c r="AG97">
-        <v>9.25</v>
-      </c>
-      <c r="AH97">
-        <v>1.3</v>
-      </c>
-      <c r="AI97">
-        <v>3.3</v>
-      </c>
       <c r="AJ97">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK97">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="AL97">
         <v>1.75</v>
@@ -19643,46 +19643,46 @@
         <v>1.25</v>
       </c>
       <c r="AP97">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AQ97">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR97">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="AS97">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AT97">
-        <v>2.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU97">
-        <v>1.51</v>
+        <v>1.82</v>
       </c>
       <c r="AV97">
-        <v>1.79</v>
+        <v>1.24</v>
       </c>
       <c r="AW97">
-        <v>3.3</v>
+        <v>3.06</v>
       </c>
       <c r="AX97">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="AY97">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ97">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="BA97">
         <v>1.26</v>
       </c>
       <c r="BB97">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="BC97">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="BD97">
         <v>2.41</v>
@@ -19691,22 +19691,22 @@
         <v>3.2</v>
       </c>
       <c r="BF97">
+        <v>4</v>
+      </c>
+      <c r="BG97">
         <v>6</v>
       </c>
-      <c r="BG97">
-        <v>5</v>
-      </c>
       <c r="BH97">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI97">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BJ97">
         <v>12</v>
       </c>
       <c r="BK97">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:63">
@@ -20478,7 +20478,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>5189034</v>
+        <v>5189032</v>
       </c>
       <c r="C102" t="s">
         <v>63</v>
@@ -20493,52 +20493,52 @@
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H102" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M102">
         <v>1</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O102" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T102">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="U102">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V102">
-        <v>3.24</v>
+        <v>5.5</v>
       </c>
       <c r="W102">
         <v>1.36</v>
@@ -20547,10 +20547,10 @@
         <v>3</v>
       </c>
       <c r="Y102">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Z102">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AA102">
         <v>6.5</v>
@@ -20559,13 +20559,13 @@
         <v>1.1</v>
       </c>
       <c r="AC102">
-        <v>2.68</v>
+        <v>1.45</v>
       </c>
       <c r="AD102">
-        <v>3.13</v>
+        <v>4.45</v>
       </c>
       <c r="AE102">
-        <v>2.42</v>
+        <v>5.05</v>
       </c>
       <c r="AF102">
         <v>1.06</v>
@@ -20574,94 +20574,94 @@
         <v>8</v>
       </c>
       <c r="AH102">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AI102">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="AJ102">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="AK102">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="AL102">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="AM102">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AN102">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="AO102">
         <v>1.28</v>
       </c>
       <c r="AP102">
-        <v>1.53</v>
+        <v>2.23</v>
       </c>
       <c r="AQ102">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AR102">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AS102">
-        <v>1.63</v>
+        <v>2.43</v>
       </c>
       <c r="AT102">
-        <v>1.89</v>
+        <v>0.88</v>
       </c>
       <c r="AU102">
-        <v>1.03</v>
+        <v>1.36</v>
       </c>
       <c r="AV102">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AW102">
-        <v>2.32</v>
+        <v>2.64</v>
       </c>
       <c r="AX102">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="AY102">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AZ102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA102">
         <v>1.25</v>
       </c>
       <c r="BB102">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="BC102">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="BD102">
-        <v>2.32</v>
+        <v>2.01</v>
       </c>
       <c r="BE102">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="BF102">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BG102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH102">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BI102">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ102">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="BK102">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:63">
@@ -20669,7 +20669,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>5189035</v>
+        <v>5189033</v>
       </c>
       <c r="C103" t="s">
         <v>63</v>
@@ -20684,175 +20684,175 @@
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="P103" t="s">
         <v>84</v>
       </c>
       <c r="Q103">
+        <v>6</v>
+      </c>
+      <c r="R103">
+        <v>4</v>
+      </c>
+      <c r="S103">
+        <v>10</v>
+      </c>
+      <c r="T103">
+        <v>3.1</v>
+      </c>
+      <c r="U103">
+        <v>2</v>
+      </c>
+      <c r="V103">
+        <v>3.3</v>
+      </c>
+      <c r="W103">
+        <v>1.45</v>
+      </c>
+      <c r="X103">
+        <v>2.63</v>
+      </c>
+      <c r="Y103">
+        <v>3</v>
+      </c>
+      <c r="Z103">
+        <v>1.36</v>
+      </c>
+      <c r="AA103">
+        <v>7.5</v>
+      </c>
+      <c r="AB103">
+        <v>1.07</v>
+      </c>
+      <c r="AC103">
+        <v>2.47</v>
+      </c>
+      <c r="AD103">
+        <v>3.22</v>
+      </c>
+      <c r="AE103">
+        <v>2.57</v>
+      </c>
+      <c r="AF103">
+        <v>1.08</v>
+      </c>
+      <c r="AG103">
         <v>7</v>
       </c>
-      <c r="R103">
-        <v>8</v>
-      </c>
-      <c r="S103">
-        <v>15</v>
-      </c>
-      <c r="T103">
-        <v>1.87</v>
-      </c>
-      <c r="U103">
-        <v>2.25</v>
-      </c>
-      <c r="V103">
-        <v>7</v>
-      </c>
-      <c r="W103">
+      <c r="AH103">
+        <v>1.37</v>
+      </c>
+      <c r="AI103">
+        <v>2.86</v>
+      </c>
+      <c r="AJ103">
+        <v>1.95</v>
+      </c>
+      <c r="AK103">
+        <v>1.75</v>
+      </c>
+      <c r="AL103">
+        <v>1.85</v>
+      </c>
+      <c r="AM103">
+        <v>1.82</v>
+      </c>
+      <c r="AN103">
         <v>1.38</v>
       </c>
-      <c r="X103">
-        <v>2.8</v>
-      </c>
-      <c r="Y103">
-        <v>2.75</v>
-      </c>
-      <c r="Z103">
-        <v>1.39</v>
-      </c>
-      <c r="AA103">
-        <v>7</v>
-      </c>
-      <c r="AB103">
-        <v>1.08</v>
-      </c>
-      <c r="AC103">
+      <c r="AO103">
         <v>1.35</v>
       </c>
-      <c r="AD103">
-        <v>4.7</v>
-      </c>
-      <c r="AE103">
-        <v>6.6</v>
-      </c>
-      <c r="AF103">
-        <v>1.05</v>
-      </c>
-      <c r="AG103">
-        <v>9.5</v>
-      </c>
-      <c r="AH103">
-        <v>1.29</v>
-      </c>
-      <c r="AI103">
-        <v>3.25</v>
-      </c>
-      <c r="AJ103">
-        <v>1.62</v>
-      </c>
-      <c r="AK103">
-        <v>2.15</v>
-      </c>
-      <c r="AL103">
-        <v>2.3</v>
-      </c>
-      <c r="AM103">
-        <v>1.57</v>
-      </c>
-      <c r="AN103">
-        <v>1.07</v>
-      </c>
-      <c r="AO103">
-        <v>1.19</v>
-      </c>
       <c r="AP103">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ103">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AR103">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>2.11</v>
+        <v>1.38</v>
       </c>
       <c r="AT103">
         <v>0.71</v>
       </c>
       <c r="AU103">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="AV103">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AW103">
-        <v>3.26</v>
+        <v>2.49</v>
       </c>
       <c r="AX103">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="AY103">
+        <v>8</v>
+      </c>
+      <c r="AZ103">
+        <v>2.3</v>
+      </c>
+      <c r="BA103">
+        <v>1.32</v>
+      </c>
+      <c r="BB103">
+        <v>1.61</v>
+      </c>
+      <c r="BC103">
+        <v>2.06</v>
+      </c>
+      <c r="BD103">
+        <v>2.72</v>
+      </c>
+      <c r="BE103">
+        <v>3.74</v>
+      </c>
+      <c r="BF103">
+        <v>7</v>
+      </c>
+      <c r="BG103">
+        <v>2</v>
+      </c>
+      <c r="BH103">
+        <v>11</v>
+      </c>
+      <c r="BI103">
+        <v>8</v>
+      </c>
+      <c r="BJ103">
+        <v>18</v>
+      </c>
+      <c r="BK103">
         <v>10</v>
-      </c>
-      <c r="AZ103">
-        <v>4.74</v>
-      </c>
-      <c r="BA103">
-        <v>1.22</v>
-      </c>
-      <c r="BB103">
-        <v>1.44</v>
-      </c>
-      <c r="BC103">
-        <v>2</v>
-      </c>
-      <c r="BD103">
-        <v>2.23</v>
-      </c>
-      <c r="BE103">
-        <v>2.93</v>
-      </c>
-      <c r="BF103">
-        <v>8</v>
-      </c>
-      <c r="BG103">
-        <v>6</v>
-      </c>
-      <c r="BH103">
-        <v>5</v>
-      </c>
-      <c r="BI103">
-        <v>5</v>
-      </c>
-      <c r="BJ103">
-        <v>13</v>
-      </c>
-      <c r="BK103">
-        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:63">
@@ -20860,7 +20860,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>5189032</v>
+        <v>5189034</v>
       </c>
       <c r="C104" t="s">
         <v>63</v>
@@ -20875,52 +20875,52 @@
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H104" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" t="s">
+        <v>84</v>
+      </c>
+      <c r="P104" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
         <v>4</v>
       </c>
-      <c r="M104">
-        <v>1</v>
-      </c>
-      <c r="N104">
-        <v>5</v>
-      </c>
-      <c r="O104" t="s">
-        <v>159</v>
-      </c>
-      <c r="P104" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q104">
-        <v>5</v>
-      </c>
-      <c r="R104">
-        <v>2</v>
-      </c>
       <c r="S104">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T104">
+        <v>2.9</v>
+      </c>
+      <c r="U104">
         <v>2.1</v>
       </c>
-      <c r="U104">
-        <v>2.2</v>
-      </c>
       <c r="V104">
-        <v>5.5</v>
+        <v>3.24</v>
       </c>
       <c r="W104">
         <v>1.36</v>
@@ -20929,10 +20929,10 @@
         <v>3</v>
       </c>
       <c r="Y104">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z104">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AA104">
         <v>6.5</v>
@@ -20941,13 +20941,13 @@
         <v>1.1</v>
       </c>
       <c r="AC104">
-        <v>1.45</v>
+        <v>2.68</v>
       </c>
       <c r="AD104">
-        <v>4.45</v>
+        <v>3.13</v>
       </c>
       <c r="AE104">
-        <v>5.05</v>
+        <v>2.42</v>
       </c>
       <c r="AF104">
         <v>1.06</v>
@@ -20956,94 +20956,94 @@
         <v>8</v>
       </c>
       <c r="AH104">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AI104">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="AJ104">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="AK104">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="AL104">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="AM104">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AN104">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="AO104">
         <v>1.28</v>
       </c>
       <c r="AP104">
-        <v>2.23</v>
+        <v>1.53</v>
       </c>
       <c r="AQ104">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AR104">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AS104">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT104">
-        <v>0.88</v>
+        <v>1.89</v>
       </c>
       <c r="AU104">
-        <v>1.36</v>
+        <v>1.03</v>
       </c>
       <c r="AV104">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AW104">
-        <v>2.64</v>
+        <v>2.32</v>
       </c>
       <c r="AX104">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="AY104">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AZ104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA104">
         <v>1.25</v>
       </c>
       <c r="BB104">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="BC104">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BD104">
-        <v>2.01</v>
+        <v>2.32</v>
       </c>
       <c r="BE104">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
       <c r="BF104">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BG104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH104">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BI104">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BJ104">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="BK104">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:63">
@@ -21051,7 +21051,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>5189033</v>
+        <v>5189035</v>
       </c>
       <c r="C105" t="s">
         <v>63</v>
@@ -21066,175 +21066,175 @@
         <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H105" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O105" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="P105" t="s">
         <v>84</v>
       </c>
       <c r="Q105">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R105">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S105">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T105">
-        <v>3.1</v>
+        <v>1.87</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V105">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="W105">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="X105">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="Y105">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z105">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AA105">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB105">
+        <v>1.08</v>
+      </c>
+      <c r="AC105">
+        <v>1.35</v>
+      </c>
+      <c r="AD105">
+        <v>4.7</v>
+      </c>
+      <c r="AE105">
+        <v>6.6</v>
+      </c>
+      <c r="AF105">
+        <v>1.05</v>
+      </c>
+      <c r="AG105">
+        <v>9.5</v>
+      </c>
+      <c r="AH105">
+        <v>1.29</v>
+      </c>
+      <c r="AI105">
+        <v>3.25</v>
+      </c>
+      <c r="AJ105">
+        <v>1.62</v>
+      </c>
+      <c r="AK105">
+        <v>2.15</v>
+      </c>
+      <c r="AL105">
+        <v>2.3</v>
+      </c>
+      <c r="AM105">
+        <v>1.57</v>
+      </c>
+      <c r="AN105">
         <v>1.07</v>
       </c>
-      <c r="AC105">
-        <v>2.47</v>
-      </c>
-      <c r="AD105">
-        <v>3.22</v>
-      </c>
-      <c r="AE105">
-        <v>2.57</v>
-      </c>
-      <c r="AF105">
-        <v>1.08</v>
-      </c>
-      <c r="AG105">
-        <v>7</v>
-      </c>
-      <c r="AH105">
-        <v>1.37</v>
-      </c>
-      <c r="AI105">
-        <v>2.86</v>
-      </c>
-      <c r="AJ105">
-        <v>1.95</v>
-      </c>
-      <c r="AK105">
-        <v>1.75</v>
-      </c>
-      <c r="AL105">
-        <v>1.85</v>
-      </c>
-      <c r="AM105">
-        <v>1.82</v>
-      </c>
-      <c r="AN105">
-        <v>1.38</v>
-      </c>
       <c r="AO105">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AP105">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="AQ105">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR105">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AS105">
-        <v>1.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT105">
         <v>0.71</v>
       </c>
       <c r="AU105">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="AV105">
+        <v>1.75</v>
+      </c>
+      <c r="AW105">
+        <v>3.26</v>
+      </c>
+      <c r="AX105">
         <v>1.25</v>
       </c>
-      <c r="AW105">
-        <v>2.49</v>
-      </c>
-      <c r="AX105">
-        <v>1.8</v>
-      </c>
       <c r="AY105">
+        <v>10</v>
+      </c>
+      <c r="AZ105">
+        <v>4.74</v>
+      </c>
+      <c r="BA105">
+        <v>1.22</v>
+      </c>
+      <c r="BB105">
+        <v>1.44</v>
+      </c>
+      <c r="BC105">
+        <v>2</v>
+      </c>
+      <c r="BD105">
+        <v>2.23</v>
+      </c>
+      <c r="BE105">
+        <v>2.93</v>
+      </c>
+      <c r="BF105">
         <v>8</v>
       </c>
-      <c r="AZ105">
-        <v>2.3</v>
-      </c>
-      <c r="BA105">
-        <v>1.32</v>
-      </c>
-      <c r="BB105">
-        <v>1.61</v>
-      </c>
-      <c r="BC105">
-        <v>2.06</v>
-      </c>
-      <c r="BD105">
-        <v>2.72</v>
-      </c>
-      <c r="BE105">
-        <v>3.74</v>
-      </c>
-      <c r="BF105">
-        <v>7</v>
-      </c>
       <c r="BG105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH105">
+        <v>5</v>
+      </c>
+      <c r="BI105">
+        <v>5</v>
+      </c>
+      <c r="BJ105">
+        <v>13</v>
+      </c>
+      <c r="BK105">
         <v>11</v>
-      </c>
-      <c r="BI105">
-        <v>8</v>
-      </c>
-      <c r="BJ105">
-        <v>18</v>
-      </c>
-      <c r="BK105">
-        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:63">
@@ -22579,7 +22579,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>5189042</v>
+        <v>5189045</v>
       </c>
       <c r="C113" t="s">
         <v>63</v>
@@ -22594,52 +22594,52 @@
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H113" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M113">
         <v>0</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O113" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="P113" t="s">
         <v>84</v>
       </c>
       <c r="Q113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R113">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S113">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T113">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V113">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="W113">
         <v>1.5</v>
@@ -22648,79 +22648,79 @@
         <v>2.5</v>
       </c>
       <c r="Y113">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z113">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AA113">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB113">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC113">
-        <v>2.49</v>
+        <v>1.83</v>
       </c>
       <c r="AD113">
-        <v>2.92</v>
+        <v>3.06</v>
       </c>
       <c r="AE113">
-        <v>2.59</v>
+        <v>3.98</v>
       </c>
       <c r="AF113">
         <v>1.08</v>
       </c>
       <c r="AG113">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH113">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AI113">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AJ113">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="AK113">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AL113">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AM113">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AN113">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="AO113">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AP113">
-        <v>1.47</v>
+        <v>1.83</v>
       </c>
       <c r="AQ113">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AR113">
-        <v>2.17</v>
+        <v>1.17</v>
       </c>
       <c r="AS113">
-        <v>1.14</v>
+        <v>1.89</v>
       </c>
       <c r="AT113">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AU113">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="AV113">
-        <v>1.6</v>
+        <v>1.02</v>
       </c>
       <c r="AW113">
-        <v>2.76</v>
+        <v>2.43</v>
       </c>
       <c r="AX113">
         <v>1.73</v>
@@ -22732,37 +22732,37 @@
         <v>2.4</v>
       </c>
       <c r="BA113">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="BB113">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="BC113">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="BD113">
-        <v>2.48</v>
+        <v>3.34</v>
       </c>
       <c r="BE113">
-        <v>3.56</v>
+        <v>5</v>
       </c>
       <c r="BF113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG113">
         <v>3</v>
       </c>
       <c r="BH113">
+        <v>17</v>
+      </c>
+      <c r="BI113">
+        <v>2</v>
+      </c>
+      <c r="BJ113">
+        <v>21</v>
+      </c>
+      <c r="BK113">
         <v>5</v>
-      </c>
-      <c r="BI113">
-        <v>10</v>
-      </c>
-      <c r="BJ113">
-        <v>11</v>
-      </c>
-      <c r="BK113">
-        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:63">
@@ -22770,7 +22770,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>5189043</v>
+        <v>5189042</v>
       </c>
       <c r="C114" t="s">
         <v>63</v>
@@ -22785,16 +22785,16 @@
         <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H114" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114">
         <v>1</v>
@@ -22803,157 +22803,157 @@
         <v>2</v>
       </c>
       <c r="M114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c r="Q114">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R114">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S114">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T114">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U114">
+        <v>2</v>
+      </c>
+      <c r="V114">
+        <v>3.5</v>
+      </c>
+      <c r="W114">
+        <v>1.5</v>
+      </c>
+      <c r="X114">
+        <v>2.5</v>
+      </c>
+      <c r="Y114">
+        <v>3.5</v>
+      </c>
+      <c r="Z114">
+        <v>1.29</v>
+      </c>
+      <c r="AA114">
+        <v>11</v>
+      </c>
+      <c r="AB114">
+        <v>1.05</v>
+      </c>
+      <c r="AC114">
+        <v>2.49</v>
+      </c>
+      <c r="AD114">
+        <v>2.92</v>
+      </c>
+      <c r="AE114">
+        <v>2.59</v>
+      </c>
+      <c r="AF114">
+        <v>1.08</v>
+      </c>
+      <c r="AG114">
+        <v>6.5</v>
+      </c>
+      <c r="AH114">
+        <v>1.42</v>
+      </c>
+      <c r="AI114">
+        <v>2.7</v>
+      </c>
+      <c r="AJ114">
+        <v>2.48</v>
+      </c>
+      <c r="AK114">
+        <v>1.5</v>
+      </c>
+      <c r="AL114">
+        <v>1.95</v>
+      </c>
+      <c r="AM114">
+        <v>1.8</v>
+      </c>
+      <c r="AN114">
+        <v>1.45</v>
+      </c>
+      <c r="AO114">
+        <v>1.3</v>
+      </c>
+      <c r="AP114">
+        <v>1.47</v>
+      </c>
+      <c r="AQ114">
+        <v>0.8</v>
+      </c>
+      <c r="AR114">
+        <v>2.17</v>
+      </c>
+      <c r="AS114">
+        <v>1.14</v>
+      </c>
+      <c r="AT114">
+        <v>2</v>
+      </c>
+      <c r="AU114">
+        <v>1.16</v>
+      </c>
+      <c r="AV114">
+        <v>1.6</v>
+      </c>
+      <c r="AW114">
+        <v>2.76</v>
+      </c>
+      <c r="AX114">
+        <v>1.73</v>
+      </c>
+      <c r="AY114">
+        <v>7.5</v>
+      </c>
+      <c r="AZ114">
         <v>2.4</v>
       </c>
-      <c r="V114">
-        <v>2.5</v>
-      </c>
-      <c r="W114">
-        <v>1.29</v>
-      </c>
-      <c r="X114">
-        <v>3.5</v>
-      </c>
-      <c r="Y114">
-        <v>2.38</v>
-      </c>
-      <c r="Z114">
-        <v>1.53</v>
-      </c>
-      <c r="AA114">
-        <v>5.5</v>
-      </c>
-      <c r="AB114">
-        <v>1.14</v>
-      </c>
-      <c r="AC114">
-        <v>3.35</v>
-      </c>
-      <c r="AD114">
-        <v>3.6</v>
-      </c>
-      <c r="AE114">
-        <v>1.92</v>
-      </c>
-      <c r="AF114">
-        <v>1.03</v>
-      </c>
-      <c r="AG114">
-        <v>9</v>
-      </c>
-      <c r="AH114">
-        <v>1.17</v>
-      </c>
-      <c r="AI114">
-        <v>4.5</v>
-      </c>
-      <c r="AJ114">
-        <v>1.54</v>
-      </c>
-      <c r="AK114">
-        <v>2.38</v>
-      </c>
-      <c r="AL114">
-        <v>1.53</v>
-      </c>
-      <c r="AM114">
-        <v>2.38</v>
-      </c>
-      <c r="AN114">
-        <v>1.9</v>
-      </c>
-      <c r="AO114">
-        <v>1.27</v>
-      </c>
-      <c r="AP114">
-        <v>1.22</v>
-      </c>
-      <c r="AQ114">
-        <v>1.33</v>
-      </c>
-      <c r="AR114">
-        <v>1.67</v>
-      </c>
-      <c r="AS114">
-        <v>1.38</v>
-      </c>
-      <c r="AT114">
-        <v>1.78</v>
-      </c>
-      <c r="AU114">
-        <v>1.35</v>
-      </c>
-      <c r="AV114">
-        <v>1.31</v>
-      </c>
-      <c r="AW114">
-        <v>2.66</v>
-      </c>
-      <c r="AX114">
-        <v>2.3</v>
-      </c>
-      <c r="AY114">
-        <v>8</v>
-      </c>
-      <c r="AZ114">
-        <v>1.8</v>
-      </c>
       <c r="BA114">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BB114">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="BC114">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="BD114">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="BE114">
-        <v>3.28</v>
+        <v>3.56</v>
       </c>
       <c r="BF114">
         <v>6</v>
       </c>
       <c r="BG114">
+        <v>3</v>
+      </c>
+      <c r="BH114">
         <v>5</v>
       </c>
-      <c r="BH114">
-        <v>9</v>
-      </c>
       <c r="BI114">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BJ114">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BK114">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:63">
@@ -22961,7 +22961,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>5189045</v>
+        <v>5189043</v>
       </c>
       <c r="C115" t="s">
         <v>63</v>
@@ -22976,175 +22976,175 @@
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H115" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O115" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="Q115">
+        <v>7</v>
+      </c>
+      <c r="R115">
+        <v>6</v>
+      </c>
+      <c r="S115">
+        <v>13</v>
+      </c>
+      <c r="T115">
+        <v>4</v>
+      </c>
+      <c r="U115">
+        <v>2.4</v>
+      </c>
+      <c r="V115">
+        <v>2.5</v>
+      </c>
+      <c r="W115">
+        <v>1.29</v>
+      </c>
+      <c r="X115">
+        <v>3.5</v>
+      </c>
+      <c r="Y115">
+        <v>2.38</v>
+      </c>
+      <c r="Z115">
+        <v>1.53</v>
+      </c>
+      <c r="AA115">
+        <v>5.5</v>
+      </c>
+      <c r="AB115">
+        <v>1.14</v>
+      </c>
+      <c r="AC115">
+        <v>3.35</v>
+      </c>
+      <c r="AD115">
+        <v>3.6</v>
+      </c>
+      <c r="AE115">
+        <v>1.92</v>
+      </c>
+      <c r="AF115">
+        <v>1.03</v>
+      </c>
+      <c r="AG115">
+        <v>9</v>
+      </c>
+      <c r="AH115">
+        <v>1.17</v>
+      </c>
+      <c r="AI115">
+        <v>4.5</v>
+      </c>
+      <c r="AJ115">
+        <v>1.54</v>
+      </c>
+      <c r="AK115">
+        <v>2.38</v>
+      </c>
+      <c r="AL115">
+        <v>1.53</v>
+      </c>
+      <c r="AM115">
+        <v>2.38</v>
+      </c>
+      <c r="AN115">
+        <v>1.9</v>
+      </c>
+      <c r="AO115">
+        <v>1.27</v>
+      </c>
+      <c r="AP115">
+        <v>1.22</v>
+      </c>
+      <c r="AQ115">
+        <v>1.33</v>
+      </c>
+      <c r="AR115">
+        <v>1.67</v>
+      </c>
+      <c r="AS115">
+        <v>1.38</v>
+      </c>
+      <c r="AT115">
+        <v>1.78</v>
+      </c>
+      <c r="AU115">
+        <v>1.35</v>
+      </c>
+      <c r="AV115">
+        <v>1.31</v>
+      </c>
+      <c r="AW115">
+        <v>2.66</v>
+      </c>
+      <c r="AX115">
+        <v>2.3</v>
+      </c>
+      <c r="AY115">
+        <v>8</v>
+      </c>
+      <c r="AZ115">
+        <v>1.8</v>
+      </c>
+      <c r="BA115">
+        <v>1.27</v>
+      </c>
+      <c r="BB115">
+        <v>1.57</v>
+      </c>
+      <c r="BC115">
+        <v>2</v>
+      </c>
+      <c r="BD115">
+        <v>2.36</v>
+      </c>
+      <c r="BE115">
+        <v>3.28</v>
+      </c>
+      <c r="BF115">
+        <v>6</v>
+      </c>
+      <c r="BG115">
         <v>5</v>
       </c>
-      <c r="R115">
-        <v>4</v>
-      </c>
-      <c r="S115">
+      <c r="BH115">
         <v>9</v>
       </c>
-      <c r="T115">
-        <v>2.63</v>
-      </c>
-      <c r="U115">
-        <v>2.05</v>
-      </c>
-      <c r="V115">
-        <v>4.75</v>
-      </c>
-      <c r="W115">
-        <v>1.5</v>
-      </c>
-      <c r="X115">
-        <v>2.5</v>
-      </c>
-      <c r="Y115">
-        <v>3.4</v>
-      </c>
-      <c r="Z115">
-        <v>1.3</v>
-      </c>
-      <c r="AA115">
-        <v>10</v>
-      </c>
-      <c r="AB115">
-        <v>1.06</v>
-      </c>
-      <c r="AC115">
-        <v>1.83</v>
-      </c>
-      <c r="AD115">
-        <v>3.06</v>
-      </c>
-      <c r="AE115">
-        <v>3.98</v>
-      </c>
-      <c r="AF115">
-        <v>1.08</v>
-      </c>
-      <c r="AG115">
-        <v>7</v>
-      </c>
-      <c r="AH115">
-        <v>1.4</v>
-      </c>
-      <c r="AI115">
-        <v>2.8</v>
-      </c>
-      <c r="AJ115">
-        <v>2.35</v>
-      </c>
-      <c r="AK115">
-        <v>1.56</v>
-      </c>
-      <c r="AL115">
-        <v>2</v>
-      </c>
-      <c r="AM115">
-        <v>1.75</v>
-      </c>
-      <c r="AN115">
-        <v>1.18</v>
-      </c>
-      <c r="AO115">
-        <v>1.28</v>
-      </c>
-      <c r="AP115">
-        <v>1.83</v>
-      </c>
-      <c r="AQ115">
-        <v>2.5</v>
-      </c>
-      <c r="AR115">
-        <v>1.17</v>
-      </c>
-      <c r="AS115">
-        <v>1.89</v>
-      </c>
-      <c r="AT115">
-        <v>1.38</v>
-      </c>
-      <c r="AU115">
-        <v>1.41</v>
-      </c>
-      <c r="AV115">
-        <v>1.02</v>
-      </c>
-      <c r="AW115">
-        <v>2.43</v>
-      </c>
-      <c r="AX115">
-        <v>1.73</v>
-      </c>
-      <c r="AY115">
-        <v>7.5</v>
-      </c>
-      <c r="AZ115">
-        <v>2.4</v>
-      </c>
-      <c r="BA115">
-        <v>1.56</v>
-      </c>
-      <c r="BB115">
-        <v>1.92</v>
-      </c>
-      <c r="BC115">
-        <v>2.4</v>
-      </c>
-      <c r="BD115">
-        <v>3.34</v>
-      </c>
-      <c r="BE115">
-        <v>5</v>
-      </c>
-      <c r="BF115">
-        <v>4</v>
-      </c>
-      <c r="BG115">
-        <v>3</v>
-      </c>
-      <c r="BH115">
-        <v>17</v>
-      </c>
       <c r="BI115">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BJ115">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BK115">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:63">
@@ -23385,7 +23385,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -24298,7 +24298,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>5189052</v>
+        <v>5189053</v>
       </c>
       <c r="C122" t="s">
         <v>63</v>
@@ -24313,175 +24313,175 @@
         <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H122" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122">
         <v>1</v>
       </c>
       <c r="L122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M122">
         <v>1</v>
       </c>
       <c r="N122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O122" t="s">
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="Q122">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R122">
         <v>1</v>
       </c>
       <c r="S122">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U122">
+        <v>2.35</v>
+      </c>
+      <c r="V122">
         <v>2.1</v>
       </c>
-      <c r="V122">
-        <v>2.7</v>
-      </c>
       <c r="W122">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="X122">
-        <v>2.75</v>
+        <v>3.35</v>
       </c>
       <c r="Y122">
-        <v>2.85</v>
+        <v>2.39</v>
       </c>
       <c r="Z122">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="AA122">
-        <v>6.95</v>
+        <v>5.45</v>
       </c>
       <c r="AB122">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AC122">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="AD122">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="AE122">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="AF122">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AG122">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH122">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AI122">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="AJ122">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AK122">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AL122">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="AM122">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="AN122">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="AO122">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AP122">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AQ122">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="AR122">
-        <v>2.6</v>
+        <v>1.71</v>
       </c>
       <c r="AS122">
         <v>0.78</v>
       </c>
       <c r="AT122">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU122">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="AV122">
-        <v>1.72</v>
+        <v>1.32</v>
       </c>
       <c r="AW122">
-        <v>3.16</v>
+        <v>2.46</v>
       </c>
       <c r="AX122">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AY122">
         <v>8</v>
       </c>
       <c r="AZ122">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="BA122">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="BB122">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="BC122">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="BD122">
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="BE122">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="BF122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG122">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH122">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BI122">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BJ122">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BK122">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:63">
@@ -24489,7 +24489,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>5189053</v>
+        <v>5189052</v>
       </c>
       <c r="C123" t="s">
         <v>63</v>
@@ -24504,175 +24504,175 @@
         <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H123" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123">
         <v>1</v>
       </c>
       <c r="L123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M123">
         <v>1</v>
       </c>
       <c r="N123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O123" t="s">
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="Q123">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R123">
         <v>1</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T123">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="U123">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="V123">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="W123">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="X123">
-        <v>3.35</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
-        <v>2.39</v>
+        <v>2.85</v>
       </c>
       <c r="Z123">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="AA123">
-        <v>5.45</v>
+        <v>6.95</v>
       </c>
       <c r="AB123">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AC123">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="AD123">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="AE123">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="AF123">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AG123">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AH123">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AI123">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AJ123">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AK123">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AL123">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="AM123">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="AN123">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="AO123">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AP123">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AQ123">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="AR123">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="AS123">
         <v>0.78</v>
       </c>
       <c r="AT123">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AU123">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="AV123">
-        <v>1.32</v>
+        <v>1.72</v>
       </c>
       <c r="AW123">
-        <v>2.46</v>
+        <v>3.16</v>
       </c>
       <c r="AX123">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AY123">
         <v>8</v>
       </c>
       <c r="AZ123">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="BA123">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="BB123">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="BC123">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="BD123">
-        <v>2.57</v>
+        <v>2.44</v>
       </c>
       <c r="BE123">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="BF123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG123">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BH123">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BI123">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BJ123">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BK123">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:63">
@@ -26017,7 +26017,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>5189061</v>
+        <v>5189062</v>
       </c>
       <c r="C131" t="s">
         <v>63</v>
@@ -26032,79 +26032,79 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H131" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K131">
         <v>2</v>
       </c>
       <c r="L131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O131" t="s">
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>84</v>
+        <v>260</v>
       </c>
       <c r="Q131">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S131">
+        <v>9</v>
+      </c>
+      <c r="T131">
+        <v>3.2</v>
+      </c>
+      <c r="U131">
+        <v>2.1</v>
+      </c>
+      <c r="V131">
+        <v>3.25</v>
+      </c>
+      <c r="W131">
+        <v>1.4</v>
+      </c>
+      <c r="X131">
+        <v>2.75</v>
+      </c>
+      <c r="Y131">
+        <v>2.75</v>
+      </c>
+      <c r="Z131">
+        <v>1.4</v>
+      </c>
+      <c r="AA131">
         <v>8</v>
       </c>
-      <c r="T131">
-        <v>2.3</v>
-      </c>
-      <c r="U131">
-        <v>2.25</v>
-      </c>
-      <c r="V131">
-        <v>5</v>
-      </c>
-      <c r="W131">
-        <v>1.36</v>
-      </c>
-      <c r="X131">
-        <v>3</v>
-      </c>
-      <c r="Y131">
-        <v>2.63</v>
-      </c>
-      <c r="Z131">
-        <v>1.44</v>
-      </c>
-      <c r="AA131">
-        <v>7</v>
-      </c>
       <c r="AB131">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC131">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="AD131">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AE131">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="AF131">
         <v>1.05</v>
@@ -26113,94 +26113,94 @@
         <v>9</v>
       </c>
       <c r="AH131">
+        <v>1.3</v>
+      </c>
+      <c r="AI131">
+        <v>3.3</v>
+      </c>
+      <c r="AJ131">
+        <v>1.98</v>
+      </c>
+      <c r="AK131">
+        <v>1.74</v>
+      </c>
+      <c r="AL131">
+        <v>1.75</v>
+      </c>
+      <c r="AM131">
+        <v>2</v>
+      </c>
+      <c r="AN131">
+        <v>1.4</v>
+      </c>
+      <c r="AO131">
         <v>1.25</v>
       </c>
-      <c r="AI131">
-        <v>3.75</v>
-      </c>
-      <c r="AJ131">
-        <v>1.81</v>
-      </c>
-      <c r="AK131">
-        <v>1.89</v>
-      </c>
-      <c r="AL131">
-        <v>1.8</v>
-      </c>
-      <c r="AM131">
-        <v>1.95</v>
-      </c>
-      <c r="AN131">
-        <v>1.19</v>
-      </c>
-      <c r="AO131">
-        <v>1.21</v>
-      </c>
       <c r="AP131">
-        <v>1.97</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>2.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR131">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="AS131">
-        <v>2.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT131">
-        <v>0.43</v>
+        <v>0.78</v>
       </c>
       <c r="AU131">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AV131">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AW131">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="AX131">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AY131">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ131">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="BA131">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="BB131">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="BC131">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="BD131">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="BE131">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="BF131">
+        <v>9</v>
+      </c>
+      <c r="BG131">
+        <v>5</v>
+      </c>
+      <c r="BH131">
+        <v>13</v>
+      </c>
+      <c r="BI131">
+        <v>5</v>
+      </c>
+      <c r="BJ131">
+        <v>22</v>
+      </c>
+      <c r="BK131">
         <v>10</v>
-      </c>
-      <c r="BG131">
-        <v>3</v>
-      </c>
-      <c r="BH131">
-        <v>10</v>
-      </c>
-      <c r="BI131">
-        <v>10</v>
-      </c>
-      <c r="BJ131">
-        <v>20</v>
-      </c>
-      <c r="BK131">
-        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:63">
@@ -26208,7 +26208,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>5189062</v>
+        <v>5189063</v>
       </c>
       <c r="C132" t="s">
         <v>63</v>
@@ -26223,97 +26223,97 @@
         <v>15</v>
       </c>
       <c r="G132" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H132" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O132" t="s">
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>84</v>
       </c>
       <c r="Q132">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R132">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S132">
         <v>9</v>
       </c>
       <c r="T132">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="U132">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V132">
+        <v>5</v>
+      </c>
+      <c r="W132">
+        <v>1.33</v>
+      </c>
+      <c r="X132">
         <v>3.25</v>
       </c>
-      <c r="W132">
-        <v>1.4</v>
-      </c>
-      <c r="X132">
-        <v>2.75</v>
-      </c>
       <c r="Y132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z132">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AA132">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AB132">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AC132">
-        <v>2.45</v>
+        <v>1.57</v>
       </c>
       <c r="AD132">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AE132">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="AF132">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG132">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH132">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AI132">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="AJ132">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="AK132">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="AL132">
         <v>1.75</v>
@@ -26322,76 +26322,76 @@
         <v>2</v>
       </c>
       <c r="AN132">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
       <c r="AO132">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AP132">
+        <v>2.3</v>
+      </c>
+      <c r="AQ132">
+        <v>1.43</v>
+      </c>
+      <c r="AR132">
+        <v>0.83</v>
+      </c>
+      <c r="AS132">
+        <v>1.63</v>
+      </c>
+      <c r="AT132">
+        <v>0.71</v>
+      </c>
+      <c r="AU132">
+        <v>1</v>
+      </c>
+      <c r="AV132">
+        <v>1.61</v>
+      </c>
+      <c r="AW132">
+        <v>2.61</v>
+      </c>
+      <c r="AX132">
         <v>1.5</v>
       </c>
-      <c r="AQ132">
-        <v>1.57</v>
-      </c>
-      <c r="AR132">
-        <v>0.14</v>
-      </c>
-      <c r="AS132">
-        <v>1.38</v>
-      </c>
-      <c r="AT132">
-        <v>0.78</v>
-      </c>
-      <c r="AU132">
-        <v>1.39</v>
-      </c>
-      <c r="AV132">
-        <v>1.2</v>
-      </c>
-      <c r="AW132">
-        <v>2.59</v>
-      </c>
-      <c r="AX132">
-        <v>1.91</v>
-      </c>
       <c r="AY132">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ132">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="BA132">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="BB132">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="BC132">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="BD132">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="BE132">
-        <v>3.56</v>
+        <v>3.1</v>
       </c>
       <c r="BF132">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BG132">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH132">
         <v>13</v>
       </c>
       <c r="BI132">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ132">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BK132">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:63">
@@ -26399,7 +26399,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>5189063</v>
+        <v>5189061</v>
       </c>
       <c r="C133" t="s">
         <v>63</v>
@@ -26414,19 +26414,19 @@
         <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H133" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L133">
         <v>2</v>
@@ -26447,142 +26447,142 @@
         <v>4</v>
       </c>
       <c r="R133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S133">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T133">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="U133">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V133">
         <v>5</v>
       </c>
       <c r="W133">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X133">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y133">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z133">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA133">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB133">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC133">
+        <v>1.7</v>
+      </c>
+      <c r="AD133">
+        <v>3.5</v>
+      </c>
+      <c r="AE133">
+        <v>4.5</v>
+      </c>
+      <c r="AF133">
+        <v>1.05</v>
+      </c>
+      <c r="AG133">
+        <v>9</v>
+      </c>
+      <c r="AH133">
+        <v>1.25</v>
+      </c>
+      <c r="AI133">
+        <v>3.75</v>
+      </c>
+      <c r="AJ133">
+        <v>1.81</v>
+      </c>
+      <c r="AK133">
+        <v>1.89</v>
+      </c>
+      <c r="AL133">
+        <v>1.8</v>
+      </c>
+      <c r="AM133">
+        <v>1.95</v>
+      </c>
+      <c r="AN133">
+        <v>1.19</v>
+      </c>
+      <c r="AO133">
+        <v>1.21</v>
+      </c>
+      <c r="AP133">
+        <v>1.97</v>
+      </c>
+      <c r="AQ133">
+        <v>2.33</v>
+      </c>
+      <c r="AR133">
+        <v>0.5</v>
+      </c>
+      <c r="AS133">
+        <v>2.43</v>
+      </c>
+      <c r="AT133">
+        <v>0.43</v>
+      </c>
+      <c r="AU133">
+        <v>1.45</v>
+      </c>
+      <c r="AV133">
+        <v>1.09</v>
+      </c>
+      <c r="AW133">
+        <v>2.54</v>
+      </c>
+      <c r="AX133">
         <v>1.57</v>
       </c>
-      <c r="AD133">
-        <v>3.75</v>
-      </c>
-      <c r="AE133">
-        <v>5</v>
-      </c>
-      <c r="AF133">
-        <v>1.04</v>
-      </c>
-      <c r="AG133">
+      <c r="AY133">
+        <v>8</v>
+      </c>
+      <c r="AZ133">
+        <v>2.75</v>
+      </c>
+      <c r="BA133">
+        <v>1.29</v>
+      </c>
+      <c r="BB133">
+        <v>1.56</v>
+      </c>
+      <c r="BC133">
+        <v>1.9</v>
+      </c>
+      <c r="BD133">
+        <v>2.35</v>
+      </c>
+      <c r="BE133">
+        <v>3.42</v>
+      </c>
+      <c r="BF133">
         <v>10</v>
       </c>
-      <c r="AH133">
-        <v>1.2</v>
-      </c>
-      <c r="AI133">
-        <v>4.2</v>
-      </c>
-      <c r="AJ133">
-        <v>1.71</v>
-      </c>
-      <c r="AK133">
-        <v>2.02</v>
-      </c>
-      <c r="AL133">
-        <v>1.75</v>
-      </c>
-      <c r="AM133">
-        <v>2</v>
-      </c>
-      <c r="AN133">
-        <v>1.12</v>
-      </c>
-      <c r="AO133">
-        <v>1.18</v>
-      </c>
-      <c r="AP133">
-        <v>2.3</v>
-      </c>
-      <c r="AQ133">
-        <v>1.43</v>
-      </c>
-      <c r="AR133">
-        <v>0.83</v>
-      </c>
-      <c r="AS133">
-        <v>1.63</v>
-      </c>
-      <c r="AT133">
-        <v>0.71</v>
-      </c>
-      <c r="AU133">
-        <v>1</v>
-      </c>
-      <c r="AV133">
-        <v>1.61</v>
-      </c>
-      <c r="AW133">
-        <v>2.61</v>
-      </c>
-      <c r="AX133">
-        <v>1.5</v>
-      </c>
-      <c r="AY133">
-        <v>8.5</v>
-      </c>
-      <c r="AZ133">
-        <v>3.1</v>
-      </c>
-      <c r="BA133">
-        <v>1.33</v>
-      </c>
-      <c r="BB133">
-        <v>1.69</v>
-      </c>
-      <c r="BC133">
-        <v>1.93</v>
-      </c>
-      <c r="BD133">
-        <v>2.6</v>
-      </c>
-      <c r="BE133">
-        <v>3.1</v>
-      </c>
-      <c r="BF133">
-        <v>7</v>
-      </c>
       <c r="BG133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH133">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BI133">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BJ133">
         <v>20</v>
       </c>
       <c r="BK133">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,12 @@
     <t>['59', '71', '90+3']</t>
   </si>
   <si>
+    <t>['13', '41', '90+4', '90+7']</t>
+  </si>
+  <si>
+    <t>['50', '90+3']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -815,6 +821,9 @@
   </si>
   <si>
     <t>['10', '18', '31', '69', '90+3']</t>
+  </si>
+  <si>
+    <t>['39', '46', '72']</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK143"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1429,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1701,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="AT3">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1993,7 +2002,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2375,7 +2384,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2462,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT7">
         <v>0.75</v>
@@ -2757,7 +2766,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2844,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT9">
         <v>0.86</v>
@@ -2948,7 +2957,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3139,7 +3148,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3417,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT12">
         <v>1.5</v>
@@ -3521,7 +3530,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3611,7 +3620,7 @@
         <v>1.25</v>
       </c>
       <c r="AT13">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3712,7 +3721,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3903,7 +3912,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4094,7 +4103,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4476,7 +4485,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4667,7 +4676,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4858,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -4945,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT20">
         <v>1.63</v>
@@ -5049,7 +5058,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5240,7 +5249,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5431,7 +5440,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5521,7 +5530,7 @@
         <v>1.38</v>
       </c>
       <c r="AT23">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6004,7 +6013,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6285,7 +6294,7 @@
         <v>1.89</v>
       </c>
       <c r="AT27">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU27">
         <v>1.71</v>
@@ -6473,7 +6482,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT28">
         <v>2</v>
@@ -6577,7 +6586,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6959,7 +6968,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7046,7 +7055,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT31">
         <v>1.38</v>
@@ -7532,7 +7541,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7723,7 +7732,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7914,7 +7923,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8105,7 +8114,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8487,7 +8496,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8765,7 +8774,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT40">
         <v>1.89</v>
@@ -8869,7 +8878,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9060,7 +9069,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9150,7 +9159,7 @@
         <v>0.86</v>
       </c>
       <c r="AT42">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU42">
         <v>1.84</v>
@@ -9338,10 +9347,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU43">
         <v>1.25</v>
@@ -9723,7 +9732,7 @@
         <v>2</v>
       </c>
       <c r="AT45">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU45">
         <v>2.41</v>
@@ -9824,7 +9833,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -10015,7 +10024,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10206,7 +10215,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10296,7 +10305,7 @@
         <v>0.75</v>
       </c>
       <c r="AT48">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU48">
         <v>1.03</v>
@@ -10397,7 +10406,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10588,7 +10597,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10779,7 +10788,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10970,7 +10979,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11248,7 +11257,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT53">
         <v>0.67</v>
@@ -11439,7 +11448,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT54">
         <v>1.78</v>
@@ -11543,7 +11552,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11821,7 +11830,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT56">
         <v>0.71</v>
@@ -12307,7 +12316,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12394,10 +12403,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT59">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU59">
         <v>1.05</v>
@@ -12498,7 +12507,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13453,7 +13462,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13644,7 +13653,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13922,10 +13931,10 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT67">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU67">
         <v>1.01</v>
@@ -14026,7 +14035,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14217,7 +14226,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14408,7 +14417,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14498,7 +14507,7 @@
         <v>2.29</v>
       </c>
       <c r="AT70">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU70">
         <v>1.28</v>
@@ -14599,7 +14608,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14689,7 +14698,7 @@
         <v>1.14</v>
       </c>
       <c r="AT71">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU71">
         <v>1.16</v>
@@ -14790,7 +14799,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14981,7 +14990,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15172,7 +15181,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15363,7 +15372,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15641,10 +15650,10 @@
         <v>0.33</v>
       </c>
       <c r="AS76">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT76">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU76">
         <v>1.1</v>
@@ -15745,7 +15754,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15936,7 +15945,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16127,7 +16136,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16318,7 +16327,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16700,7 +16709,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16891,7 +16900,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16981,7 +16990,7 @@
         <v>0.78</v>
       </c>
       <c r="AT83">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU83">
         <v>1.03</v>
@@ -17082,7 +17091,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17169,7 +17178,7 @@
         <v>2.5</v>
       </c>
       <c r="AS84">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT84">
         <v>1.63</v>
@@ -17464,7 +17473,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17551,7 +17560,7 @@
         <v>2.4</v>
       </c>
       <c r="AS86">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT86">
         <v>2</v>
@@ -17846,7 +17855,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18037,7 +18046,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18419,7 +18428,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18610,7 +18619,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18801,7 +18810,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18992,7 +19001,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19079,7 +19088,7 @@
         <v>1.4</v>
       </c>
       <c r="AS94">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT94">
         <v>1.78</v>
@@ -19374,7 +19383,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19464,7 +19473,7 @@
         <v>2</v>
       </c>
       <c r="AT96">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU96">
         <v>1.51</v>
@@ -19565,7 +19574,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19655,7 +19664,7 @@
         <v>0.75</v>
       </c>
       <c r="AT97">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU97">
         <v>1.82</v>
@@ -19947,7 +19956,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20329,7 +20338,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20520,7 +20529,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20607,7 +20616,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT102">
         <v>0.88</v>
@@ -20801,7 +20810,7 @@
         <v>1.38</v>
       </c>
       <c r="AT103">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU103">
         <v>1.24</v>
@@ -20989,7 +20998,7 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT104">
         <v>1.89</v>
@@ -21475,7 +21484,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21666,7 +21675,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -22048,7 +22057,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22138,7 +22147,7 @@
         <v>0.75</v>
       </c>
       <c r="AT110">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU110">
         <v>1.74</v>
@@ -22430,7 +22439,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -23003,7 +23012,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23385,7 +23394,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23767,7 +23776,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23958,7 +23967,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24149,7 +24158,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24621,7 +24630,7 @@
         <v>0.78</v>
       </c>
       <c r="AT123">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU123">
         <v>1.44</v>
@@ -24809,7 +24818,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT124">
         <v>0.75</v>
@@ -24913,7 +24922,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25104,7 +25113,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25295,7 +25304,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25677,7 +25686,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25764,7 +25773,7 @@
         <v>2.14</v>
       </c>
       <c r="AS129">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT129">
         <v>1.89</v>
@@ -25868,7 +25877,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26059,7 +26068,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26337,7 +26346,7 @@
         <v>0.83</v>
       </c>
       <c r="AS132">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT132">
         <v>0.71</v>
@@ -26528,7 +26537,7 @@
         <v>0.5</v>
       </c>
       <c r="AS133">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT133">
         <v>0.43</v>
@@ -26722,7 +26731,7 @@
         <v>1.29</v>
       </c>
       <c r="AT134">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU134">
         <v>1.47</v>
@@ -26823,7 +26832,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27014,7 +27023,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27205,7 +27214,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27396,7 +27405,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27587,7 +27596,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27778,7 +27787,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -27969,7 +27978,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28059,7 +28068,7 @@
         <v>0.78</v>
       </c>
       <c r="AT141">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU141">
         <v>1.45</v>
@@ -28493,6 +28502,579 @@
       </c>
       <c r="BK143">
         <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5189075</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45087.16666666666</v>
+      </c>
+      <c r="F144">
+        <v>17</v>
+      </c>
+      <c r="G144" t="s">
+        <v>75</v>
+      </c>
+      <c r="H144" t="s">
+        <v>73</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>3</v>
+      </c>
+      <c r="L144">
+        <v>4</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>7</v>
+      </c>
+      <c r="O144" t="s">
+        <v>187</v>
+      </c>
+      <c r="P144" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q144">
+        <v>5</v>
+      </c>
+      <c r="R144">
+        <v>4</v>
+      </c>
+      <c r="S144">
+        <v>9</v>
+      </c>
+      <c r="T144">
+        <v>2.1</v>
+      </c>
+      <c r="U144">
+        <v>2.5</v>
+      </c>
+      <c r="V144">
+        <v>4.33</v>
+      </c>
+      <c r="W144">
+        <v>1.24</v>
+      </c>
+      <c r="X144">
+        <v>3.7</v>
+      </c>
+      <c r="Y144">
+        <v>2.19</v>
+      </c>
+      <c r="Z144">
+        <v>1.62</v>
+      </c>
+      <c r="AA144">
+        <v>4.7</v>
+      </c>
+      <c r="AB144">
+        <v>1.16</v>
+      </c>
+      <c r="AC144">
+        <v>1.58</v>
+      </c>
+      <c r="AD144">
+        <v>4.24</v>
+      </c>
+      <c r="AE144">
+        <v>5.65</v>
+      </c>
+      <c r="AF144">
+        <v>1.02</v>
+      </c>
+      <c r="AG144">
+        <v>12</v>
+      </c>
+      <c r="AH144">
+        <v>1.16</v>
+      </c>
+      <c r="AI144">
+        <v>4.75</v>
+      </c>
+      <c r="AJ144">
+        <v>1.65</v>
+      </c>
+      <c r="AK144">
+        <v>2.06</v>
+      </c>
+      <c r="AL144">
+        <v>1.53</v>
+      </c>
+      <c r="AM144">
+        <v>2.4</v>
+      </c>
+      <c r="AN144">
+        <v>1.15</v>
+      </c>
+      <c r="AO144">
+        <v>1.16</v>
+      </c>
+      <c r="AP144">
+        <v>2.2</v>
+      </c>
+      <c r="AQ144">
+        <v>2.43</v>
+      </c>
+      <c r="AR144">
+        <v>0.71</v>
+      </c>
+      <c r="AS144">
+        <v>2.5</v>
+      </c>
+      <c r="AT144">
+        <v>0.63</v>
+      </c>
+      <c r="AU144">
+        <v>1.58</v>
+      </c>
+      <c r="AV144">
+        <v>1.18</v>
+      </c>
+      <c r="AW144">
+        <v>2.76</v>
+      </c>
+      <c r="AX144">
+        <v>1.57</v>
+      </c>
+      <c r="AY144">
+        <v>8.5</v>
+      </c>
+      <c r="AZ144">
+        <v>2.88</v>
+      </c>
+      <c r="BA144">
+        <v>1.28</v>
+      </c>
+      <c r="BB144">
+        <v>1.37</v>
+      </c>
+      <c r="BC144">
+        <v>1.88</v>
+      </c>
+      <c r="BD144">
+        <v>2.11</v>
+      </c>
+      <c r="BE144">
+        <v>2.72</v>
+      </c>
+      <c r="BF144">
+        <v>5</v>
+      </c>
+      <c r="BG144">
+        <v>6</v>
+      </c>
+      <c r="BH144">
+        <v>5</v>
+      </c>
+      <c r="BI144">
+        <v>7</v>
+      </c>
+      <c r="BJ144">
+        <v>10</v>
+      </c>
+      <c r="BK144">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5189076</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45087.29166666666</v>
+      </c>
+      <c r="F145">
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>70</v>
+      </c>
+      <c r="H145" t="s">
+        <v>71</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>188</v>
+      </c>
+      <c r="P145" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q145">
+        <v>5</v>
+      </c>
+      <c r="R145">
+        <v>3</v>
+      </c>
+      <c r="S145">
+        <v>8</v>
+      </c>
+      <c r="T145">
+        <v>3.5</v>
+      </c>
+      <c r="U145">
+        <v>2.1</v>
+      </c>
+      <c r="V145">
+        <v>2.75</v>
+      </c>
+      <c r="W145">
+        <v>1.36</v>
+      </c>
+      <c r="X145">
+        <v>3</v>
+      </c>
+      <c r="Y145">
+        <v>2.75</v>
+      </c>
+      <c r="Z145">
+        <v>1.4</v>
+      </c>
+      <c r="AA145">
+        <v>7</v>
+      </c>
+      <c r="AB145">
+        <v>1.08</v>
+      </c>
+      <c r="AC145">
+        <v>2.78</v>
+      </c>
+      <c r="AD145">
+        <v>3.48</v>
+      </c>
+      <c r="AE145">
+        <v>2.5</v>
+      </c>
+      <c r="AF145">
+        <v>1.05</v>
+      </c>
+      <c r="AG145">
+        <v>9</v>
+      </c>
+      <c r="AH145">
+        <v>1.29</v>
+      </c>
+      <c r="AI145">
+        <v>3.5</v>
+      </c>
+      <c r="AJ145">
+        <v>1.83</v>
+      </c>
+      <c r="AK145">
+        <v>1.84</v>
+      </c>
+      <c r="AL145">
+        <v>1.73</v>
+      </c>
+      <c r="AM145">
+        <v>2</v>
+      </c>
+      <c r="AN145">
+        <v>1.62</v>
+      </c>
+      <c r="AO145">
+        <v>1.25</v>
+      </c>
+      <c r="AP145">
+        <v>1.36</v>
+      </c>
+      <c r="AQ145">
+        <v>1.63</v>
+      </c>
+      <c r="AR145">
+        <v>2.33</v>
+      </c>
+      <c r="AS145">
+        <v>1.78</v>
+      </c>
+      <c r="AT145">
+        <v>2</v>
+      </c>
+      <c r="AU145">
+        <v>1.14</v>
+      </c>
+      <c r="AV145">
+        <v>1.53</v>
+      </c>
+      <c r="AW145">
+        <v>2.67</v>
+      </c>
+      <c r="AX145">
+        <v>2.4</v>
+      </c>
+      <c r="AY145">
+        <v>8</v>
+      </c>
+      <c r="AZ145">
+        <v>1.73</v>
+      </c>
+      <c r="BA145">
+        <v>1.24</v>
+      </c>
+      <c r="BB145">
+        <v>1.47</v>
+      </c>
+      <c r="BC145">
+        <v>1.95</v>
+      </c>
+      <c r="BD145">
+        <v>2.34</v>
+      </c>
+      <c r="BE145">
+        <v>3.14</v>
+      </c>
+      <c r="BF145">
+        <v>7</v>
+      </c>
+      <c r="BG145">
+        <v>5</v>
+      </c>
+      <c r="BH145">
+        <v>6</v>
+      </c>
+      <c r="BI145">
+        <v>7</v>
+      </c>
+      <c r="BJ145">
+        <v>13</v>
+      </c>
+      <c r="BK145">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>5189077</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45087.29166666666</v>
+      </c>
+      <c r="F146">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>72</v>
+      </c>
+      <c r="H146" t="s">
+        <v>76</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>160</v>
+      </c>
+      <c r="P146" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q146">
+        <v>6</v>
+      </c>
+      <c r="R146">
+        <v>6</v>
+      </c>
+      <c r="S146">
+        <v>12</v>
+      </c>
+      <c r="T146">
+        <v>3.8</v>
+      </c>
+      <c r="U146">
+        <v>2.25</v>
+      </c>
+      <c r="V146">
+        <v>2.45</v>
+      </c>
+      <c r="W146">
+        <v>1.32</v>
+      </c>
+      <c r="X146">
+        <v>3.1</v>
+      </c>
+      <c r="Y146">
+        <v>2.45</v>
+      </c>
+      <c r="Z146">
+        <v>1.49</v>
+      </c>
+      <c r="AA146">
+        <v>5.75</v>
+      </c>
+      <c r="AB146">
+        <v>1.11</v>
+      </c>
+      <c r="AC146">
+        <v>2.68</v>
+      </c>
+      <c r="AD146">
+        <v>3.66</v>
+      </c>
+      <c r="AE146">
+        <v>2.49</v>
+      </c>
+      <c r="AF146">
+        <v>1.03</v>
+      </c>
+      <c r="AG146">
+        <v>11</v>
+      </c>
+      <c r="AH146">
+        <v>1.22</v>
+      </c>
+      <c r="AI146">
+        <v>4.33</v>
+      </c>
+      <c r="AJ146">
+        <v>1.63</v>
+      </c>
+      <c r="AK146">
+        <v>2.11</v>
+      </c>
+      <c r="AL146">
+        <v>1.58</v>
+      </c>
+      <c r="AM146">
+        <v>2.2</v>
+      </c>
+      <c r="AN146">
+        <v>1.85</v>
+      </c>
+      <c r="AO146">
+        <v>1.25</v>
+      </c>
+      <c r="AP146">
+        <v>1.28</v>
+      </c>
+      <c r="AQ146">
+        <v>1.38</v>
+      </c>
+      <c r="AR146">
+        <v>1.88</v>
+      </c>
+      <c r="AS146">
+        <v>1.33</v>
+      </c>
+      <c r="AT146">
+        <v>1.78</v>
+      </c>
+      <c r="AU146">
+        <v>1.27</v>
+      </c>
+      <c r="AV146">
+        <v>1.45</v>
+      </c>
+      <c r="AW146">
+        <v>2.72</v>
+      </c>
+      <c r="AX146">
+        <v>2.38</v>
+      </c>
+      <c r="AY146">
+        <v>8</v>
+      </c>
+      <c r="AZ146">
+        <v>1.8</v>
+      </c>
+      <c r="BA146">
+        <v>1.36</v>
+      </c>
+      <c r="BB146">
+        <v>1.68</v>
+      </c>
+      <c r="BC146">
+        <v>2.14</v>
+      </c>
+      <c r="BD146">
+        <v>2.84</v>
+      </c>
+      <c r="BE146">
+        <v>3.75</v>
+      </c>
+      <c r="BF146">
+        <v>0</v>
+      </c>
+      <c r="BG146">
+        <v>6</v>
+      </c>
+      <c r="BH146">
+        <v>4</v>
+      </c>
+      <c r="BI146">
+        <v>6</v>
+      </c>
+      <c r="BJ146">
+        <v>4</v>
+      </c>
+      <c r="BK146">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,15 @@
     <t>['50', '90+3']</t>
   </si>
   <si>
+    <t>['45', '69']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['25', '29', '60']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -727,9 +736,6 @@
     <t>['55', '80']</t>
   </si>
   <si>
-    <t>['43']</t>
-  </si>
-  <si>
     <t>['39', '45+1', '60', '90+3']</t>
   </si>
   <si>
@@ -824,6 +830,12 @@
   </si>
   <si>
     <t>['39', '46', '72']</t>
+  </si>
+  <si>
+    <t>['28', '75', '80']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1441,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1516,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
         <v>1.78</v>
@@ -1901,7 +1913,7 @@
         <v>1.86</v>
       </c>
       <c r="AT4">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2002,7 +2014,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2089,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT5">
         <v>2</v>
@@ -2384,7 +2396,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2665,7 +2677,7 @@
         <v>2.11</v>
       </c>
       <c r="AT8">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2766,7 +2778,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2856,7 +2868,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2957,7 +2969,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3148,7 +3160,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3429,7 +3441,7 @@
         <v>2.5</v>
       </c>
       <c r="AT12">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3530,7 +3542,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3721,7 +3733,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3808,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT14">
         <v>1.38</v>
@@ -3912,7 +3924,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4103,7 +4115,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4190,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT16">
         <v>1.5</v>
@@ -4381,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT17">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4485,7 +4497,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4676,7 +4688,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4766,7 +4778,7 @@
         <v>0.78</v>
       </c>
       <c r="AT19">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU19">
         <v>1.53</v>
@@ -4867,7 +4879,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -4957,7 +4969,7 @@
         <v>2.5</v>
       </c>
       <c r="AT20">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU20">
         <v>1.93</v>
@@ -5058,7 +5070,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5145,10 +5157,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU21">
         <v>1.61</v>
@@ -5249,7 +5261,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5336,7 +5348,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT22">
         <v>1.89</v>
@@ -5440,7 +5452,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5527,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT23">
         <v>1.78</v>
@@ -5721,7 +5733,7 @@
         <v>0.75</v>
       </c>
       <c r="AT24">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU24">
         <v>0.79</v>
@@ -6013,7 +6025,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6586,7 +6598,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6676,7 +6688,7 @@
         <v>2.11</v>
       </c>
       <c r="AT29">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU29">
         <v>1.31</v>
@@ -6864,7 +6876,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT30">
         <v>1.5</v>
@@ -6968,7 +6980,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7437,10 +7449,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT33">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU33">
         <v>1.05</v>
@@ -7541,7 +7553,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7732,7 +7744,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7923,7 +7935,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8013,7 +8025,7 @@
         <v>0.75</v>
       </c>
       <c r="AT36">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU36">
         <v>2.48</v>
@@ -8114,7 +8126,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8201,10 +8213,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT37">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU37">
         <v>2.2</v>
@@ -8392,10 +8404,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT38">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU38">
         <v>2.05</v>
@@ -8496,7 +8508,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8583,10 +8595,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT39">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU39">
         <v>0.96</v>
@@ -8878,7 +8890,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9069,7 +9081,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9156,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT42">
         <v>1.78</v>
@@ -9538,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT44">
         <v>1.63</v>
@@ -9833,7 +9845,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -9923,7 +9935,7 @@
         <v>1.89</v>
       </c>
       <c r="AT46">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU46">
         <v>1.39</v>
@@ -10024,7 +10036,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10114,7 +10126,7 @@
         <v>0.78</v>
       </c>
       <c r="AT47">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU47">
         <v>1.4</v>
@@ -10215,7 +10227,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10406,7 +10418,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10493,10 +10505,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT49">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU49">
         <v>1.01</v>
@@ -10597,7 +10609,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10684,7 +10696,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT50">
         <v>2</v>
@@ -10788,7 +10800,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10875,10 +10887,10 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT51">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU51">
         <v>1.11</v>
@@ -10979,7 +10991,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11260,7 +11272,7 @@
         <v>1.33</v>
       </c>
       <c r="AT53">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU53">
         <v>0.95</v>
@@ -11552,7 +11564,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -12316,7 +12328,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12507,7 +12519,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12597,7 +12609,7 @@
         <v>1.86</v>
       </c>
       <c r="AT60">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU60">
         <v>1.47</v>
@@ -12785,10 +12797,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT61">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -12976,7 +12988,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT62">
         <v>1.5</v>
@@ -13170,7 +13182,7 @@
         <v>1.89</v>
       </c>
       <c r="AT63">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU63">
         <v>1.41</v>
@@ -13462,7 +13474,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13549,10 +13561,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT65">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU65">
         <v>1.03</v>
@@ -13653,7 +13665,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13740,10 +13752,10 @@
         <v>0.67</v>
       </c>
       <c r="AS66">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT66">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU66">
         <v>1.31</v>
@@ -14035,7 +14047,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14226,7 +14238,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14313,7 +14325,7 @@
         <v>2.25</v>
       </c>
       <c r="AS69">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT69">
         <v>2</v>
@@ -14417,7 +14429,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14608,7 +14620,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14695,7 +14707,7 @@
         <v>3</v>
       </c>
       <c r="AS71">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT71">
         <v>2</v>
@@ -14799,7 +14811,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14990,7 +15002,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15181,7 +15193,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15271,7 +15283,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU74">
         <v>2.14</v>
@@ -15372,7 +15384,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15754,7 +15766,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15945,7 +15957,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16032,7 +16044,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT78">
         <v>1.89</v>
@@ -16136,7 +16148,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16226,7 +16238,7 @@
         <v>1.25</v>
       </c>
       <c r="AT79">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU79">
         <v>1.8</v>
@@ -16327,7 +16339,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16414,10 +16426,10 @@
         <v>1.25</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT80">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU80">
         <v>1.44</v>
@@ -16605,10 +16617,10 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT81">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU81">
         <v>1.38</v>
@@ -16709,7 +16721,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16796,7 +16808,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT82">
         <v>0.71</v>
@@ -16900,7 +16912,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16987,7 +16999,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT83">
         <v>1.78</v>
@@ -17091,7 +17103,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17181,7 +17193,7 @@
         <v>1.78</v>
       </c>
       <c r="AT84">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU84">
         <v>1.07</v>
@@ -17372,7 +17384,7 @@
         <v>2.11</v>
       </c>
       <c r="AT85">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU85">
         <v>1.42</v>
@@ -17473,7 +17485,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17855,7 +17867,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17945,7 +17957,7 @@
         <v>0.78</v>
       </c>
       <c r="AT88">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU88">
         <v>1.19</v>
@@ -18046,7 +18058,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18324,7 +18336,7 @@
         <v>0.25</v>
       </c>
       <c r="AS90">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT90">
         <v>0.78</v>
@@ -18428,7 +18440,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18619,7 +18631,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18810,7 +18822,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18897,7 +18909,7 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT93">
         <v>1.63</v>
@@ -19001,7 +19013,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19282,7 +19294,7 @@
         <v>1.89</v>
       </c>
       <c r="AT95">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU95">
         <v>1.33</v>
@@ -19383,7 +19395,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19470,7 +19482,7 @@
         <v>3</v>
       </c>
       <c r="AS96">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT96">
         <v>2</v>
@@ -19574,7 +19586,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19852,7 +19864,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT98">
         <v>0.75</v>
@@ -19956,7 +19968,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20046,7 +20058,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU99">
         <v>1.59</v>
@@ -20234,7 +20246,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT100">
         <v>0.78</v>
@@ -20338,7 +20350,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20428,7 +20440,7 @@
         <v>2</v>
       </c>
       <c r="AT101">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU101">
         <v>2.02</v>
@@ -20529,7 +20541,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20619,7 +20631,7 @@
         <v>2.5</v>
       </c>
       <c r="AT102">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU102">
         <v>1.36</v>
@@ -20807,7 +20819,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT103">
         <v>0.63</v>
@@ -21380,7 +21392,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
         <v>1.38</v>
@@ -21484,7 +21496,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21675,7 +21687,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21956,7 +21968,7 @@
         <v>2.11</v>
       </c>
       <c r="AT109">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU109">
         <v>1.54</v>
@@ -22057,7 +22069,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22439,7 +22451,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22908,7 +22920,7 @@
         <v>2.17</v>
       </c>
       <c r="AS114">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT114">
         <v>2</v>
@@ -23012,7 +23024,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23099,7 +23111,7 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT115">
         <v>1.78</v>
@@ -23394,7 +23406,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23484,7 +23496,7 @@
         <v>1.25</v>
       </c>
       <c r="AT117">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU117">
         <v>1.79</v>
@@ -23675,7 +23687,7 @@
         <v>1.89</v>
       </c>
       <c r="AT118">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU118">
         <v>1.51</v>
@@ -23776,7 +23788,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23863,10 +23875,10 @@
         <v>0.71</v>
       </c>
       <c r="AS119">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT119">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU119">
         <v>1.21</v>
@@ -23967,7 +23979,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24158,7 +24170,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24245,10 +24257,10 @@
         <v>2.17</v>
       </c>
       <c r="AS121">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT121">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU121">
         <v>1.53</v>
@@ -24436,7 +24448,7 @@
         <v>1.71</v>
       </c>
       <c r="AS122">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT122">
         <v>1.5</v>
@@ -24922,7 +24934,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25009,7 +25021,7 @@
         <v>1.43</v>
       </c>
       <c r="AS125">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT125">
         <v>1.78</v>
@@ -25113,7 +25125,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25304,7 +25316,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25394,7 +25406,7 @@
         <v>2.11</v>
       </c>
       <c r="AT127">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU127">
         <v>1.52</v>
@@ -25585,7 +25597,7 @@
         <v>2</v>
       </c>
       <c r="AT128">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU128">
         <v>1.93</v>
@@ -25686,7 +25698,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25877,7 +25889,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -25967,7 +25979,7 @@
         <v>0.75</v>
       </c>
       <c r="AT130">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU130">
         <v>1.33</v>
@@ -26068,7 +26080,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26155,7 +26167,7 @@
         <v>0.14</v>
       </c>
       <c r="AS131">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT131">
         <v>0.78</v>
@@ -26540,7 +26552,7 @@
         <v>2.5</v>
       </c>
       <c r="AT133">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU133">
         <v>1.45</v>
@@ -26728,7 +26740,7 @@
         <v>0.83</v>
       </c>
       <c r="AS134">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT134">
         <v>0.63</v>
@@ -26832,7 +26844,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26922,7 +26934,7 @@
         <v>2.29</v>
       </c>
       <c r="AT135">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU135">
         <v>1.66</v>
@@ -27023,7 +27035,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27214,7 +27226,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27405,7 +27417,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27492,7 +27504,7 @@
         <v>1.86</v>
       </c>
       <c r="AS138">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT138">
         <v>1.63</v>
@@ -27596,7 +27608,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27787,7 +27799,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -27874,7 +27886,7 @@
         <v>1.14</v>
       </c>
       <c r="AS140">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT140">
         <v>1.38</v>
@@ -27978,7 +27990,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28259,7 +28271,7 @@
         <v>2</v>
       </c>
       <c r="AT142">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU142">
         <v>2.04</v>
@@ -28551,7 +28563,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28933,7 +28945,7 @@
         <v>160</v>
       </c>
       <c r="P146" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29075,6 +29087,1152 @@
       </c>
       <c r="BK146">
         <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5189078</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45088.08333333334</v>
+      </c>
+      <c r="F147">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>81</v>
+      </c>
+      <c r="H147" t="s">
+        <v>69</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>147</v>
+      </c>
+      <c r="P147" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q147">
+        <v>11</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>13</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>2.1</v>
+      </c>
+      <c r="V147">
+        <v>4</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>2.75</v>
+      </c>
+      <c r="Y147">
+        <v>3</v>
+      </c>
+      <c r="Z147">
+        <v>1.36</v>
+      </c>
+      <c r="AA147">
+        <v>8</v>
+      </c>
+      <c r="AB147">
+        <v>1.08</v>
+      </c>
+      <c r="AC147">
+        <v>2.1</v>
+      </c>
+      <c r="AD147">
+        <v>3.1</v>
+      </c>
+      <c r="AE147">
+        <v>3.3</v>
+      </c>
+      <c r="AF147">
+        <v>1.05</v>
+      </c>
+      <c r="AG147">
+        <v>8</v>
+      </c>
+      <c r="AH147">
+        <v>1.33</v>
+      </c>
+      <c r="AI147">
+        <v>3.2</v>
+      </c>
+      <c r="AJ147">
+        <v>1.95</v>
+      </c>
+      <c r="AK147">
+        <v>1.7</v>
+      </c>
+      <c r="AL147">
+        <v>1.8</v>
+      </c>
+      <c r="AM147">
+        <v>1.95</v>
+      </c>
+      <c r="AN147">
+        <v>1.28</v>
+      </c>
+      <c r="AO147">
+        <v>1.3</v>
+      </c>
+      <c r="AP147">
+        <v>1.62</v>
+      </c>
+      <c r="AQ147">
+        <v>1.38</v>
+      </c>
+      <c r="AR147">
+        <v>0.88</v>
+      </c>
+      <c r="AS147">
+        <v>1.22</v>
+      </c>
+      <c r="AT147">
+        <v>1.11</v>
+      </c>
+      <c r="AU147">
+        <v>1.53</v>
+      </c>
+      <c r="AV147">
+        <v>1.31</v>
+      </c>
+      <c r="AW147">
+        <v>2.84</v>
+      </c>
+      <c r="AX147">
+        <v>1.62</v>
+      </c>
+      <c r="AY147">
+        <v>8</v>
+      </c>
+      <c r="AZ147">
+        <v>2.75</v>
+      </c>
+      <c r="BA147">
+        <v>1.27</v>
+      </c>
+      <c r="BB147">
+        <v>1.51</v>
+      </c>
+      <c r="BC147">
+        <v>1.88</v>
+      </c>
+      <c r="BD147">
+        <v>2.41</v>
+      </c>
+      <c r="BE147">
+        <v>3.2</v>
+      </c>
+      <c r="BF147">
+        <v>5</v>
+      </c>
+      <c r="BG147">
+        <v>4</v>
+      </c>
+      <c r="BH147">
+        <v>7</v>
+      </c>
+      <c r="BI147">
+        <v>5</v>
+      </c>
+      <c r="BJ147">
+        <v>12</v>
+      </c>
+      <c r="BK147">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>5189079</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45088.16666666666</v>
+      </c>
+      <c r="F148">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H148" t="s">
+        <v>78</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>189</v>
+      </c>
+      <c r="P148" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q148">
+        <v>7</v>
+      </c>
+      <c r="R148">
+        <v>4</v>
+      </c>
+      <c r="S148">
+        <v>11</v>
+      </c>
+      <c r="T148">
+        <v>2.6</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
+        <v>5.5</v>
+      </c>
+      <c r="W148">
+        <v>1.57</v>
+      </c>
+      <c r="X148">
+        <v>2.25</v>
+      </c>
+      <c r="Y148">
+        <v>3.75</v>
+      </c>
+      <c r="Z148">
+        <v>1.25</v>
+      </c>
+      <c r="AA148">
+        <v>13</v>
+      </c>
+      <c r="AB148">
+        <v>1.04</v>
+      </c>
+      <c r="AC148">
+        <v>1.78</v>
+      </c>
+      <c r="AD148">
+        <v>3.4</v>
+      </c>
+      <c r="AE148">
+        <v>5.2</v>
+      </c>
+      <c r="AF148">
+        <v>1.1</v>
+      </c>
+      <c r="AG148">
+        <v>5.75</v>
+      </c>
+      <c r="AH148">
+        <v>1.5</v>
+      </c>
+      <c r="AI148">
+        <v>2.48</v>
+      </c>
+      <c r="AJ148">
+        <v>2.35</v>
+      </c>
+      <c r="AK148">
+        <v>1.53</v>
+      </c>
+      <c r="AL148">
+        <v>2.38</v>
+      </c>
+      <c r="AM148">
+        <v>1.53</v>
+      </c>
+      <c r="AN148">
+        <v>1.1</v>
+      </c>
+      <c r="AO148">
+        <v>1.35</v>
+      </c>
+      <c r="AP148">
+        <v>1.95</v>
+      </c>
+      <c r="AQ148">
+        <v>2</v>
+      </c>
+      <c r="AR148">
+        <v>0.43</v>
+      </c>
+      <c r="AS148">
+        <v>2.11</v>
+      </c>
+      <c r="AT148">
+        <v>0.38</v>
+      </c>
+      <c r="AU148">
+        <v>1.46</v>
+      </c>
+      <c r="AV148">
+        <v>1.11</v>
+      </c>
+      <c r="AW148">
+        <v>2.57</v>
+      </c>
+      <c r="AX148">
+        <v>1.62</v>
+      </c>
+      <c r="AY148">
+        <v>7.5</v>
+      </c>
+      <c r="AZ148">
+        <v>2.75</v>
+      </c>
+      <c r="BA148">
+        <v>1.38</v>
+      </c>
+      <c r="BB148">
+        <v>1.83</v>
+      </c>
+      <c r="BC148">
+        <v>2.16</v>
+      </c>
+      <c r="BD148">
+        <v>2.84</v>
+      </c>
+      <c r="BE148">
+        <v>4.8</v>
+      </c>
+      <c r="BF148">
+        <v>6</v>
+      </c>
+      <c r="BG148">
+        <v>2</v>
+      </c>
+      <c r="BH148">
+        <v>8</v>
+      </c>
+      <c r="BI148">
+        <v>6</v>
+      </c>
+      <c r="BJ148">
+        <v>14</v>
+      </c>
+      <c r="BK148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>5189080</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45088.25</v>
+      </c>
+      <c r="F149">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>79</v>
+      </c>
+      <c r="H149" t="s">
+        <v>74</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" t="s">
+        <v>190</v>
+      </c>
+      <c r="P149" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>6</v>
+      </c>
+      <c r="S149">
+        <v>9</v>
+      </c>
+      <c r="T149">
+        <v>2.63</v>
+      </c>
+      <c r="U149">
+        <v>2.2</v>
+      </c>
+      <c r="V149">
+        <v>4.33</v>
+      </c>
+      <c r="W149">
+        <v>1.4</v>
+      </c>
+      <c r="X149">
+        <v>2.75</v>
+      </c>
+      <c r="Y149">
+        <v>3</v>
+      </c>
+      <c r="Z149">
+        <v>1.36</v>
+      </c>
+      <c r="AA149">
+        <v>8</v>
+      </c>
+      <c r="AB149">
+        <v>1.08</v>
+      </c>
+      <c r="AC149">
+        <v>1.92</v>
+      </c>
+      <c r="AD149">
+        <v>3.6</v>
+      </c>
+      <c r="AE149">
+        <v>4</v>
+      </c>
+      <c r="AF149">
+        <v>1.02</v>
+      </c>
+      <c r="AG149">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH149">
+        <v>1.29</v>
+      </c>
+      <c r="AI149">
+        <v>3.3</v>
+      </c>
+      <c r="AJ149">
+        <v>1.88</v>
+      </c>
+      <c r="AK149">
+        <v>1.82</v>
+      </c>
+      <c r="AL149">
+        <v>1.8</v>
+      </c>
+      <c r="AM149">
+        <v>1.95</v>
+      </c>
+      <c r="AN149">
+        <v>1.27</v>
+      </c>
+      <c r="AO149">
+        <v>1.3</v>
+      </c>
+      <c r="AP149">
+        <v>1.69</v>
+      </c>
+      <c r="AQ149">
+        <v>1.14</v>
+      </c>
+      <c r="AR149">
+        <v>0.86</v>
+      </c>
+      <c r="AS149">
+        <v>1.38</v>
+      </c>
+      <c r="AT149">
+        <v>0.75</v>
+      </c>
+      <c r="AU149">
+        <v>1.2</v>
+      </c>
+      <c r="AV149">
+        <v>1.52</v>
+      </c>
+      <c r="AW149">
+        <v>2.72</v>
+      </c>
+      <c r="AX149">
+        <v>1.95</v>
+      </c>
+      <c r="AY149">
+        <v>8</v>
+      </c>
+      <c r="AZ149">
+        <v>2.1</v>
+      </c>
+      <c r="BA149">
+        <v>1.27</v>
+      </c>
+      <c r="BB149">
+        <v>1.51</v>
+      </c>
+      <c r="BC149">
+        <v>1.91</v>
+      </c>
+      <c r="BD149">
+        <v>2.46</v>
+      </c>
+      <c r="BE149">
+        <v>3.34</v>
+      </c>
+      <c r="BF149">
+        <v>2</v>
+      </c>
+      <c r="BG149">
+        <v>3</v>
+      </c>
+      <c r="BH149">
+        <v>2</v>
+      </c>
+      <c r="BI149">
+        <v>5</v>
+      </c>
+      <c r="BJ149">
+        <v>4</v>
+      </c>
+      <c r="BK149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>5189081</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45088.25</v>
+      </c>
+      <c r="F150">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>77</v>
+      </c>
+      <c r="H150" t="s">
+        <v>67</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>191</v>
+      </c>
+      <c r="P150" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q150">
+        <v>4</v>
+      </c>
+      <c r="R150">
+        <v>3</v>
+      </c>
+      <c r="S150">
+        <v>7</v>
+      </c>
+      <c r="T150">
+        <v>3.1</v>
+      </c>
+      <c r="U150">
+        <v>2.1</v>
+      </c>
+      <c r="V150">
+        <v>3.4</v>
+      </c>
+      <c r="W150">
+        <v>1.4</v>
+      </c>
+      <c r="X150">
+        <v>2.75</v>
+      </c>
+      <c r="Y150">
+        <v>3</v>
+      </c>
+      <c r="Z150">
+        <v>1.36</v>
+      </c>
+      <c r="AA150">
+        <v>8</v>
+      </c>
+      <c r="AB150">
+        <v>1.08</v>
+      </c>
+      <c r="AC150">
+        <v>2.4</v>
+      </c>
+      <c r="AD150">
+        <v>3.3</v>
+      </c>
+      <c r="AE150">
+        <v>3</v>
+      </c>
+      <c r="AF150">
+        <v>1.06</v>
+      </c>
+      <c r="AG150">
+        <v>8.5</v>
+      </c>
+      <c r="AH150">
+        <v>1.3</v>
+      </c>
+      <c r="AI150">
+        <v>3.2</v>
+      </c>
+      <c r="AJ150">
+        <v>1.95</v>
+      </c>
+      <c r="AK150">
+        <v>1.77</v>
+      </c>
+      <c r="AL150">
+        <v>1.75</v>
+      </c>
+      <c r="AM150">
+        <v>2</v>
+      </c>
+      <c r="AN150">
+        <v>1.32</v>
+      </c>
+      <c r="AO150">
+        <v>1.33</v>
+      </c>
+      <c r="AP150">
+        <v>1.52</v>
+      </c>
+      <c r="AQ150">
+        <v>0.86</v>
+      </c>
+      <c r="AR150">
+        <v>0.67</v>
+      </c>
+      <c r="AS150">
+        <v>1.13</v>
+      </c>
+      <c r="AT150">
+        <v>0.6</v>
+      </c>
+      <c r="AU150">
+        <v>1.85</v>
+      </c>
+      <c r="AV150">
+        <v>1.14</v>
+      </c>
+      <c r="AW150">
+        <v>2.99</v>
+      </c>
+      <c r="AX150">
+        <v>1.8</v>
+      </c>
+      <c r="AY150">
+        <v>8</v>
+      </c>
+      <c r="AZ150">
+        <v>2.38</v>
+      </c>
+      <c r="BA150">
+        <v>1.28</v>
+      </c>
+      <c r="BB150">
+        <v>1.54</v>
+      </c>
+      <c r="BC150">
+        <v>2</v>
+      </c>
+      <c r="BD150">
+        <v>2.55</v>
+      </c>
+      <c r="BE150">
+        <v>3.48</v>
+      </c>
+      <c r="BF150">
+        <v>9</v>
+      </c>
+      <c r="BG150">
+        <v>6</v>
+      </c>
+      <c r="BH150">
+        <v>4</v>
+      </c>
+      <c r="BI150">
+        <v>3</v>
+      </c>
+      <c r="BJ150">
+        <v>13</v>
+      </c>
+      <c r="BK150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>5189082</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45088.27083333334</v>
+      </c>
+      <c r="F151">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>68</v>
+      </c>
+      <c r="H151" t="s">
+        <v>82</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151" t="s">
+        <v>84</v>
+      </c>
+      <c r="P151" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q151">
+        <v>3</v>
+      </c>
+      <c r="R151">
+        <v>9</v>
+      </c>
+      <c r="S151">
+        <v>12</v>
+      </c>
+      <c r="T151">
+        <v>6</v>
+      </c>
+      <c r="U151">
+        <v>2.38</v>
+      </c>
+      <c r="V151">
+        <v>2.1</v>
+      </c>
+      <c r="W151">
+        <v>1.33</v>
+      </c>
+      <c r="X151">
+        <v>3.25</v>
+      </c>
+      <c r="Y151">
+        <v>2.63</v>
+      </c>
+      <c r="Z151">
+        <v>1.44</v>
+      </c>
+      <c r="AA151">
+        <v>6.5</v>
+      </c>
+      <c r="AB151">
+        <v>1.11</v>
+      </c>
+      <c r="AC151">
+        <v>5.6</v>
+      </c>
+      <c r="AD151">
+        <v>4.4</v>
+      </c>
+      <c r="AE151">
+        <v>1.55</v>
+      </c>
+      <c r="AF151">
+        <v>1</v>
+      </c>
+      <c r="AG151">
+        <v>10.5</v>
+      </c>
+      <c r="AH151">
+        <v>1.25</v>
+      </c>
+      <c r="AI151">
+        <v>3.6</v>
+      </c>
+      <c r="AJ151">
+        <v>1.73</v>
+      </c>
+      <c r="AK151">
+        <v>1.98</v>
+      </c>
+      <c r="AL151">
+        <v>1.91</v>
+      </c>
+      <c r="AM151">
+        <v>1.91</v>
+      </c>
+      <c r="AN151">
+        <v>2.46</v>
+      </c>
+      <c r="AO151">
+        <v>1.22</v>
+      </c>
+      <c r="AP151">
+        <v>1.13</v>
+      </c>
+      <c r="AQ151">
+        <v>0.78</v>
+      </c>
+      <c r="AR151">
+        <v>1.5</v>
+      </c>
+      <c r="AS151">
+        <v>0.8</v>
+      </c>
+      <c r="AT151">
+        <v>1.44</v>
+      </c>
+      <c r="AU151">
+        <v>1.08</v>
+      </c>
+      <c r="AV151">
+        <v>1.11</v>
+      </c>
+      <c r="AW151">
+        <v>2.19</v>
+      </c>
+      <c r="AX151">
+        <v>3.1</v>
+      </c>
+      <c r="AY151">
+        <v>8.5</v>
+      </c>
+      <c r="AZ151">
+        <v>1.5</v>
+      </c>
+      <c r="BA151">
+        <v>1.24</v>
+      </c>
+      <c r="BB151">
+        <v>1.47</v>
+      </c>
+      <c r="BC151">
+        <v>1.98</v>
+      </c>
+      <c r="BD151">
+        <v>2.32</v>
+      </c>
+      <c r="BE151">
+        <v>3.04</v>
+      </c>
+      <c r="BF151">
+        <v>4</v>
+      </c>
+      <c r="BG151">
+        <v>7</v>
+      </c>
+      <c r="BH151">
+        <v>2</v>
+      </c>
+      <c r="BI151">
+        <v>10</v>
+      </c>
+      <c r="BJ151">
+        <v>6</v>
+      </c>
+      <c r="BK151">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>5189083</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45088.29166666666</v>
+      </c>
+      <c r="F152">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>65</v>
+      </c>
+      <c r="H152" t="s">
+        <v>66</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>132</v>
+      </c>
+      <c r="P152" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q152">
+        <v>1</v>
+      </c>
+      <c r="R152">
+        <v>8</v>
+      </c>
+      <c r="S152">
+        <v>9</v>
+      </c>
+      <c r="T152">
+        <v>3.1</v>
+      </c>
+      <c r="U152">
+        <v>2.05</v>
+      </c>
+      <c r="V152">
+        <v>3.6</v>
+      </c>
+      <c r="W152">
+        <v>1.44</v>
+      </c>
+      <c r="X152">
+        <v>2.63</v>
+      </c>
+      <c r="Y152">
+        <v>3.25</v>
+      </c>
+      <c r="Z152">
+        <v>1.33</v>
+      </c>
+      <c r="AA152">
+        <v>9</v>
+      </c>
+      <c r="AB152">
+        <v>1.07</v>
+      </c>
+      <c r="AC152">
+        <v>2.5</v>
+      </c>
+      <c r="AD152">
+        <v>3.3</v>
+      </c>
+      <c r="AE152">
+        <v>2.9</v>
+      </c>
+      <c r="AF152">
+        <v>1.05</v>
+      </c>
+      <c r="AG152">
+        <v>8</v>
+      </c>
+      <c r="AH152">
+        <v>1.33</v>
+      </c>
+      <c r="AI152">
+        <v>3</v>
+      </c>
+      <c r="AJ152">
+        <v>2.04</v>
+      </c>
+      <c r="AK152">
+        <v>1.69</v>
+      </c>
+      <c r="AL152">
+        <v>1.91</v>
+      </c>
+      <c r="AM152">
+        <v>1.91</v>
+      </c>
+      <c r="AN152">
+        <v>1.3</v>
+      </c>
+      <c r="AO152">
+        <v>1.35</v>
+      </c>
+      <c r="AP152">
+        <v>1.52</v>
+      </c>
+      <c r="AQ152">
+        <v>1.29</v>
+      </c>
+      <c r="AR152">
+        <v>1.63</v>
+      </c>
+      <c r="AS152">
+        <v>1.5</v>
+      </c>
+      <c r="AT152">
+        <v>1.44</v>
+      </c>
+      <c r="AU152">
+        <v>1.62</v>
+      </c>
+      <c r="AV152">
+        <v>1.99</v>
+      </c>
+      <c r="AW152">
+        <v>3.61</v>
+      </c>
+      <c r="AX152">
+        <v>2.2</v>
+      </c>
+      <c r="AY152">
+        <v>7.5</v>
+      </c>
+      <c r="AZ152">
+        <v>1.91</v>
+      </c>
+      <c r="BA152">
+        <v>1.38</v>
+      </c>
+      <c r="BB152">
+        <v>1.7</v>
+      </c>
+      <c r="BC152">
+        <v>2.17</v>
+      </c>
+      <c r="BD152">
+        <v>2.88</v>
+      </c>
+      <c r="BE152">
+        <v>4.1</v>
+      </c>
+      <c r="BF152">
+        <v>3</v>
+      </c>
+      <c r="BG152">
+        <v>14</v>
+      </c>
+      <c r="BH152">
+        <v>5</v>
+      </c>
+      <c r="BI152">
+        <v>7</v>
+      </c>
+      <c r="BJ152">
+        <v>8</v>
+      </c>
+      <c r="BK152">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -29644,19 +29644,19 @@
         <v>3.34</v>
       </c>
       <c r="BF149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH149">
         <v>2</v>
       </c>
       <c r="BI149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ149">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BK149">
         <v>8</v>
@@ -29835,19 +29835,19 @@
         <v>3.48</v>
       </c>
       <c r="BF150">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG150">
         <v>6</v>
       </c>
       <c r="BH150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI150">
         <v>3</v>
       </c>
       <c r="BJ150">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BK150">
         <v>9</v>
@@ -30029,19 +30029,19 @@
         <v>4</v>
       </c>
       <c r="BG151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI151">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BJ151">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK151">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:63">
@@ -30217,22 +30217,22 @@
         <v>4.1</v>
       </c>
       <c r="BF152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG152">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BH152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI152">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ152">
         <v>8</v>
       </c>
       <c r="BK152">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,18 @@
     <t>['25', '29', '60']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['18', '80']</t>
+  </si>
+  <si>
+    <t>['84', '87']</t>
+  </si>
+  <si>
+    <t>['15', '34']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -644,9 +656,6 @@
   </si>
   <si>
     <t>['41', '52', '70']</t>
-  </si>
-  <si>
-    <t>['45']</t>
   </si>
   <si>
     <t>['55', '74']</t>
@@ -836,6 +845,21 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['2', '17', '38', '76']</t>
+  </si>
+  <si>
+    <t>['2', '30', '49', '63', '86', '90+3']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['22', '60', '87']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1465,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1531,7 +1555,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1719,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT3">
         <v>1.78</v>
@@ -1910,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>1.44</v>
@@ -2014,7 +2038,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2104,7 +2128,7 @@
         <v>0.8</v>
       </c>
       <c r="AT5">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2292,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2396,7 +2420,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2486,7 +2510,7 @@
         <v>1.78</v>
       </c>
       <c r="AT7">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2778,7 +2802,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2969,7 +2993,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3056,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT10">
         <v>0.78</v>
@@ -3160,7 +3184,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3247,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT11">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3542,7 +3566,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3629,10 +3653,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3733,7 +3757,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3820,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT14">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3924,7 +3948,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4011,10 +4035,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT15">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4115,7 +4139,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4205,7 +4229,7 @@
         <v>1.38</v>
       </c>
       <c r="AT16">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4497,7 +4521,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4584,10 +4608,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT18">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU18">
         <v>1.61</v>
@@ -4688,7 +4712,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4775,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT19">
         <v>0.6</v>
@@ -4879,7 +4903,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -5070,7 +5094,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5261,7 +5285,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5351,7 +5375,7 @@
         <v>0.8</v>
       </c>
       <c r="AT22">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU22">
         <v>1.4</v>
@@ -5452,7 +5476,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5730,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT24">
         <v>0.6</v>
@@ -6025,7 +6049,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6112,10 +6136,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT26">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6303,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT27">
         <v>0.63</v>
@@ -6497,7 +6521,7 @@
         <v>1.33</v>
       </c>
       <c r="AT28">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU28">
         <v>1.2</v>
@@ -6598,7 +6622,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6879,7 +6903,7 @@
         <v>1.22</v>
       </c>
       <c r="AT30">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU30">
         <v>1.4</v>
@@ -6980,7 +7004,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7070,7 +7094,7 @@
         <v>1.78</v>
       </c>
       <c r="AT31">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU31">
         <v>1.05</v>
@@ -7258,10 +7282,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT32">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU32">
         <v>1.7</v>
@@ -7553,7 +7577,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7640,10 +7664,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT34">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU34">
         <v>1.15</v>
@@ -7744,7 +7768,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7831,10 +7855,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT35">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU35">
         <v>1.14</v>
@@ -7935,7 +7959,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8022,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT36">
         <v>1.11</v>
@@ -8126,7 +8150,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8213,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
         <v>1.44</v>
@@ -8508,7 +8532,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8789,7 +8813,7 @@
         <v>2.5</v>
       </c>
       <c r="AT40">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU40">
         <v>1.61</v>
@@ -8890,7 +8914,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8977,10 +9001,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT41">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU41">
         <v>1.37</v>
@@ -9081,7 +9105,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9168,7 +9192,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT42">
         <v>1.78</v>
@@ -9362,7 +9386,7 @@
         <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU43">
         <v>1.25</v>
@@ -9553,7 +9577,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU44">
         <v>1.37</v>
@@ -9741,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT45">
         <v>0.63</v>
@@ -9845,7 +9869,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -9932,7 +9956,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT46">
         <v>0.75</v>
@@ -10036,7 +10060,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10123,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT47">
         <v>1.44</v>
@@ -10227,7 +10251,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10314,10 +10338,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT48">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU48">
         <v>1.03</v>
@@ -10418,7 +10442,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10609,7 +10633,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10699,7 +10723,7 @@
         <v>1.22</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU50">
         <v>1.26</v>
@@ -10800,7 +10824,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10991,7 +11015,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11078,7 +11102,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT52">
         <v>0.78</v>
@@ -11463,7 +11487,7 @@
         <v>1.78</v>
       </c>
       <c r="AT54">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU54">
         <v>1.08</v>
@@ -11564,7 +11588,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11651,10 +11675,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT55">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU55">
         <v>1.7</v>
@@ -11845,7 +11869,7 @@
         <v>2.5</v>
       </c>
       <c r="AT56">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -12033,10 +12057,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT57">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU57">
         <v>2.14</v>
@@ -12227,7 +12251,7 @@
         <v>2.11</v>
       </c>
       <c r="AT58">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU58">
         <v>1.26</v>
@@ -12328,7 +12352,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12519,7 +12543,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12606,7 +12630,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>0.75</v>
@@ -12988,10 +13012,10 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT62">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU62">
         <v>1.7</v>
@@ -13179,7 +13203,7 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT63">
         <v>1.11</v>
@@ -13370,10 +13394,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT64">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU64">
         <v>1.3</v>
@@ -13474,7 +13498,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13665,7 +13689,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14047,7 +14071,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14134,10 +14158,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT68">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU68">
         <v>1.93</v>
@@ -14238,7 +14262,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14328,7 +14352,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU69">
         <v>1.37</v>
@@ -14429,7 +14453,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14516,7 +14540,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT70">
         <v>1.78</v>
@@ -14620,7 +14644,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14710,7 +14734,7 @@
         <v>1.38</v>
       </c>
       <c r="AT71">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU71">
         <v>1.16</v>
@@ -14811,7 +14835,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14898,10 +14922,10 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT72">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU72">
         <v>1.48</v>
@@ -15002,7 +15026,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15089,7 +15113,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT73">
         <v>0.78</v>
@@ -15193,7 +15217,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15280,7 +15304,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT74">
         <v>0.6</v>
@@ -15384,7 +15408,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15474,7 +15498,7 @@
         <v>2.11</v>
       </c>
       <c r="AT75">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU75">
         <v>1.32</v>
@@ -15766,7 +15790,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15853,10 +15877,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT77">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU77">
         <v>1.14</v>
@@ -15957,7 +15981,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16047,7 +16071,7 @@
         <v>1.22</v>
       </c>
       <c r="AT78">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16148,7 +16172,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16235,7 +16259,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT79">
         <v>0.38</v>
@@ -16339,7 +16363,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16808,10 +16832,10 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT82">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU82">
         <v>1.7</v>
@@ -16912,7 +16936,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17103,7 +17127,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17485,7 +17509,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17575,7 +17599,7 @@
         <v>2.5</v>
       </c>
       <c r="AT86">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU86">
         <v>1.49</v>
@@ -17763,10 +17787,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT87">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU87">
         <v>1.35</v>
@@ -17867,7 +17891,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17954,7 +17978,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT88">
         <v>1.11</v>
@@ -18058,7 +18082,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18145,10 +18169,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT89">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU89">
         <v>1.4</v>
@@ -18440,7 +18464,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18527,10 +18551,10 @@
         <v>1.8</v>
       </c>
       <c r="AS91">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT91">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU91">
         <v>1.68</v>
@@ -18631,7 +18655,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18718,10 +18742,10 @@
         <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT92">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU92">
         <v>1.25</v>
@@ -18822,7 +18846,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18909,10 +18933,10 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT93">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU93">
         <v>1.88</v>
@@ -19013,7 +19037,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19103,7 +19127,7 @@
         <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU94">
         <v>1.02</v>
@@ -19291,7 +19315,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT95">
         <v>0.6</v>
@@ -19395,7 +19419,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19485,7 +19509,7 @@
         <v>2.11</v>
       </c>
       <c r="AT96">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU96">
         <v>1.51</v>
@@ -19586,7 +19610,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19673,7 +19697,7 @@
         <v>0.25</v>
       </c>
       <c r="AS97">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT97">
         <v>0.63</v>
@@ -19867,7 +19891,7 @@
         <v>0.8</v>
       </c>
       <c r="AT98">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU98">
         <v>1.08</v>
@@ -19968,7 +19992,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20055,7 +20079,7 @@
         <v>0.83</v>
       </c>
       <c r="AS99">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT99">
         <v>0.6</v>
@@ -20350,7 +20374,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20437,7 +20461,7 @@
         <v>0.6</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT101">
         <v>0.38</v>
@@ -20541,7 +20565,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21013,7 +21037,7 @@
         <v>1.78</v>
       </c>
       <c r="AT104">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU104">
         <v>1.03</v>
@@ -21204,7 +21228,7 @@
         <v>2.11</v>
       </c>
       <c r="AT105">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU105">
         <v>1.51</v>
@@ -21395,7 +21419,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU106">
         <v>1.29</v>
@@ -21496,7 +21520,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21583,10 +21607,10 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT107">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU107">
         <v>1.29</v>
@@ -21687,7 +21711,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21774,10 +21798,10 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT108">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU108">
         <v>1.34</v>
@@ -22069,7 +22093,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22156,7 +22180,7 @@
         <v>1.5</v>
       </c>
       <c r="AS110">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT110">
         <v>1.78</v>
@@ -22347,10 +22371,10 @@
         <v>0.4</v>
       </c>
       <c r="AS111">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT111">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU111">
         <v>1.2</v>
@@ -22451,7 +22475,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22538,10 +22562,10 @@
         <v>1.4</v>
       </c>
       <c r="AS112">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT112">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU112">
         <v>1.25</v>
@@ -22729,10 +22753,10 @@
         <v>1.17</v>
       </c>
       <c r="AS113">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT113">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU113">
         <v>1.41</v>
@@ -22923,7 +22947,7 @@
         <v>1.38</v>
       </c>
       <c r="AT114">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU114">
         <v>1.16</v>
@@ -23024,7 +23048,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23114,7 +23138,7 @@
         <v>1.22</v>
       </c>
       <c r="AT115">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU115">
         <v>1.35</v>
@@ -23302,7 +23326,7 @@
         <v>0.17</v>
       </c>
       <c r="AS116">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT116">
         <v>0.78</v>
@@ -23406,7 +23430,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23493,7 +23517,7 @@
         <v>1.17</v>
       </c>
       <c r="AS117">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT117">
         <v>1.11</v>
@@ -23684,7 +23708,7 @@
         <v>1.33</v>
       </c>
       <c r="AS118">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT118">
         <v>1.44</v>
@@ -23788,7 +23812,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23979,7 +24003,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24066,10 +24090,10 @@
         <v>1.67</v>
       </c>
       <c r="AS120">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT120">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU120">
         <v>1.63</v>
@@ -24170,7 +24194,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24451,7 +24475,7 @@
         <v>0.8</v>
       </c>
       <c r="AT122">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU122">
         <v>1.14</v>
@@ -24639,10 +24663,10 @@
         <v>2.6</v>
       </c>
       <c r="AS123">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT123">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU123">
         <v>1.44</v>
@@ -24833,7 +24857,7 @@
         <v>1.33</v>
       </c>
       <c r="AT124">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU124">
         <v>1.29</v>
@@ -24934,7 +24958,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25021,10 +25045,10 @@
         <v>1.43</v>
       </c>
       <c r="AS125">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT125">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU125">
         <v>1.84</v>
@@ -25125,7 +25149,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25212,10 +25236,10 @@
         <v>1.86</v>
       </c>
       <c r="AS126">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT126">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU126">
         <v>1.76</v>
@@ -25316,7 +25340,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25594,7 +25618,7 @@
         <v>1</v>
       </c>
       <c r="AS128">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT128">
         <v>0.75</v>
@@ -25698,7 +25722,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25788,7 +25812,7 @@
         <v>1.33</v>
       </c>
       <c r="AT129">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU129">
         <v>1.26</v>
@@ -25889,7 +25913,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -25976,7 +26000,7 @@
         <v>1.29</v>
       </c>
       <c r="AS130">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT130">
         <v>1.44</v>
@@ -26080,7 +26104,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26361,7 +26385,7 @@
         <v>1.78</v>
       </c>
       <c r="AT132">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU132">
         <v>1</v>
@@ -26844,7 +26868,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26931,7 +26955,7 @@
         <v>1.86</v>
       </c>
       <c r="AS135">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT135">
         <v>1.44</v>
@@ -27035,7 +27059,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27122,10 +27146,10 @@
         <v>1.63</v>
       </c>
       <c r="AS136">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT136">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU136">
         <v>1.33</v>
@@ -27226,7 +27250,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27313,10 +27337,10 @@
         <v>0.71</v>
       </c>
       <c r="AS137">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT137">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU137">
         <v>1.56</v>
@@ -27417,7 +27441,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27507,7 +27531,7 @@
         <v>2.11</v>
       </c>
       <c r="AT138">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU138">
         <v>1.46</v>
@@ -27608,7 +27632,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27695,7 +27719,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT139">
         <v>0.78</v>
@@ -27799,7 +27823,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -27889,7 +27913,7 @@
         <v>0.8</v>
       </c>
       <c r="AT140">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU140">
         <v>1.12</v>
@@ -27990,7 +28014,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28077,7 +28101,7 @@
         <v>1.71</v>
       </c>
       <c r="AS141">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT141">
         <v>1.78</v>
@@ -28268,7 +28292,7 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT142">
         <v>1.11</v>
@@ -28459,10 +28483,10 @@
         <v>2</v>
       </c>
       <c r="AS143">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT143">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU143">
         <v>1.7</v>
@@ -28563,7 +28587,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28844,7 +28868,7 @@
         <v>1.78</v>
       </c>
       <c r="AT145">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU145">
         <v>1.14</v>
@@ -29136,7 +29160,7 @@
         <v>147</v>
       </c>
       <c r="P147" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29327,7 +29351,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29709,7 +29733,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29796,7 +29820,7 @@
         <v>0.67</v>
       </c>
       <c r="AS150">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT150">
         <v>0.6</v>
@@ -30233,6 +30257,1725 @@
       </c>
       <c r="BK152">
         <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>5189084</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45101.08333333334</v>
+      </c>
+      <c r="F153">
+        <v>18</v>
+      </c>
+      <c r="G153" t="s">
+        <v>76</v>
+      </c>
+      <c r="H153" t="s">
+        <v>70</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>3</v>
+      </c>
+      <c r="K153">
+        <v>4</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>4</v>
+      </c>
+      <c r="N153">
+        <v>5</v>
+      </c>
+      <c r="O153" t="s">
+        <v>192</v>
+      </c>
+      <c r="P153" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q153">
+        <v>10</v>
+      </c>
+      <c r="R153">
+        <v>4</v>
+      </c>
+      <c r="S153">
+        <v>14</v>
+      </c>
+      <c r="T153">
+        <v>2.6</v>
+      </c>
+      <c r="U153">
+        <v>2.4</v>
+      </c>
+      <c r="V153">
+        <v>3.75</v>
+      </c>
+      <c r="W153">
+        <v>1.29</v>
+      </c>
+      <c r="X153">
+        <v>3.5</v>
+      </c>
+      <c r="Y153">
+        <v>2.25</v>
+      </c>
+      <c r="Z153">
+        <v>1.57</v>
+      </c>
+      <c r="AA153">
+        <v>5.5</v>
+      </c>
+      <c r="AB153">
+        <v>1.14</v>
+      </c>
+      <c r="AC153">
+        <v>2.02</v>
+      </c>
+      <c r="AD153">
+        <v>3.9</v>
+      </c>
+      <c r="AE153">
+        <v>3.4</v>
+      </c>
+      <c r="AF153">
+        <v>1.03</v>
+      </c>
+      <c r="AG153">
+        <v>11</v>
+      </c>
+      <c r="AH153">
+        <v>1.17</v>
+      </c>
+      <c r="AI153">
+        <v>4.75</v>
+      </c>
+      <c r="AJ153">
+        <v>1.53</v>
+      </c>
+      <c r="AK153">
+        <v>2.25</v>
+      </c>
+      <c r="AL153">
+        <v>1.5</v>
+      </c>
+      <c r="AM153">
+        <v>2.5</v>
+      </c>
+      <c r="AN153">
+        <v>1.28</v>
+      </c>
+      <c r="AO153">
+        <v>1.2</v>
+      </c>
+      <c r="AP153">
+        <v>1.75</v>
+      </c>
+      <c r="AQ153">
+        <v>1.25</v>
+      </c>
+      <c r="AR153">
+        <v>1.63</v>
+      </c>
+      <c r="AS153">
+        <v>1.11</v>
+      </c>
+      <c r="AT153">
+        <v>1.78</v>
+      </c>
+      <c r="AU153">
+        <v>1.8</v>
+      </c>
+      <c r="AV153">
+        <v>1.18</v>
+      </c>
+      <c r="AW153">
+        <v>2.98</v>
+      </c>
+      <c r="AX153">
+        <v>1.53</v>
+      </c>
+      <c r="AY153">
+        <v>8</v>
+      </c>
+      <c r="AZ153">
+        <v>2.88</v>
+      </c>
+      <c r="BA153">
+        <v>1.36</v>
+      </c>
+      <c r="BB153">
+        <v>1.66</v>
+      </c>
+      <c r="BC153">
+        <v>2.03</v>
+      </c>
+      <c r="BD153">
+        <v>2.5</v>
+      </c>
+      <c r="BE153">
+        <v>3.65</v>
+      </c>
+      <c r="BF153">
+        <v>2</v>
+      </c>
+      <c r="BG153">
+        <v>8</v>
+      </c>
+      <c r="BH153">
+        <v>5</v>
+      </c>
+      <c r="BI153">
+        <v>2</v>
+      </c>
+      <c r="BJ153">
+        <v>7</v>
+      </c>
+      <c r="BK153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>5189085</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45101.29166666666</v>
+      </c>
+      <c r="F154">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s">
+        <v>73</v>
+      </c>
+      <c r="H154" t="s">
+        <v>81</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154" t="s">
+        <v>84</v>
+      </c>
+      <c r="P154" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q154">
+        <v>5</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
+        <v>7</v>
+      </c>
+      <c r="T154">
+        <v>3.1</v>
+      </c>
+      <c r="U154">
+        <v>2.2</v>
+      </c>
+      <c r="V154">
+        <v>3.5</v>
+      </c>
+      <c r="W154">
+        <v>1.4</v>
+      </c>
+      <c r="X154">
+        <v>2.75</v>
+      </c>
+      <c r="Y154">
+        <v>2.75</v>
+      </c>
+      <c r="Z154">
+        <v>1.4</v>
+      </c>
+      <c r="AA154">
+        <v>8</v>
+      </c>
+      <c r="AB154">
+        <v>1.08</v>
+      </c>
+      <c r="AC154">
+        <v>2.31</v>
+      </c>
+      <c r="AD154">
+        <v>3.6</v>
+      </c>
+      <c r="AE154">
+        <v>3</v>
+      </c>
+      <c r="AF154">
+        <v>1.06</v>
+      </c>
+      <c r="AG154">
+        <v>8</v>
+      </c>
+      <c r="AH154">
+        <v>1.3</v>
+      </c>
+      <c r="AI154">
+        <v>3.3</v>
+      </c>
+      <c r="AJ154">
+        <v>1.85</v>
+      </c>
+      <c r="AK154">
+        <v>1.8</v>
+      </c>
+      <c r="AL154">
+        <v>1.7</v>
+      </c>
+      <c r="AM154">
+        <v>2.05</v>
+      </c>
+      <c r="AN154">
+        <v>1.36</v>
+      </c>
+      <c r="AO154">
+        <v>1.25</v>
+      </c>
+      <c r="AP154">
+        <v>1.55</v>
+      </c>
+      <c r="AQ154">
+        <v>0.78</v>
+      </c>
+      <c r="AR154">
+        <v>0.75</v>
+      </c>
+      <c r="AS154">
+        <v>0.8</v>
+      </c>
+      <c r="AT154">
+        <v>0.78</v>
+      </c>
+      <c r="AU154">
+        <v>1.46</v>
+      </c>
+      <c r="AV154">
+        <v>1.33</v>
+      </c>
+      <c r="AW154">
+        <v>2.79</v>
+      </c>
+      <c r="AX154">
+        <v>1.91</v>
+      </c>
+      <c r="AY154">
+        <v>7.5</v>
+      </c>
+      <c r="AZ154">
+        <v>2.1</v>
+      </c>
+      <c r="BA154">
+        <v>1.32</v>
+      </c>
+      <c r="BB154">
+        <v>1.57</v>
+      </c>
+      <c r="BC154">
+        <v>1.97</v>
+      </c>
+      <c r="BD154">
+        <v>2.55</v>
+      </c>
+      <c r="BE154">
+        <v>3.65</v>
+      </c>
+      <c r="BF154">
+        <v>5</v>
+      </c>
+      <c r="BG154">
+        <v>5</v>
+      </c>
+      <c r="BH154">
+        <v>3</v>
+      </c>
+      <c r="BI154">
+        <v>4</v>
+      </c>
+      <c r="BJ154">
+        <v>8</v>
+      </c>
+      <c r="BK154">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>5189086</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45101.29166666666</v>
+      </c>
+      <c r="F155">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s">
+        <v>67</v>
+      </c>
+      <c r="H155" t="s">
+        <v>80</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>193</v>
+      </c>
+      <c r="P155" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q155">
+        <v>5</v>
+      </c>
+      <c r="R155">
+        <v>4</v>
+      </c>
+      <c r="S155">
+        <v>9</v>
+      </c>
+      <c r="T155">
+        <v>3.75</v>
+      </c>
+      <c r="U155">
+        <v>2.1</v>
+      </c>
+      <c r="V155">
+        <v>2.88</v>
+      </c>
+      <c r="W155">
+        <v>1.44</v>
+      </c>
+      <c r="X155">
+        <v>2.63</v>
+      </c>
+      <c r="Y155">
+        <v>3.25</v>
+      </c>
+      <c r="Z155">
+        <v>1.33</v>
+      </c>
+      <c r="AA155">
+        <v>9</v>
+      </c>
+      <c r="AB155">
+        <v>1.07</v>
+      </c>
+      <c r="AC155">
+        <v>3.3</v>
+      </c>
+      <c r="AD155">
+        <v>3.4</v>
+      </c>
+      <c r="AE155">
+        <v>2.23</v>
+      </c>
+      <c r="AF155">
+        <v>1.07</v>
+      </c>
+      <c r="AG155">
+        <v>7.5</v>
+      </c>
+      <c r="AH155">
+        <v>1.33</v>
+      </c>
+      <c r="AI155">
+        <v>3.1</v>
+      </c>
+      <c r="AJ155">
+        <v>2</v>
+      </c>
+      <c r="AK155">
+        <v>1.67</v>
+      </c>
+      <c r="AL155">
+        <v>1.8</v>
+      </c>
+      <c r="AM155">
+        <v>1.95</v>
+      </c>
+      <c r="AN155">
+        <v>1.63</v>
+      </c>
+      <c r="AO155">
+        <v>1.25</v>
+      </c>
+      <c r="AP155">
+        <v>1.35</v>
+      </c>
+      <c r="AQ155">
+        <v>1.86</v>
+      </c>
+      <c r="AR155">
+        <v>2</v>
+      </c>
+      <c r="AS155">
+        <v>2</v>
+      </c>
+      <c r="AT155">
+        <v>1.78</v>
+      </c>
+      <c r="AU155">
+        <v>1.4</v>
+      </c>
+      <c r="AV155">
+        <v>1.48</v>
+      </c>
+      <c r="AW155">
+        <v>2.88</v>
+      </c>
+      <c r="AX155">
+        <v>2.2</v>
+      </c>
+      <c r="AY155">
+        <v>8</v>
+      </c>
+      <c r="AZ155">
+        <v>1.91</v>
+      </c>
+      <c r="BA155">
+        <v>1.28</v>
+      </c>
+      <c r="BB155">
+        <v>1.57</v>
+      </c>
+      <c r="BC155">
+        <v>1.95</v>
+      </c>
+      <c r="BD155">
+        <v>2.55</v>
+      </c>
+      <c r="BE155">
+        <v>3.42</v>
+      </c>
+      <c r="BF155">
+        <v>5</v>
+      </c>
+      <c r="BG155">
+        <v>4</v>
+      </c>
+      <c r="BH155">
+        <v>6</v>
+      </c>
+      <c r="BI155">
+        <v>4</v>
+      </c>
+      <c r="BJ155">
+        <v>11</v>
+      </c>
+      <c r="BK155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>5189087</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45101.29166666666</v>
+      </c>
+      <c r="F156">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s">
+        <v>74</v>
+      </c>
+      <c r="H156" t="s">
+        <v>72</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>2</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>6</v>
+      </c>
+      <c r="N156">
+        <v>6</v>
+      </c>
+      <c r="O156" t="s">
+        <v>84</v>
+      </c>
+      <c r="P156" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q156">
+        <v>9</v>
+      </c>
+      <c r="R156">
+        <v>5</v>
+      </c>
+      <c r="S156">
+        <v>14</v>
+      </c>
+      <c r="T156">
+        <v>2.63</v>
+      </c>
+      <c r="U156">
+        <v>2.2</v>
+      </c>
+      <c r="V156">
+        <v>4</v>
+      </c>
+      <c r="W156">
+        <v>1.36</v>
+      </c>
+      <c r="X156">
+        <v>3</v>
+      </c>
+      <c r="Y156">
+        <v>2.75</v>
+      </c>
+      <c r="Z156">
+        <v>1.4</v>
+      </c>
+      <c r="AA156">
+        <v>8</v>
+      </c>
+      <c r="AB156">
+        <v>1.08</v>
+      </c>
+      <c r="AC156">
+        <v>2.01</v>
+      </c>
+      <c r="AD156">
+        <v>3.7</v>
+      </c>
+      <c r="AE156">
+        <v>3.6</v>
+      </c>
+      <c r="AF156">
+        <v>1.05</v>
+      </c>
+      <c r="AG156">
+        <v>9</v>
+      </c>
+      <c r="AH156">
+        <v>1.28</v>
+      </c>
+      <c r="AI156">
+        <v>3.5</v>
+      </c>
+      <c r="AJ156">
+        <v>1.8</v>
+      </c>
+      <c r="AK156">
+        <v>1.83</v>
+      </c>
+      <c r="AL156">
+        <v>1.75</v>
+      </c>
+      <c r="AM156">
+        <v>2</v>
+      </c>
+      <c r="AN156">
+        <v>1.25</v>
+      </c>
+      <c r="AO156">
+        <v>1.25</v>
+      </c>
+      <c r="AP156">
+        <v>1.75</v>
+      </c>
+      <c r="AQ156">
+        <v>0.75</v>
+      </c>
+      <c r="AR156">
+        <v>1.38</v>
+      </c>
+      <c r="AS156">
+        <v>0.67</v>
+      </c>
+      <c r="AT156">
+        <v>1.56</v>
+      </c>
+      <c r="AU156">
+        <v>1.55</v>
+      </c>
+      <c r="AV156">
+        <v>1.06</v>
+      </c>
+      <c r="AW156">
+        <v>2.61</v>
+      </c>
+      <c r="AX156">
+        <v>1.67</v>
+      </c>
+      <c r="AY156">
+        <v>8</v>
+      </c>
+      <c r="AZ156">
+        <v>2.6</v>
+      </c>
+      <c r="BA156">
+        <v>1.26</v>
+      </c>
+      <c r="BB156">
+        <v>1.5</v>
+      </c>
+      <c r="BC156">
+        <v>1.87</v>
+      </c>
+      <c r="BD156">
+        <v>2.4</v>
+      </c>
+      <c r="BE156">
+        <v>3.2</v>
+      </c>
+      <c r="BF156">
+        <v>10</v>
+      </c>
+      <c r="BG156">
+        <v>11</v>
+      </c>
+      <c r="BH156">
+        <v>8</v>
+      </c>
+      <c r="BI156">
+        <v>3</v>
+      </c>
+      <c r="BJ156">
+        <v>18</v>
+      </c>
+      <c r="BK156">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>5189088</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45101.29166666666</v>
+      </c>
+      <c r="F157">
+        <v>18</v>
+      </c>
+      <c r="G157" t="s">
+        <v>69</v>
+      </c>
+      <c r="H157" t="s">
+        <v>68</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>194</v>
+      </c>
+      <c r="P157" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q157">
+        <v>4</v>
+      </c>
+      <c r="R157">
+        <v>7</v>
+      </c>
+      <c r="S157">
+        <v>11</v>
+      </c>
+      <c r="T157">
+        <v>2.5</v>
+      </c>
+      <c r="U157">
+        <v>2.2</v>
+      </c>
+      <c r="V157">
+        <v>4.33</v>
+      </c>
+      <c r="W157">
+        <v>1.36</v>
+      </c>
+      <c r="X157">
+        <v>3</v>
+      </c>
+      <c r="Y157">
+        <v>2.75</v>
+      </c>
+      <c r="Z157">
+        <v>1.4</v>
+      </c>
+      <c r="AA157">
+        <v>7</v>
+      </c>
+      <c r="AB157">
+        <v>1.1</v>
+      </c>
+      <c r="AC157">
+        <v>1.92</v>
+      </c>
+      <c r="AD157">
+        <v>3.7</v>
+      </c>
+      <c r="AE157">
+        <v>3.9</v>
+      </c>
+      <c r="AF157">
+        <v>1.05</v>
+      </c>
+      <c r="AG157">
+        <v>9</v>
+      </c>
+      <c r="AH157">
+        <v>1.25</v>
+      </c>
+      <c r="AI157">
+        <v>3.6</v>
+      </c>
+      <c r="AJ157">
+        <v>1.8</v>
+      </c>
+      <c r="AK157">
+        <v>1.85</v>
+      </c>
+      <c r="AL157">
+        <v>1.75</v>
+      </c>
+      <c r="AM157">
+        <v>2</v>
+      </c>
+      <c r="AN157">
+        <v>1.18</v>
+      </c>
+      <c r="AO157">
+        <v>1.22</v>
+      </c>
+      <c r="AP157">
+        <v>1.9</v>
+      </c>
+      <c r="AQ157">
+        <v>0.75</v>
+      </c>
+      <c r="AR157">
+        <v>0.71</v>
+      </c>
+      <c r="AS157">
+        <v>1</v>
+      </c>
+      <c r="AT157">
+        <v>0.63</v>
+      </c>
+      <c r="AU157">
+        <v>1.42</v>
+      </c>
+      <c r="AV157">
+        <v>1.51</v>
+      </c>
+      <c r="AW157">
+        <v>2.93</v>
+      </c>
+      <c r="AX157">
+        <v>1.53</v>
+      </c>
+      <c r="AY157">
+        <v>8.5</v>
+      </c>
+      <c r="AZ157">
+        <v>2.88</v>
+      </c>
+      <c r="BA157">
+        <v>1.25</v>
+      </c>
+      <c r="BB157">
+        <v>1.53</v>
+      </c>
+      <c r="BC157">
+        <v>1.88</v>
+      </c>
+      <c r="BD157">
+        <v>2.29</v>
+      </c>
+      <c r="BE157">
+        <v>3.18</v>
+      </c>
+      <c r="BF157">
+        <v>3</v>
+      </c>
+      <c r="BG157">
+        <v>6</v>
+      </c>
+      <c r="BH157">
+        <v>4</v>
+      </c>
+      <c r="BI157">
+        <v>6</v>
+      </c>
+      <c r="BJ157">
+        <v>7</v>
+      </c>
+      <c r="BK157">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>5189089</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45101.29166666666</v>
+      </c>
+      <c r="F158">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s">
+        <v>77</v>
+      </c>
+      <c r="H158" t="s">
+        <v>79</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>195</v>
+      </c>
+      <c r="P158" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q158">
+        <v>6</v>
+      </c>
+      <c r="R158">
+        <v>3</v>
+      </c>
+      <c r="S158">
+        <v>9</v>
+      </c>
+      <c r="T158">
+        <v>3.75</v>
+      </c>
+      <c r="U158">
+        <v>2.05</v>
+      </c>
+      <c r="V158">
+        <v>3.1</v>
+      </c>
+      <c r="W158">
+        <v>1.5</v>
+      </c>
+      <c r="X158">
+        <v>2.5</v>
+      </c>
+      <c r="Y158">
+        <v>3.4</v>
+      </c>
+      <c r="Z158">
+        <v>1.3</v>
+      </c>
+      <c r="AA158">
+        <v>10</v>
+      </c>
+      <c r="AB158">
+        <v>1.06</v>
+      </c>
+      <c r="AC158">
+        <v>3.1</v>
+      </c>
+      <c r="AD158">
+        <v>3.3</v>
+      </c>
+      <c r="AE158">
+        <v>2.43</v>
+      </c>
+      <c r="AF158">
+        <v>1.08</v>
+      </c>
+      <c r="AG158">
+        <v>7</v>
+      </c>
+      <c r="AH158">
+        <v>1.38</v>
+      </c>
+      <c r="AI158">
+        <v>2.9</v>
+      </c>
+      <c r="AJ158">
+        <v>2.15</v>
+      </c>
+      <c r="AK158">
+        <v>1.57</v>
+      </c>
+      <c r="AL158">
+        <v>1.95</v>
+      </c>
+      <c r="AM158">
+        <v>1.8</v>
+      </c>
+      <c r="AN158">
+        <v>1.57</v>
+      </c>
+      <c r="AO158">
+        <v>1.28</v>
+      </c>
+      <c r="AP158">
+        <v>1.36</v>
+      </c>
+      <c r="AQ158">
+        <v>1.13</v>
+      </c>
+      <c r="AR158">
+        <v>1.89</v>
+      </c>
+      <c r="AS158">
+        <v>1.33</v>
+      </c>
+      <c r="AT158">
+        <v>1.7</v>
+      </c>
+      <c r="AU158">
+        <v>1.87</v>
+      </c>
+      <c r="AV158">
+        <v>1.3</v>
+      </c>
+      <c r="AW158">
+        <v>3.17</v>
+      </c>
+      <c r="AX158">
+        <v>1.95</v>
+      </c>
+      <c r="AY158">
+        <v>7.5</v>
+      </c>
+      <c r="AZ158">
+        <v>2.1</v>
+      </c>
+      <c r="BA158">
+        <v>1.38</v>
+      </c>
+      <c r="BB158">
+        <v>1.67</v>
+      </c>
+      <c r="BC158">
+        <v>2.15</v>
+      </c>
+      <c r="BD158">
+        <v>2.85</v>
+      </c>
+      <c r="BE158">
+        <v>3.5</v>
+      </c>
+      <c r="BF158">
+        <v>5</v>
+      </c>
+      <c r="BG158">
+        <v>3</v>
+      </c>
+      <c r="BH158">
+        <v>3</v>
+      </c>
+      <c r="BI158">
+        <v>2</v>
+      </c>
+      <c r="BJ158">
+        <v>8</v>
+      </c>
+      <c r="BK158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>5189090</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45101.29166666666</v>
+      </c>
+      <c r="F159">
+        <v>18</v>
+      </c>
+      <c r="G159" t="s">
+        <v>66</v>
+      </c>
+      <c r="H159" t="s">
+        <v>75</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>84</v>
+      </c>
+      <c r="P159" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q159">
+        <v>5</v>
+      </c>
+      <c r="R159">
+        <v>4</v>
+      </c>
+      <c r="S159">
+        <v>9</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
+        <v>2.4</v>
+      </c>
+      <c r="V159">
+        <v>3.4</v>
+      </c>
+      <c r="W159">
+        <v>1.29</v>
+      </c>
+      <c r="X159">
+        <v>3.5</v>
+      </c>
+      <c r="Y159">
+        <v>2.25</v>
+      </c>
+      <c r="Z159">
+        <v>1.57</v>
+      </c>
+      <c r="AA159">
+        <v>5.5</v>
+      </c>
+      <c r="AB159">
+        <v>1.14</v>
+      </c>
+      <c r="AC159">
+        <v>2.12</v>
+      </c>
+      <c r="AD159">
+        <v>3.9</v>
+      </c>
+      <c r="AE159">
+        <v>3.2</v>
+      </c>
+      <c r="AF159">
+        <v>1.02</v>
+      </c>
+      <c r="AG159">
+        <v>12</v>
+      </c>
+      <c r="AH159">
+        <v>1.17</v>
+      </c>
+      <c r="AI159">
+        <v>4.75</v>
+      </c>
+      <c r="AJ159">
+        <v>1.53</v>
+      </c>
+      <c r="AK159">
+        <v>2.25</v>
+      </c>
+      <c r="AL159">
+        <v>1.5</v>
+      </c>
+      <c r="AM159">
+        <v>2.5</v>
+      </c>
+      <c r="AN159">
+        <v>1.36</v>
+      </c>
+      <c r="AO159">
+        <v>1.26</v>
+      </c>
+      <c r="AP159">
+        <v>1.68</v>
+      </c>
+      <c r="AQ159">
+        <v>2</v>
+      </c>
+      <c r="AR159">
+        <v>1.78</v>
+      </c>
+      <c r="AS159">
+        <v>1.78</v>
+      </c>
+      <c r="AT159">
+        <v>1.9</v>
+      </c>
+      <c r="AU159">
+        <v>2.03</v>
+      </c>
+      <c r="AV159">
+        <v>1.42</v>
+      </c>
+      <c r="AW159">
+        <v>3.45</v>
+      </c>
+      <c r="AX159">
+        <v>1.5</v>
+      </c>
+      <c r="AY159">
+        <v>8.5</v>
+      </c>
+      <c r="AZ159">
+        <v>3.1</v>
+      </c>
+      <c r="BA159">
+        <v>1.25</v>
+      </c>
+      <c r="BB159">
+        <v>1.53</v>
+      </c>
+      <c r="BC159">
+        <v>2</v>
+      </c>
+      <c r="BD159">
+        <v>2.36</v>
+      </c>
+      <c r="BE159">
+        <v>2.7</v>
+      </c>
+      <c r="BF159">
+        <v>2</v>
+      </c>
+      <c r="BG159">
+        <v>5</v>
+      </c>
+      <c r="BH159">
+        <v>11</v>
+      </c>
+      <c r="BI159">
+        <v>5</v>
+      </c>
+      <c r="BJ159">
+        <v>13</v>
+      </c>
+      <c r="BK159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>5189091</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45101.3125</v>
+      </c>
+      <c r="F160">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s">
+        <v>82</v>
+      </c>
+      <c r="H160" t="s">
+        <v>65</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160" t="s">
+        <v>154</v>
+      </c>
+      <c r="P160" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q160">
+        <v>5</v>
+      </c>
+      <c r="R160">
+        <v>4</v>
+      </c>
+      <c r="S160">
+        <v>9</v>
+      </c>
+      <c r="T160">
+        <v>3.4</v>
+      </c>
+      <c r="U160">
+        <v>2.1</v>
+      </c>
+      <c r="V160">
+        <v>3.25</v>
+      </c>
+      <c r="W160">
+        <v>1.44</v>
+      </c>
+      <c r="X160">
+        <v>2.63</v>
+      </c>
+      <c r="Y160">
+        <v>3.25</v>
+      </c>
+      <c r="Z160">
+        <v>1.33</v>
+      </c>
+      <c r="AA160">
+        <v>9</v>
+      </c>
+      <c r="AB160">
+        <v>1.07</v>
+      </c>
+      <c r="AC160">
+        <v>2.6</v>
+      </c>
+      <c r="AD160">
+        <v>3.4</v>
+      </c>
+      <c r="AE160">
+        <v>2.7</v>
+      </c>
+      <c r="AF160">
+        <v>1.07</v>
+      </c>
+      <c r="AG160">
+        <v>7.5</v>
+      </c>
+      <c r="AH160">
+        <v>1.33</v>
+      </c>
+      <c r="AI160">
+        <v>3.1</v>
+      </c>
+      <c r="AJ160">
+        <v>2</v>
+      </c>
+      <c r="AK160">
+        <v>1.67</v>
+      </c>
+      <c r="AL160">
+        <v>1.8</v>
+      </c>
+      <c r="AM160">
+        <v>1.95</v>
+      </c>
+      <c r="AN160">
+        <v>1.47</v>
+      </c>
+      <c r="AO160">
+        <v>1.28</v>
+      </c>
+      <c r="AP160">
+        <v>1.47</v>
+      </c>
+      <c r="AQ160">
+        <v>2.29</v>
+      </c>
+      <c r="AR160">
+        <v>1.5</v>
+      </c>
+      <c r="AS160">
+        <v>2.13</v>
+      </c>
+      <c r="AT160">
+        <v>1.44</v>
+      </c>
+      <c r="AU160">
+        <v>1.6</v>
+      </c>
+      <c r="AV160">
+        <v>1.42</v>
+      </c>
+      <c r="AW160">
+        <v>3.02</v>
+      </c>
+      <c r="AX160">
+        <v>1.91</v>
+      </c>
+      <c r="AY160">
+        <v>7.5</v>
+      </c>
+      <c r="AZ160">
+        <v>2.2</v>
+      </c>
+      <c r="BA160">
+        <v>1.38</v>
+      </c>
+      <c r="BB160">
+        <v>1.67</v>
+      </c>
+      <c r="BC160">
+        <v>2.15</v>
+      </c>
+      <c r="BD160">
+        <v>2.85</v>
+      </c>
+      <c r="BE160">
+        <v>3.65</v>
+      </c>
+      <c r="BF160">
+        <v>6</v>
+      </c>
+      <c r="BG160">
+        <v>2</v>
+      </c>
+      <c r="BH160">
+        <v>4</v>
+      </c>
+      <c r="BI160">
+        <v>7</v>
+      </c>
+      <c r="BJ160">
+        <v>10</v>
+      </c>
+      <c r="BK160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>5189092</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45102.29166666666</v>
+      </c>
+      <c r="F161">
+        <v>18</v>
+      </c>
+      <c r="G161" t="s">
+        <v>78</v>
+      </c>
+      <c r="H161" t="s">
+        <v>71</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>3</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>84</v>
+      </c>
+      <c r="P161" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q161">
+        <v>10</v>
+      </c>
+      <c r="R161">
+        <v>3</v>
+      </c>
+      <c r="S161">
+        <v>13</v>
+      </c>
+      <c r="T161">
+        <v>4</v>
+      </c>
+      <c r="U161">
+        <v>2.1</v>
+      </c>
+      <c r="V161">
+        <v>2.88</v>
+      </c>
+      <c r="W161">
+        <v>1.44</v>
+      </c>
+      <c r="X161">
+        <v>2.63</v>
+      </c>
+      <c r="Y161">
+        <v>3.25</v>
+      </c>
+      <c r="Z161">
+        <v>1.33</v>
+      </c>
+      <c r="AA161">
+        <v>9</v>
+      </c>
+      <c r="AB161">
+        <v>1.07</v>
+      </c>
+      <c r="AC161">
+        <v>3.2</v>
+      </c>
+      <c r="AD161">
+        <v>3.1</v>
+      </c>
+      <c r="AE161">
+        <v>2.15</v>
+      </c>
+      <c r="AF161">
+        <v>1.07</v>
+      </c>
+      <c r="AG161">
+        <v>7.5</v>
+      </c>
+      <c r="AH161">
+        <v>1.36</v>
+      </c>
+      <c r="AI161">
+        <v>3</v>
+      </c>
+      <c r="AJ161">
+        <v>2.05</v>
+      </c>
+      <c r="AK161">
+        <v>1.67</v>
+      </c>
+      <c r="AL161">
+        <v>1.91</v>
+      </c>
+      <c r="AM161">
+        <v>1.91</v>
+      </c>
+      <c r="AN161">
+        <v>1.66</v>
+      </c>
+      <c r="AO161">
+        <v>1.25</v>
+      </c>
+      <c r="AP161">
+        <v>1.33</v>
+      </c>
+      <c r="AQ161">
+        <v>1.89</v>
+      </c>
+      <c r="AR161">
+        <v>2</v>
+      </c>
+      <c r="AS161">
+        <v>1.7</v>
+      </c>
+      <c r="AT161">
+        <v>2.13</v>
+      </c>
+      <c r="AU161">
+        <v>1.51</v>
+      </c>
+      <c r="AV161">
+        <v>1.53</v>
+      </c>
+      <c r="AW161">
+        <v>3.04</v>
+      </c>
+      <c r="AX161">
+        <v>2.2</v>
+      </c>
+      <c r="AY161">
+        <v>7.5</v>
+      </c>
+      <c r="AZ161">
+        <v>1.91</v>
+      </c>
+      <c r="BA161">
+        <v>1.33</v>
+      </c>
+      <c r="BB161">
+        <v>1.67</v>
+      </c>
+      <c r="BC161">
+        <v>2.05</v>
+      </c>
+      <c r="BD161">
+        <v>2.72</v>
+      </c>
+      <c r="BE161">
+        <v>3.74</v>
+      </c>
+      <c r="BF161">
+        <v>6</v>
+      </c>
+      <c r="BG161">
+        <v>5</v>
+      </c>
+      <c r="BH161">
+        <v>8</v>
+      </c>
+      <c r="BI161">
+        <v>2</v>
+      </c>
+      <c r="BJ161">
+        <v>14</v>
+      </c>
+      <c r="BK161">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>['15', '34']</t>
+  </si>
+  <si>
+    <t>['20', '61', '65', '90+2']</t>
   </si>
   <si>
     <t>['4', '38']</t>
@@ -1221,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,7 +1468,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2038,7 +2041,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2420,7 +2423,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2802,7 +2805,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2892,7 +2895,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2993,7 +2996,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3184,7 +3187,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3566,7 +3569,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3757,7 +3760,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3948,7 +3951,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4139,7 +4142,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4521,7 +4524,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4712,7 +4715,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4903,7 +4906,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -5094,7 +5097,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5184,7 +5187,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU21">
         <v>1.61</v>
@@ -5285,7 +5288,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5476,7 +5479,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -6049,7 +6052,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6136,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT26">
         <v>1.78</v>
@@ -6622,7 +6625,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -7004,7 +7007,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7577,7 +7580,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7959,7 +7962,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8150,7 +8153,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8532,7 +8535,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8914,7 +8917,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9001,7 +9004,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT41">
         <v>0.78</v>
@@ -9105,7 +9108,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9869,7 +9872,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -9959,7 +9962,7 @@
         <v>1.7</v>
       </c>
       <c r="AT46">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU46">
         <v>1.39</v>
@@ -10060,7 +10063,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10251,7 +10254,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10442,7 +10445,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10633,7 +10636,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10824,7 +10827,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11015,7 +11018,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11588,7 +11591,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -12352,7 +12355,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12543,7 +12546,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12633,7 +12636,7 @@
         <v>2</v>
       </c>
       <c r="AT60">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU60">
         <v>1.47</v>
@@ -13498,7 +13501,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13689,7 +13692,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14071,7 +14074,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14262,7 +14265,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14453,7 +14456,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14540,7 +14543,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT70">
         <v>1.78</v>
@@ -14644,7 +14647,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14835,7 +14838,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15026,7 +15029,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15217,7 +15220,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15408,7 +15411,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15790,7 +15793,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15981,7 +15984,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16172,7 +16175,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16363,7 +16366,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16453,7 +16456,7 @@
         <v>2.11</v>
       </c>
       <c r="AT80">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU80">
         <v>1.44</v>
@@ -16936,7 +16939,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17127,7 +17130,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17408,7 +17411,7 @@
         <v>2.11</v>
       </c>
       <c r="AT85">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU85">
         <v>1.42</v>
@@ -17509,7 +17512,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17891,7 +17894,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18082,7 +18085,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18464,7 +18467,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18655,7 +18658,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18846,7 +18849,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19037,7 +19040,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19419,7 +19422,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19610,7 +19613,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19992,7 +19995,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20374,7 +20377,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20565,7 +20568,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21520,7 +21523,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21607,7 +21610,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT107">
         <v>1.56</v>
@@ -21711,7 +21714,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -22093,7 +22096,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22475,7 +22478,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -23048,7 +23051,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23326,7 +23329,7 @@
         <v>0.17</v>
       </c>
       <c r="AS116">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT116">
         <v>0.78</v>
@@ -23430,7 +23433,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23812,7 +23815,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24003,7 +24006,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24194,7 +24197,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24958,7 +24961,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25149,7 +25152,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25340,7 +25343,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25621,7 +25624,7 @@
         <v>1.78</v>
       </c>
       <c r="AT128">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU128">
         <v>1.93</v>
@@ -25722,7 +25725,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25913,7 +25916,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26104,7 +26107,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26868,7 +26871,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26955,7 +26958,7 @@
         <v>1.86</v>
       </c>
       <c r="AS135">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT135">
         <v>1.44</v>
@@ -27059,7 +27062,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27250,7 +27253,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27441,7 +27444,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27632,7 +27635,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27823,7 +27826,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28014,7 +28017,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28483,7 +28486,7 @@
         <v>2</v>
       </c>
       <c r="AS143">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT143">
         <v>1.7</v>
@@ -28587,7 +28590,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29160,7 +29163,7 @@
         <v>147</v>
       </c>
       <c r="P147" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29351,7 +29354,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29632,7 +29635,7 @@
         <v>1.38</v>
       </c>
       <c r="AT149">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU149">
         <v>1.2</v>
@@ -29733,7 +29736,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30306,7 +30309,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q153">
         <v>10</v>
@@ -30879,7 +30882,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31070,7 +31073,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31261,7 +31264,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31452,7 +31455,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31643,7 +31646,7 @@
         <v>154</v>
       </c>
       <c r="P160" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31730,7 +31733,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT160">
         <v>1.44</v>
@@ -31834,7 +31837,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -31975,6 +31978,197 @@
         <v>14</v>
       </c>
       <c r="BK161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>5189093</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45105.3125</v>
+      </c>
+      <c r="F162">
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>82</v>
+      </c>
+      <c r="H162" t="s">
+        <v>74</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>4</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>5</v>
+      </c>
+      <c r="O162" t="s">
+        <v>196</v>
+      </c>
+      <c r="P162" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q162">
+        <v>3</v>
+      </c>
+      <c r="R162">
+        <v>3</v>
+      </c>
+      <c r="S162">
+        <v>6</v>
+      </c>
+      <c r="T162">
+        <v>2.63</v>
+      </c>
+      <c r="U162">
+        <v>2.23</v>
+      </c>
+      <c r="V162">
+        <v>4.74</v>
+      </c>
+      <c r="W162">
+        <v>1.44</v>
+      </c>
+      <c r="X162">
+        <v>2.9</v>
+      </c>
+      <c r="Y162">
+        <v>3.17</v>
+      </c>
+      <c r="Z162">
+        <v>1.38</v>
+      </c>
+      <c r="AA162">
+        <v>7.8</v>
+      </c>
+      <c r="AB162">
+        <v>1.06</v>
+      </c>
+      <c r="AC162">
+        <v>1.67</v>
+      </c>
+      <c r="AD162">
+        <v>3.9</v>
+      </c>
+      <c r="AE162">
+        <v>5</v>
+      </c>
+      <c r="AF162">
+        <v>1.06</v>
+      </c>
+      <c r="AG162">
+        <v>8.25</v>
+      </c>
+      <c r="AH162">
+        <v>1.35</v>
+      </c>
+      <c r="AI162">
+        <v>3.32</v>
+      </c>
+      <c r="AJ162">
+        <v>1.89</v>
+      </c>
+      <c r="AK162">
+        <v>1.87</v>
+      </c>
+      <c r="AL162">
+        <v>1.85</v>
+      </c>
+      <c r="AM162">
+        <v>1.91</v>
+      </c>
+      <c r="AN162">
+        <v>1.25</v>
+      </c>
+      <c r="AO162">
+        <v>1.3</v>
+      </c>
+      <c r="AP162">
+        <v>1.85</v>
+      </c>
+      <c r="AQ162">
+        <v>2.13</v>
+      </c>
+      <c r="AR162">
+        <v>0.75</v>
+      </c>
+      <c r="AS162">
+        <v>2.22</v>
+      </c>
+      <c r="AT162">
+        <v>0.67</v>
+      </c>
+      <c r="AU162">
+        <v>1.58</v>
+      </c>
+      <c r="AV162">
+        <v>1.46</v>
+      </c>
+      <c r="AW162">
+        <v>3.04</v>
+      </c>
+      <c r="AX162">
+        <v>1.73</v>
+      </c>
+      <c r="AY162">
+        <v>8</v>
+      </c>
+      <c r="AZ162">
+        <v>2.4</v>
+      </c>
+      <c r="BA162">
+        <v>1.22</v>
+      </c>
+      <c r="BB162">
+        <v>1.44</v>
+      </c>
+      <c r="BC162">
+        <v>1.95</v>
+      </c>
+      <c r="BD162">
+        <v>2.16</v>
+      </c>
+      <c r="BE162">
+        <v>2.63</v>
+      </c>
+      <c r="BF162">
+        <v>11</v>
+      </c>
+      <c r="BG162">
+        <v>2</v>
+      </c>
+      <c r="BH162">
+        <v>6</v>
+      </c>
+      <c r="BI162">
+        <v>5</v>
+      </c>
+      <c r="BJ162">
+        <v>17</v>
+      </c>
+      <c r="BK162">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,18 @@
     <t>['20', '61', '65', '90+2']</t>
   </si>
   <si>
+    <t>['25', '28']</t>
+  </si>
+  <si>
+    <t>['41', '64']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['5', '10', '51', '77']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -757,9 +769,6 @@
     <t>['41']</t>
   </si>
   <si>
-    <t>['8']</t>
-  </si>
-  <si>
     <t>['12', '47', '65']</t>
   </si>
   <si>
@@ -863,6 +872,9 @@
   </si>
   <si>
     <t>['22', '60', '87']</t>
+  </si>
+  <si>
+    <t>['11', '38']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,7 +1480,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1749,7 +1761,7 @@
         <v>1.78</v>
       </c>
       <c r="AT3">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1937,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT4">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2041,7 +2053,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2128,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT5">
         <v>1.78</v>
@@ -2423,7 +2435,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2510,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT7">
         <v>0.78</v>
@@ -2701,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2805,7 +2817,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2892,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT9">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2996,7 +3008,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3086,7 +3098,7 @@
         <v>0.8</v>
       </c>
       <c r="AT10">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3187,7 +3199,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3465,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT12">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3569,7 +3581,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3760,7 +3772,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3951,7 +3963,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4142,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4229,10 +4241,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4420,10 +4432,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT17">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4524,7 +4536,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4715,7 +4727,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4906,7 +4918,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -4993,10 +5005,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT20">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU20">
         <v>1.93</v>
@@ -5097,7 +5109,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5187,7 +5199,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU21">
         <v>1.61</v>
@@ -5288,7 +5300,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5375,7 +5387,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT22">
         <v>1.7</v>
@@ -5479,7 +5491,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5566,10 +5578,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT23">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5948,10 +5960,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT25">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU25">
         <v>1.22</v>
@@ -6052,7 +6064,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6333,7 +6345,7 @@
         <v>1.7</v>
       </c>
       <c r="AT27">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU27">
         <v>1.71</v>
@@ -6521,7 +6533,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT28">
         <v>1.78</v>
@@ -6625,7 +6637,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6712,10 +6724,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT29">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU29">
         <v>1.31</v>
@@ -6903,10 +6915,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT30">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU30">
         <v>1.4</v>
@@ -7007,7 +7019,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7094,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT31">
         <v>1.56</v>
@@ -7476,10 +7488,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT33">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU33">
         <v>1.05</v>
@@ -7580,7 +7592,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7858,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT35">
         <v>0.63</v>
@@ -7962,7 +7974,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8052,7 +8064,7 @@
         <v>0.67</v>
       </c>
       <c r="AT36">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU36">
         <v>2.48</v>
@@ -8153,7 +8165,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8243,7 +8255,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU37">
         <v>2.2</v>
@@ -8431,7 +8443,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT38">
         <v>0.6</v>
@@ -8535,7 +8547,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8622,10 +8634,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT39">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU39">
         <v>0.96</v>
@@ -8813,7 +8825,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT40">
         <v>1.7</v>
@@ -8917,7 +8929,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9108,7 +9120,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9198,7 +9210,7 @@
         <v>1.33</v>
       </c>
       <c r="AT42">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU42">
         <v>1.84</v>
@@ -9386,7 +9398,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT43">
         <v>2.13</v>
@@ -9771,7 +9783,7 @@
         <v>1.78</v>
       </c>
       <c r="AT45">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU45">
         <v>2.41</v>
@@ -9872,7 +9884,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -9962,7 +9974,7 @@
         <v>1.7</v>
       </c>
       <c r="AT46">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU46">
         <v>1.39</v>
@@ -10063,7 +10075,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10153,7 +10165,7 @@
         <v>0.8</v>
       </c>
       <c r="AT47">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU47">
         <v>1.4</v>
@@ -10254,7 +10266,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10445,7 +10457,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10532,10 +10544,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT49">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU49">
         <v>1.01</v>
@@ -10636,7 +10648,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10723,7 +10735,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT50">
         <v>1.78</v>
@@ -10827,7 +10839,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10914,10 +10926,10 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT51">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU51">
         <v>1.11</v>
@@ -11018,7 +11030,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11108,7 +11120,7 @@
         <v>0.67</v>
       </c>
       <c r="AT52">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU52">
         <v>2.13</v>
@@ -11296,7 +11308,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT53">
         <v>0.6</v>
@@ -11487,7 +11499,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT54">
         <v>1.9</v>
@@ -11591,7 +11603,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11681,7 +11693,7 @@
         <v>1.11</v>
       </c>
       <c r="AT55">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU55">
         <v>1.7</v>
@@ -11869,7 +11881,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT56">
         <v>0.63</v>
@@ -12251,7 +12263,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT58">
         <v>0.78</v>
@@ -12355,7 +12367,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12442,10 +12454,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT59">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU59">
         <v>1.05</v>
@@ -12546,7 +12558,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12633,10 +12645,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT60">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU60">
         <v>1.47</v>
@@ -12824,10 +12836,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT61">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -13018,7 +13030,7 @@
         <v>1.33</v>
       </c>
       <c r="AT62">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU62">
         <v>1.7</v>
@@ -13209,7 +13221,7 @@
         <v>1.7</v>
       </c>
       <c r="AT63">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU63">
         <v>1.41</v>
@@ -13501,7 +13513,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13588,10 +13600,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT65">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU65">
         <v>1.03</v>
@@ -13692,7 +13704,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13779,10 +13791,10 @@
         <v>0.67</v>
       </c>
       <c r="AS66">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT66">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU66">
         <v>1.31</v>
@@ -13970,10 +13982,10 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT67">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU67">
         <v>1.01</v>
@@ -14074,7 +14086,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14265,7 +14277,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14456,7 +14468,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14546,7 +14558,7 @@
         <v>2.22</v>
       </c>
       <c r="AT70">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU70">
         <v>1.28</v>
@@ -14647,7 +14659,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14734,7 +14746,7 @@
         <v>3</v>
       </c>
       <c r="AS71">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT71">
         <v>2.13</v>
@@ -14838,7 +14850,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14925,7 +14937,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT72">
         <v>1.78</v>
@@ -15029,7 +15041,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15119,7 +15131,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU73">
         <v>1.01</v>
@@ -15220,7 +15232,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15411,7 +15423,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15498,7 +15510,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT75">
         <v>1.9</v>
@@ -15689,10 +15701,10 @@
         <v>0.33</v>
       </c>
       <c r="AS76">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT76">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU76">
         <v>1.1</v>
@@ -15793,7 +15805,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15984,7 +15996,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16071,7 +16083,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT78">
         <v>1.7</v>
@@ -16175,7 +16187,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16265,7 +16277,7 @@
         <v>1.11</v>
       </c>
       <c r="AT79">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU79">
         <v>1.8</v>
@@ -16366,7 +16378,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16453,10 +16465,10 @@
         <v>1.25</v>
       </c>
       <c r="AS80">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT80">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU80">
         <v>1.44</v>
@@ -16647,7 +16659,7 @@
         <v>1.5</v>
       </c>
       <c r="AT81">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU81">
         <v>1.38</v>
@@ -16939,7 +16951,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17026,10 +17038,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT83">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU83">
         <v>1.03</v>
@@ -17130,7 +17142,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17217,10 +17229,10 @@
         <v>2.5</v>
       </c>
       <c r="AS84">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT84">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU84">
         <v>1.07</v>
@@ -17408,10 +17420,10 @@
         <v>1.2</v>
       </c>
       <c r="AS85">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT85">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU85">
         <v>1.42</v>
@@ -17512,7 +17524,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17599,7 +17611,7 @@
         <v>2.4</v>
       </c>
       <c r="AS86">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT86">
         <v>1.78</v>
@@ -17790,7 +17802,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT87">
         <v>0.78</v>
@@ -17894,7 +17906,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17984,7 +17996,7 @@
         <v>0.8</v>
       </c>
       <c r="AT88">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU88">
         <v>1.19</v>
@@ -18085,7 +18097,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18175,7 +18187,7 @@
         <v>1.7</v>
       </c>
       <c r="AT89">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU89">
         <v>1.4</v>
@@ -18363,10 +18375,10 @@
         <v>0.25</v>
       </c>
       <c r="AS90">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT90">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU90">
         <v>1.08</v>
@@ -18467,7 +18479,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18658,7 +18670,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18748,7 +18760,7 @@
         <v>1</v>
       </c>
       <c r="AT92">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU92">
         <v>1.25</v>
@@ -18849,7 +18861,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19040,7 +19052,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19127,7 +19139,7 @@
         <v>1.4</v>
       </c>
       <c r="AS94">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT94">
         <v>1.9</v>
@@ -19422,7 +19434,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19509,7 +19521,7 @@
         <v>3</v>
       </c>
       <c r="AS96">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT96">
         <v>2.13</v>
@@ -19613,7 +19625,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19703,7 +19715,7 @@
         <v>0.67</v>
       </c>
       <c r="AT97">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU97">
         <v>1.82</v>
@@ -19891,7 +19903,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT98">
         <v>0.78</v>
@@ -19995,7 +20007,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20273,10 +20285,10 @@
         <v>0.2</v>
       </c>
       <c r="AS100">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT100">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU100">
         <v>1.52</v>
@@ -20377,7 +20389,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20467,7 +20479,7 @@
         <v>1.78</v>
       </c>
       <c r="AT101">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU101">
         <v>2.02</v>
@@ -20568,7 +20580,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20655,10 +20667,10 @@
         <v>1.4</v>
       </c>
       <c r="AS102">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT102">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU102">
         <v>1.36</v>
@@ -20846,10 +20858,10 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT103">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU103">
         <v>1.24</v>
@@ -21037,7 +21049,7 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT104">
         <v>1.7</v>
@@ -21228,7 +21240,7 @@
         <v>0.5</v>
       </c>
       <c r="AS105">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT105">
         <v>0.63</v>
@@ -21523,7 +21535,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21714,7 +21726,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21801,10 +21813,10 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT108">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU108">
         <v>1.34</v>
@@ -21992,10 +22004,10 @@
         <v>2.6</v>
       </c>
       <c r="AS109">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT109">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU109">
         <v>1.54</v>
@@ -22096,7 +22108,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22186,7 +22198,7 @@
         <v>0.67</v>
       </c>
       <c r="AT110">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU110">
         <v>1.74</v>
@@ -22478,7 +22490,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22947,7 +22959,7 @@
         <v>2.17</v>
       </c>
       <c r="AS114">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT114">
         <v>1.78</v>
@@ -23051,7 +23063,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23138,7 +23150,7 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT115">
         <v>1.9</v>
@@ -23332,7 +23344,7 @@
         <v>2.22</v>
       </c>
       <c r="AT116">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU116">
         <v>1.52</v>
@@ -23433,7 +23445,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23523,7 +23535,7 @@
         <v>1.11</v>
       </c>
       <c r="AT117">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU117">
         <v>1.79</v>
@@ -23714,7 +23726,7 @@
         <v>1.7</v>
       </c>
       <c r="AT118">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU118">
         <v>1.51</v>
@@ -23815,7 +23827,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23902,7 +23914,7 @@
         <v>0.71</v>
       </c>
       <c r="AS119">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT119">
         <v>0.6</v>
@@ -24006,7 +24018,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24197,7 +24209,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24284,10 +24296,10 @@
         <v>2.17</v>
       </c>
       <c r="AS121">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT121">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU121">
         <v>1.53</v>
@@ -24475,10 +24487,10 @@
         <v>1.71</v>
       </c>
       <c r="AS122">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT122">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU122">
         <v>1.14</v>
@@ -24857,7 +24869,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT124">
         <v>0.78</v>
@@ -24961,7 +24973,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25152,7 +25164,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25343,7 +25355,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25430,7 +25442,7 @@
         <v>0.75</v>
       </c>
       <c r="AS127">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT127">
         <v>0.6</v>
@@ -25624,7 +25636,7 @@
         <v>1.78</v>
       </c>
       <c r="AT128">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU128">
         <v>1.93</v>
@@ -25725,7 +25737,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25812,7 +25824,7 @@
         <v>2.14</v>
       </c>
       <c r="AS129">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT129">
         <v>1.7</v>
@@ -25916,7 +25928,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26006,7 +26018,7 @@
         <v>1</v>
       </c>
       <c r="AT130">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU130">
         <v>1.33</v>
@@ -26107,7 +26119,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26194,10 +26206,10 @@
         <v>0.14</v>
       </c>
       <c r="AS131">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT131">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU131">
         <v>1.39</v>
@@ -26385,7 +26397,7 @@
         <v>0.83</v>
       </c>
       <c r="AS132">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT132">
         <v>0.63</v>
@@ -26576,10 +26588,10 @@
         <v>0.5</v>
       </c>
       <c r="AS133">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT133">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU133">
         <v>1.45</v>
@@ -26770,7 +26782,7 @@
         <v>1.5</v>
       </c>
       <c r="AT134">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU134">
         <v>1.47</v>
@@ -26871,7 +26883,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26961,7 +26973,7 @@
         <v>2.22</v>
       </c>
       <c r="AT135">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU135">
         <v>1.66</v>
@@ -27062,7 +27074,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27149,7 +27161,7 @@
         <v>1.63</v>
       </c>
       <c r="AS136">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT136">
         <v>1.9</v>
@@ -27253,7 +27265,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27444,7 +27456,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27531,7 +27543,7 @@
         <v>1.86</v>
       </c>
       <c r="AS138">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT138">
         <v>1.78</v>
@@ -27635,7 +27647,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27725,7 +27737,7 @@
         <v>1.7</v>
       </c>
       <c r="AT139">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU139">
         <v>1.51</v>
@@ -27826,7 +27838,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -27913,7 +27925,7 @@
         <v>1.14</v>
       </c>
       <c r="AS140">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT140">
         <v>1.56</v>
@@ -28017,7 +28029,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28107,7 +28119,7 @@
         <v>0.8</v>
       </c>
       <c r="AT141">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU141">
         <v>1.45</v>
@@ -28298,7 +28310,7 @@
         <v>1.78</v>
       </c>
       <c r="AT142">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU142">
         <v>2.04</v>
@@ -28590,7 +28602,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28677,10 +28689,10 @@
         <v>0.71</v>
       </c>
       <c r="AS144">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT144">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU144">
         <v>1.58</v>
@@ -28868,7 +28880,7 @@
         <v>2.33</v>
       </c>
       <c r="AS145">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT145">
         <v>2.13</v>
@@ -29059,10 +29071,10 @@
         <v>1.88</v>
       </c>
       <c r="AS146">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT146">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU146">
         <v>1.27</v>
@@ -29163,7 +29175,7 @@
         <v>147</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29250,10 +29262,10 @@
         <v>0.88</v>
       </c>
       <c r="AS147">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT147">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU147">
         <v>1.53</v>
@@ -29354,7 +29366,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29441,10 +29453,10 @@
         <v>0.43</v>
       </c>
       <c r="AS148">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT148">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU148">
         <v>1.46</v>
@@ -29632,10 +29644,10 @@
         <v>0.86</v>
       </c>
       <c r="AS149">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT149">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU149">
         <v>1.2</v>
@@ -29736,7 +29748,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30014,10 +30026,10 @@
         <v>1.5</v>
       </c>
       <c r="AS151">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT151">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU151">
         <v>1.08</v>
@@ -30208,7 +30220,7 @@
         <v>1.5</v>
       </c>
       <c r="AT152">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU152">
         <v>1.62</v>
@@ -30309,7 +30321,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q153">
         <v>10</v>
@@ -30778,7 +30790,7 @@
         <v>2</v>
       </c>
       <c r="AS155">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT155">
         <v>1.78</v>
@@ -30882,7 +30894,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31073,7 +31085,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31264,7 +31276,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31455,7 +31467,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31646,7 +31658,7 @@
         <v>154</v>
       </c>
       <c r="P160" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31736,7 +31748,7 @@
         <v>2.22</v>
       </c>
       <c r="AT160">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU160">
         <v>1.6</v>
@@ -31837,7 +31849,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -32118,7 +32130,7 @@
         <v>2.22</v>
       </c>
       <c r="AT162">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU162">
         <v>1.58</v>
@@ -32170,6 +32182,1725 @@
       </c>
       <c r="BK162">
         <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>5189094</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45107.29166666666</v>
+      </c>
+      <c r="F163">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s">
+        <v>70</v>
+      </c>
+      <c r="H163" t="s">
+        <v>78</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163" t="s">
+        <v>84</v>
+      </c>
+      <c r="P163" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q163">
+        <v>5</v>
+      </c>
+      <c r="R163">
+        <v>6</v>
+      </c>
+      <c r="S163">
+        <v>11</v>
+      </c>
+      <c r="T163">
+        <v>2.8</v>
+      </c>
+      <c r="U163">
+        <v>2</v>
+      </c>
+      <c r="V163">
+        <v>4</v>
+      </c>
+      <c r="W163">
+        <v>1.51</v>
+      </c>
+      <c r="X163">
+        <v>2.4</v>
+      </c>
+      <c r="Y163">
+        <v>3.25</v>
+      </c>
+      <c r="Z163">
+        <v>1.3</v>
+      </c>
+      <c r="AA163">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB163">
+        <v>1.04</v>
+      </c>
+      <c r="AC163">
+        <v>2.21</v>
+      </c>
+      <c r="AD163">
+        <v>3.1</v>
+      </c>
+      <c r="AE163">
+        <v>3.1</v>
+      </c>
+      <c r="AF163">
+        <v>1.05</v>
+      </c>
+      <c r="AG163">
+        <v>7.2</v>
+      </c>
+      <c r="AH163">
+        <v>1.42</v>
+      </c>
+      <c r="AI163">
+        <v>2.7</v>
+      </c>
+      <c r="AJ163">
+        <v>2.06</v>
+      </c>
+      <c r="AK163">
+        <v>1.66</v>
+      </c>
+      <c r="AL163">
+        <v>2</v>
+      </c>
+      <c r="AM163">
+        <v>1.75</v>
+      </c>
+      <c r="AN163">
+        <v>1.25</v>
+      </c>
+      <c r="AO163">
+        <v>1.28</v>
+      </c>
+      <c r="AP163">
+        <v>1.7</v>
+      </c>
+      <c r="AQ163">
+        <v>1.78</v>
+      </c>
+      <c r="AR163">
+        <v>0.38</v>
+      </c>
+      <c r="AS163">
+        <v>1.6</v>
+      </c>
+      <c r="AT163">
+        <v>0.67</v>
+      </c>
+      <c r="AU163">
+        <v>1.2</v>
+      </c>
+      <c r="AV163">
+        <v>1.11</v>
+      </c>
+      <c r="AW163">
+        <v>2.31</v>
+      </c>
+      <c r="AX163">
+        <v>1.8</v>
+      </c>
+      <c r="AY163">
+        <v>7.5</v>
+      </c>
+      <c r="AZ163">
+        <v>2.38</v>
+      </c>
+      <c r="BA163">
+        <v>0</v>
+      </c>
+      <c r="BB163">
+        <v>0</v>
+      </c>
+      <c r="BC163">
+        <v>0</v>
+      </c>
+      <c r="BD163">
+        <v>0</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
+        <v>4</v>
+      </c>
+      <c r="BG163">
+        <v>2</v>
+      </c>
+      <c r="BH163">
+        <v>5</v>
+      </c>
+      <c r="BI163">
+        <v>3</v>
+      </c>
+      <c r="BJ163">
+        <v>9</v>
+      </c>
+      <c r="BK163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>5189095</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45108.25</v>
+      </c>
+      <c r="F164">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s">
+        <v>79</v>
+      </c>
+      <c r="H164" t="s">
+        <v>69</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164" t="s">
+        <v>84</v>
+      </c>
+      <c r="P164" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q164">
+        <v>7</v>
+      </c>
+      <c r="R164">
+        <v>3</v>
+      </c>
+      <c r="S164">
+        <v>10</v>
+      </c>
+      <c r="T164">
+        <v>2.38</v>
+      </c>
+      <c r="U164">
+        <v>2.24</v>
+      </c>
+      <c r="V164">
+        <v>5.72</v>
+      </c>
+      <c r="W164">
+        <v>1.45</v>
+      </c>
+      <c r="X164">
+        <v>2.86</v>
+      </c>
+      <c r="Y164">
+        <v>3.24</v>
+      </c>
+      <c r="Z164">
+        <v>1.37</v>
+      </c>
+      <c r="AA164">
+        <v>6.8</v>
+      </c>
+      <c r="AB164">
+        <v>1.07</v>
+      </c>
+      <c r="AC164">
+        <v>1.63</v>
+      </c>
+      <c r="AD164">
+        <v>3.6</v>
+      </c>
+      <c r="AE164">
+        <v>5.16</v>
+      </c>
+      <c r="AF164">
+        <v>1.03</v>
+      </c>
+      <c r="AG164">
+        <v>8.5</v>
+      </c>
+      <c r="AH164">
+        <v>1.3</v>
+      </c>
+      <c r="AI164">
+        <v>3.2</v>
+      </c>
+      <c r="AJ164">
+        <v>2</v>
+      </c>
+      <c r="AK164">
+        <v>1.72</v>
+      </c>
+      <c r="AL164">
+        <v>2.04</v>
+      </c>
+      <c r="AM164">
+        <v>1.73</v>
+      </c>
+      <c r="AN164">
+        <v>1.08</v>
+      </c>
+      <c r="AO164">
+        <v>1.27</v>
+      </c>
+      <c r="AP164">
+        <v>2.2</v>
+      </c>
+      <c r="AQ164">
+        <v>1.38</v>
+      </c>
+      <c r="AR164">
+        <v>1.11</v>
+      </c>
+      <c r="AS164">
+        <v>1.33</v>
+      </c>
+      <c r="AT164">
+        <v>1.1</v>
+      </c>
+      <c r="AU164">
+        <v>1.17</v>
+      </c>
+      <c r="AV164">
+        <v>1.29</v>
+      </c>
+      <c r="AW164">
+        <v>2.46</v>
+      </c>
+      <c r="AX164">
+        <v>1.5</v>
+      </c>
+      <c r="AY164">
+        <v>8.5</v>
+      </c>
+      <c r="AZ164">
+        <v>3.1</v>
+      </c>
+      <c r="BA164">
+        <v>0</v>
+      </c>
+      <c r="BB164">
+        <v>0</v>
+      </c>
+      <c r="BC164">
+        <v>1.93</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
+        <v>4</v>
+      </c>
+      <c r="BG164">
+        <v>2</v>
+      </c>
+      <c r="BH164">
+        <v>8</v>
+      </c>
+      <c r="BI164">
+        <v>6</v>
+      </c>
+      <c r="BJ164">
+        <v>12</v>
+      </c>
+      <c r="BK164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>5189096</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45108.25</v>
+      </c>
+      <c r="F165">
+        <v>19</v>
+      </c>
+      <c r="G165" t="s">
+        <v>81</v>
+      </c>
+      <c r="H165" t="s">
+        <v>66</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>197</v>
+      </c>
+      <c r="P165" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q165">
+        <v>6</v>
+      </c>
+      <c r="R165">
+        <v>5</v>
+      </c>
+      <c r="S165">
+        <v>11</v>
+      </c>
+      <c r="T165">
+        <v>4.56</v>
+      </c>
+      <c r="U165">
+        <v>2.31</v>
+      </c>
+      <c r="V165">
+        <v>2.58</v>
+      </c>
+      <c r="W165">
+        <v>1.36</v>
+      </c>
+      <c r="X165">
+        <v>2.9</v>
+      </c>
+      <c r="Y165">
+        <v>2.65</v>
+      </c>
+      <c r="Z165">
+        <v>1.42</v>
+      </c>
+      <c r="AA165">
+        <v>6.45</v>
+      </c>
+      <c r="AB165">
+        <v>1.09</v>
+      </c>
+      <c r="AC165">
+        <v>3.93</v>
+      </c>
+      <c r="AD165">
+        <v>3.6</v>
+      </c>
+      <c r="AE165">
+        <v>1.81</v>
+      </c>
+      <c r="AF165">
+        <v>1.02</v>
+      </c>
+      <c r="AG165">
+        <v>9.5</v>
+      </c>
+      <c r="AH165">
+        <v>1.25</v>
+      </c>
+      <c r="AI165">
+        <v>3.6</v>
+      </c>
+      <c r="AJ165">
+        <v>1.83</v>
+      </c>
+      <c r="AK165">
+        <v>1.87</v>
+      </c>
+      <c r="AL165">
+        <v>1.72</v>
+      </c>
+      <c r="AM165">
+        <v>2.05</v>
+      </c>
+      <c r="AN165">
+        <v>1.9</v>
+      </c>
+      <c r="AO165">
+        <v>1.27</v>
+      </c>
+      <c r="AP165">
+        <v>1.17</v>
+      </c>
+      <c r="AQ165">
+        <v>1.22</v>
+      </c>
+      <c r="AR165">
+        <v>1.44</v>
+      </c>
+      <c r="AS165">
+        <v>1.4</v>
+      </c>
+      <c r="AT165">
+        <v>1.3</v>
+      </c>
+      <c r="AU165">
+        <v>1.54</v>
+      </c>
+      <c r="AV165">
+        <v>1.93</v>
+      </c>
+      <c r="AW165">
+        <v>3.47</v>
+      </c>
+      <c r="AX165">
+        <v>2.6</v>
+      </c>
+      <c r="AY165">
+        <v>8</v>
+      </c>
+      <c r="AZ165">
+        <v>1.67</v>
+      </c>
+      <c r="BA165">
+        <v>0</v>
+      </c>
+      <c r="BB165">
+        <v>0</v>
+      </c>
+      <c r="BC165">
+        <v>0</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>7</v>
+      </c>
+      <c r="BG165">
+        <v>3</v>
+      </c>
+      <c r="BH165">
+        <v>6</v>
+      </c>
+      <c r="BI165">
+        <v>6</v>
+      </c>
+      <c r="BJ165">
+        <v>13</v>
+      </c>
+      <c r="BK165">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>5189097</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45108.25</v>
+      </c>
+      <c r="F166">
+        <v>19</v>
+      </c>
+      <c r="G166" t="s">
+        <v>80</v>
+      </c>
+      <c r="H166" t="s">
+        <v>65</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>2</v>
+      </c>
+      <c r="O166" t="s">
+        <v>198</v>
+      </c>
+      <c r="P166" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q166">
+        <v>5</v>
+      </c>
+      <c r="R166">
+        <v>4</v>
+      </c>
+      <c r="S166">
+        <v>9</v>
+      </c>
+      <c r="T166">
+        <v>3.2</v>
+      </c>
+      <c r="U166">
+        <v>2.05</v>
+      </c>
+      <c r="V166">
+        <v>3.1</v>
+      </c>
+      <c r="W166">
+        <v>1.42</v>
+      </c>
+      <c r="X166">
+        <v>2.6</v>
+      </c>
+      <c r="Y166">
+        <v>3</v>
+      </c>
+      <c r="Z166">
+        <v>1.33</v>
+      </c>
+      <c r="AA166">
+        <v>6.8</v>
+      </c>
+      <c r="AB166">
+        <v>1.07</v>
+      </c>
+      <c r="AC166">
+        <v>2.5</v>
+      </c>
+      <c r="AD166">
+        <v>3.2</v>
+      </c>
+      <c r="AE166">
+        <v>2.68</v>
+      </c>
+      <c r="AF166">
+        <v>1.07</v>
+      </c>
+      <c r="AG166">
+        <v>7</v>
+      </c>
+      <c r="AH166">
+        <v>1.36</v>
+      </c>
+      <c r="AI166">
+        <v>2.9</v>
+      </c>
+      <c r="AJ166">
+        <v>2.06</v>
+      </c>
+      <c r="AK166">
+        <v>1.68</v>
+      </c>
+      <c r="AL166">
+        <v>1.8</v>
+      </c>
+      <c r="AM166">
+        <v>1.9</v>
+      </c>
+      <c r="AN166">
+        <v>1.4</v>
+      </c>
+      <c r="AO166">
+        <v>1.36</v>
+      </c>
+      <c r="AP166">
+        <v>1.53</v>
+      </c>
+      <c r="AQ166">
+        <v>2.11</v>
+      </c>
+      <c r="AR166">
+        <v>1.44</v>
+      </c>
+      <c r="AS166">
+        <v>2.2</v>
+      </c>
+      <c r="AT166">
+        <v>1.3</v>
+      </c>
+      <c r="AU166">
+        <v>1.48</v>
+      </c>
+      <c r="AV166">
+        <v>1.38</v>
+      </c>
+      <c r="AW166">
+        <v>2.86</v>
+      </c>
+      <c r="AX166">
+        <v>1.91</v>
+      </c>
+      <c r="AY166">
+        <v>7.5</v>
+      </c>
+      <c r="AZ166">
+        <v>2.2</v>
+      </c>
+      <c r="BA166">
+        <v>0</v>
+      </c>
+      <c r="BB166">
+        <v>1.8</v>
+      </c>
+      <c r="BC166">
+        <v>0</v>
+      </c>
+      <c r="BD166">
+        <v>0</v>
+      </c>
+      <c r="BE166">
+        <v>0</v>
+      </c>
+      <c r="BF166">
+        <v>6</v>
+      </c>
+      <c r="BG166">
+        <v>6</v>
+      </c>
+      <c r="BH166">
+        <v>5</v>
+      </c>
+      <c r="BI166">
+        <v>13</v>
+      </c>
+      <c r="BJ166">
+        <v>11</v>
+      </c>
+      <c r="BK166">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>5189098</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45108.27083333334</v>
+      </c>
+      <c r="F167">
+        <v>19</v>
+      </c>
+      <c r="G167" t="s">
+        <v>68</v>
+      </c>
+      <c r="H167" t="s">
+        <v>77</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167" t="s">
+        <v>84</v>
+      </c>
+      <c r="P167" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q167">
+        <v>10</v>
+      </c>
+      <c r="R167">
+        <v>5</v>
+      </c>
+      <c r="S167">
+        <v>15</v>
+      </c>
+      <c r="T167">
+        <v>3.75</v>
+      </c>
+      <c r="U167">
+        <v>2.2</v>
+      </c>
+      <c r="V167">
+        <v>2.55</v>
+      </c>
+      <c r="W167">
+        <v>1.35</v>
+      </c>
+      <c r="X167">
+        <v>2.95</v>
+      </c>
+      <c r="Y167">
+        <v>2.6</v>
+      </c>
+      <c r="Z167">
+        <v>1.44</v>
+      </c>
+      <c r="AA167">
+        <v>6</v>
+      </c>
+      <c r="AB167">
+        <v>1.1</v>
+      </c>
+      <c r="AC167">
+        <v>3.75</v>
+      </c>
+      <c r="AD167">
+        <v>3.6</v>
+      </c>
+      <c r="AE167">
+        <v>1.85</v>
+      </c>
+      <c r="AF167">
+        <v>1.04</v>
+      </c>
+      <c r="AG167">
+        <v>10</v>
+      </c>
+      <c r="AH167">
+        <v>1.25</v>
+      </c>
+      <c r="AI167">
+        <v>3.75</v>
+      </c>
+      <c r="AJ167">
+        <v>1.7</v>
+      </c>
+      <c r="AK167">
+        <v>2.03</v>
+      </c>
+      <c r="AL167">
+        <v>1.65</v>
+      </c>
+      <c r="AM167">
+        <v>2.15</v>
+      </c>
+      <c r="AN167">
+        <v>1.8</v>
+      </c>
+      <c r="AO167">
+        <v>1.22</v>
+      </c>
+      <c r="AP167">
+        <v>1.3</v>
+      </c>
+      <c r="AQ167">
+        <v>0.8</v>
+      </c>
+      <c r="AR167">
+        <v>0.78</v>
+      </c>
+      <c r="AS167">
+        <v>0.82</v>
+      </c>
+      <c r="AT167">
+        <v>0.8</v>
+      </c>
+      <c r="AU167">
+        <v>1.07</v>
+      </c>
+      <c r="AV167">
+        <v>1.21</v>
+      </c>
+      <c r="AW167">
+        <v>2.28</v>
+      </c>
+      <c r="AX167">
+        <v>2.25</v>
+      </c>
+      <c r="AY167">
+        <v>7.5</v>
+      </c>
+      <c r="AZ167">
+        <v>1.83</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>0</v>
+      </c>
+      <c r="BC167">
+        <v>0</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>4</v>
+      </c>
+      <c r="BG167">
+        <v>7</v>
+      </c>
+      <c r="BH167">
+        <v>12</v>
+      </c>
+      <c r="BI167">
+        <v>4</v>
+      </c>
+      <c r="BJ167">
+        <v>16</v>
+      </c>
+      <c r="BK167">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>5189099</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45108.29166666666</v>
+      </c>
+      <c r="F168">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s">
+        <v>67</v>
+      </c>
+      <c r="H168" t="s">
+        <v>73</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>117</v>
+      </c>
+      <c r="P168" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q168">
+        <v>8</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>10</v>
+      </c>
+      <c r="T168">
+        <v>2.75</v>
+      </c>
+      <c r="U168">
+        <v>2.1</v>
+      </c>
+      <c r="V168">
+        <v>3.75</v>
+      </c>
+      <c r="W168">
+        <v>1.41</v>
+      </c>
+      <c r="X168">
+        <v>2.7</v>
+      </c>
+      <c r="Y168">
+        <v>2.95</v>
+      </c>
+      <c r="Z168">
+        <v>1.35</v>
+      </c>
+      <c r="AA168">
+        <v>7.4</v>
+      </c>
+      <c r="AB168">
+        <v>1.06</v>
+      </c>
+      <c r="AC168">
+        <v>2.1</v>
+      </c>
+      <c r="AD168">
+        <v>3.35</v>
+      </c>
+      <c r="AE168">
+        <v>3.22</v>
+      </c>
+      <c r="AF168">
+        <v>1.06</v>
+      </c>
+      <c r="AG168">
+        <v>8</v>
+      </c>
+      <c r="AH168">
+        <v>1.33</v>
+      </c>
+      <c r="AI168">
+        <v>3.2</v>
+      </c>
+      <c r="AJ168">
+        <v>1.96</v>
+      </c>
+      <c r="AK168">
+        <v>1.75</v>
+      </c>
+      <c r="AL168">
+        <v>1.8</v>
+      </c>
+      <c r="AM168">
+        <v>1.95</v>
+      </c>
+      <c r="AN168">
+        <v>1.3</v>
+      </c>
+      <c r="AO168">
+        <v>1.25</v>
+      </c>
+      <c r="AP168">
+        <v>1.7</v>
+      </c>
+      <c r="AQ168">
+        <v>2</v>
+      </c>
+      <c r="AR168">
+        <v>0.63</v>
+      </c>
+      <c r="AS168">
+        <v>2.11</v>
+      </c>
+      <c r="AT168">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU168">
+        <v>1.42</v>
+      </c>
+      <c r="AV168">
+        <v>1.21</v>
+      </c>
+      <c r="AW168">
+        <v>2.63</v>
+      </c>
+      <c r="AX168">
+        <v>1.8</v>
+      </c>
+      <c r="AY168">
+        <v>8</v>
+      </c>
+      <c r="AZ168">
+        <v>2.38</v>
+      </c>
+      <c r="BA168">
+        <v>0</v>
+      </c>
+      <c r="BB168">
+        <v>0</v>
+      </c>
+      <c r="BC168">
+        <v>1.98</v>
+      </c>
+      <c r="BD168">
+        <v>0</v>
+      </c>
+      <c r="BE168">
+        <v>0</v>
+      </c>
+      <c r="BF168">
+        <v>6</v>
+      </c>
+      <c r="BG168">
+        <v>0</v>
+      </c>
+      <c r="BH168">
+        <v>4</v>
+      </c>
+      <c r="BI168">
+        <v>4</v>
+      </c>
+      <c r="BJ168">
+        <v>10</v>
+      </c>
+      <c r="BK168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>5189101</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45108.29166666666</v>
+      </c>
+      <c r="F169">
+        <v>19</v>
+      </c>
+      <c r="G169" t="s">
+        <v>72</v>
+      </c>
+      <c r="H169" t="s">
+        <v>82</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>2</v>
+      </c>
+      <c r="K169">
+        <v>3</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>199</v>
+      </c>
+      <c r="P169" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q169">
+        <v>5</v>
+      </c>
+      <c r="R169">
+        <v>7</v>
+      </c>
+      <c r="S169">
+        <v>12</v>
+      </c>
+      <c r="T169">
+        <v>4.33</v>
+      </c>
+      <c r="U169">
+        <v>2.01</v>
+      </c>
+      <c r="V169">
+        <v>2.74</v>
+      </c>
+      <c r="W169">
+        <v>1.48</v>
+      </c>
+      <c r="X169">
+        <v>2.55</v>
+      </c>
+      <c r="Y169">
+        <v>3.28</v>
+      </c>
+      <c r="Z169">
+        <v>1.31</v>
+      </c>
+      <c r="AA169">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB169">
+        <v>1.05</v>
+      </c>
+      <c r="AC169">
+        <v>3.25</v>
+      </c>
+      <c r="AD169">
+        <v>3.2</v>
+      </c>
+      <c r="AE169">
+        <v>2.15</v>
+      </c>
+      <c r="AF169">
+        <v>1.04</v>
+      </c>
+      <c r="AG169">
+        <v>7.4</v>
+      </c>
+      <c r="AH169">
+        <v>1.39</v>
+      </c>
+      <c r="AI169">
+        <v>2.71</v>
+      </c>
+      <c r="AJ169">
+        <v>2</v>
+      </c>
+      <c r="AK169">
+        <v>1.72</v>
+      </c>
+      <c r="AL169">
+        <v>1.97</v>
+      </c>
+      <c r="AM169">
+        <v>1.78</v>
+      </c>
+      <c r="AN169">
+        <v>1.73</v>
+      </c>
+      <c r="AO169">
+        <v>1.33</v>
+      </c>
+      <c r="AP169">
+        <v>1.29</v>
+      </c>
+      <c r="AQ169">
+        <v>1.33</v>
+      </c>
+      <c r="AR169">
+        <v>1.44</v>
+      </c>
+      <c r="AS169">
+        <v>1.2</v>
+      </c>
+      <c r="AT169">
+        <v>1.6</v>
+      </c>
+      <c r="AU169">
+        <v>1.18</v>
+      </c>
+      <c r="AV169">
+        <v>1.18</v>
+      </c>
+      <c r="AW169">
+        <v>2.36</v>
+      </c>
+      <c r="AX169">
+        <v>1.95</v>
+      </c>
+      <c r="AY169">
+        <v>7.5</v>
+      </c>
+      <c r="AZ169">
+        <v>2.1</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>0</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>3</v>
+      </c>
+      <c r="BG169">
+        <v>7</v>
+      </c>
+      <c r="BH169">
+        <v>6</v>
+      </c>
+      <c r="BI169">
+        <v>6</v>
+      </c>
+      <c r="BJ169">
+        <v>9</v>
+      </c>
+      <c r="BK169">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>5189100</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45108.29166666666</v>
+      </c>
+      <c r="F170">
+        <v>19</v>
+      </c>
+      <c r="G170" t="s">
+        <v>71</v>
+      </c>
+      <c r="H170" t="s">
+        <v>76</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>149</v>
+      </c>
+      <c r="P170" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q170">
+        <v>2</v>
+      </c>
+      <c r="R170">
+        <v>4</v>
+      </c>
+      <c r="S170">
+        <v>6</v>
+      </c>
+      <c r="T170">
+        <v>2.55</v>
+      </c>
+      <c r="U170">
+        <v>2.35</v>
+      </c>
+      <c r="V170">
+        <v>3.4</v>
+      </c>
+      <c r="W170">
+        <v>1.25</v>
+      </c>
+      <c r="X170">
+        <v>3.6</v>
+      </c>
+      <c r="Y170">
+        <v>2.21</v>
+      </c>
+      <c r="Z170">
+        <v>1.61</v>
+      </c>
+      <c r="AA170">
+        <v>4.75</v>
+      </c>
+      <c r="AB170">
+        <v>1.16</v>
+      </c>
+      <c r="AC170">
+        <v>2.05</v>
+      </c>
+      <c r="AD170">
+        <v>3.8</v>
+      </c>
+      <c r="AE170">
+        <v>2.99</v>
+      </c>
+      <c r="AF170">
+        <v>1.02</v>
+      </c>
+      <c r="AG170">
+        <v>12</v>
+      </c>
+      <c r="AH170">
+        <v>1.18</v>
+      </c>
+      <c r="AI170">
+        <v>4.5</v>
+      </c>
+      <c r="AJ170">
+        <v>1.44</v>
+      </c>
+      <c r="AK170">
+        <v>2.59</v>
+      </c>
+      <c r="AL170">
+        <v>1.45</v>
+      </c>
+      <c r="AM170">
+        <v>2.65</v>
+      </c>
+      <c r="AN170">
+        <v>1.35</v>
+      </c>
+      <c r="AO170">
+        <v>1.2</v>
+      </c>
+      <c r="AP170">
+        <v>1.75</v>
+      </c>
+      <c r="AQ170">
+        <v>2.11</v>
+      </c>
+      <c r="AR170">
+        <v>1.78</v>
+      </c>
+      <c r="AS170">
+        <v>2</v>
+      </c>
+      <c r="AT170">
+        <v>1.7</v>
+      </c>
+      <c r="AU170">
+        <v>1.52</v>
+      </c>
+      <c r="AV170">
+        <v>1.47</v>
+      </c>
+      <c r="AW170">
+        <v>2.99</v>
+      </c>
+      <c r="AX170">
+        <v>1.8</v>
+      </c>
+      <c r="AY170">
+        <v>8</v>
+      </c>
+      <c r="AZ170">
+        <v>2.3</v>
+      </c>
+      <c r="BA170">
+        <v>0</v>
+      </c>
+      <c r="BB170">
+        <v>0</v>
+      </c>
+      <c r="BC170">
+        <v>2</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>4</v>
+      </c>
+      <c r="BG170">
+        <v>8</v>
+      </c>
+      <c r="BH170">
+        <v>5</v>
+      </c>
+      <c r="BI170">
+        <v>7</v>
+      </c>
+      <c r="BJ170">
+        <v>9</v>
+      </c>
+      <c r="BK170">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>5189102</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45109.29166666666</v>
+      </c>
+      <c r="F171">
+        <v>19</v>
+      </c>
+      <c r="G171" t="s">
+        <v>75</v>
+      </c>
+      <c r="H171" t="s">
+        <v>74</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>4</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>5</v>
+      </c>
+      <c r="O171" t="s">
+        <v>200</v>
+      </c>
+      <c r="P171" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q171">
+        <v>2</v>
+      </c>
+      <c r="R171">
+        <v>5</v>
+      </c>
+      <c r="S171">
+        <v>7</v>
+      </c>
+      <c r="T171">
+        <v>2</v>
+      </c>
+      <c r="U171">
+        <v>2.63</v>
+      </c>
+      <c r="V171">
+        <v>5</v>
+      </c>
+      <c r="W171">
+        <v>1.22</v>
+      </c>
+      <c r="X171">
+        <v>4</v>
+      </c>
+      <c r="Y171">
+        <v>2.1</v>
+      </c>
+      <c r="Z171">
+        <v>1.67</v>
+      </c>
+      <c r="AA171">
+        <v>4.5</v>
+      </c>
+      <c r="AB171">
+        <v>1.18</v>
+      </c>
+      <c r="AC171">
+        <v>1.48</v>
+      </c>
+      <c r="AD171">
+        <v>4.25</v>
+      </c>
+      <c r="AE171">
+        <v>5.9</v>
+      </c>
+      <c r="AF171">
+        <v>1.02</v>
+      </c>
+      <c r="AG171">
+        <v>10</v>
+      </c>
+      <c r="AH171">
+        <v>1.13</v>
+      </c>
+      <c r="AI171">
+        <v>5</v>
+      </c>
+      <c r="AJ171">
+        <v>1.62</v>
+      </c>
+      <c r="AK171">
+        <v>2.2</v>
+      </c>
+      <c r="AL171">
+        <v>1.53</v>
+      </c>
+      <c r="AM171">
+        <v>2.38</v>
+      </c>
+      <c r="AN171">
+        <v>1.08</v>
+      </c>
+      <c r="AO171">
+        <v>1.17</v>
+      </c>
+      <c r="AP171">
+        <v>2.6</v>
+      </c>
+      <c r="AQ171">
+        <v>2.5</v>
+      </c>
+      <c r="AR171">
+        <v>0.67</v>
+      </c>
+      <c r="AS171">
+        <v>2.56</v>
+      </c>
+      <c r="AT171">
+        <v>0.6</v>
+      </c>
+      <c r="AU171">
+        <v>1.55</v>
+      </c>
+      <c r="AV171">
+        <v>1.38</v>
+      </c>
+      <c r="AW171">
+        <v>2.93</v>
+      </c>
+      <c r="AX171">
+        <v>1.53</v>
+      </c>
+      <c r="AY171">
+        <v>8.5</v>
+      </c>
+      <c r="AZ171">
+        <v>2.88</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>0</v>
+      </c>
+      <c r="BC171">
+        <v>1.85</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>14</v>
+      </c>
+      <c r="BG171">
+        <v>5</v>
+      </c>
+      <c r="BH171">
+        <v>6</v>
+      </c>
+      <c r="BI171">
+        <v>6</v>
+      </c>
+      <c r="BJ171">
+        <v>20</v>
+      </c>
+      <c r="BK171">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -876,6 +876,9 @@
   <si>
     <t>['11', '38']</t>
   </si>
+  <si>
+    <t>['15']</t>
+  </si>
 </sst>
 </file>
 
@@ -1236,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3671,7 +3674,7 @@
         <v>1.11</v>
       </c>
       <c r="AT13">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -5578,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT23">
         <v>1.7</v>
@@ -6915,7 +6918,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT30">
         <v>1.3</v>
@@ -9401,7 +9404,7 @@
         <v>1.2</v>
       </c>
       <c r="AT43">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU43">
         <v>1.25</v>
@@ -10356,7 +10359,7 @@
         <v>1</v>
       </c>
       <c r="AT48">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU48">
         <v>1.03</v>
@@ -10735,7 +10738,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT50">
         <v>1.78</v>
@@ -13791,7 +13794,7 @@
         <v>0.67</v>
       </c>
       <c r="AS66">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT66">
         <v>0.67</v>
@@ -14749,7 +14752,7 @@
         <v>1.33</v>
       </c>
       <c r="AT71">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU71">
         <v>1.16</v>
@@ -16083,7 +16086,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT78">
         <v>1.7</v>
@@ -19524,7 +19527,7 @@
         <v>2.2</v>
       </c>
       <c r="AT96">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU96">
         <v>1.51</v>
@@ -20858,7 +20861,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT103">
         <v>0.5600000000000001</v>
@@ -23150,7 +23153,7 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT115">
         <v>1.9</v>
@@ -24681,7 +24684,7 @@
         <v>0.8</v>
       </c>
       <c r="AT123">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU123">
         <v>1.44</v>
@@ -26206,7 +26209,7 @@
         <v>0.14</v>
       </c>
       <c r="AS131">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT131">
         <v>0.8</v>
@@ -28883,7 +28886,7 @@
         <v>1.6</v>
       </c>
       <c r="AT145">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU145">
         <v>1.14</v>
@@ -29262,7 +29265,7 @@
         <v>0.88</v>
       </c>
       <c r="AS147">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT147">
         <v>1.1</v>
@@ -31939,7 +31942,7 @@
         <v>1.7</v>
       </c>
       <c r="AT161">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU161">
         <v>1.51</v>
@@ -32700,7 +32703,7 @@
         <v>1.44</v>
       </c>
       <c r="AS165">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT165">
         <v>1.3</v>
@@ -33901,6 +33904,197 @@
       </c>
       <c r="BK171">
         <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>5189103</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45114.29166666666</v>
+      </c>
+      <c r="F172">
+        <v>20</v>
+      </c>
+      <c r="G172" t="s">
+        <v>81</v>
+      </c>
+      <c r="H172" t="s">
+        <v>71</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>84</v>
+      </c>
+      <c r="P172" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q172">
+        <v>3</v>
+      </c>
+      <c r="R172">
+        <v>3</v>
+      </c>
+      <c r="S172">
+        <v>6</v>
+      </c>
+      <c r="T172">
+        <v>4.33</v>
+      </c>
+      <c r="U172">
+        <v>2.2</v>
+      </c>
+      <c r="V172">
+        <v>2.6</v>
+      </c>
+      <c r="W172">
+        <v>1.4</v>
+      </c>
+      <c r="X172">
+        <v>2.75</v>
+      </c>
+      <c r="Y172">
+        <v>2.75</v>
+      </c>
+      <c r="Z172">
+        <v>1.4</v>
+      </c>
+      <c r="AA172">
+        <v>8</v>
+      </c>
+      <c r="AB172">
+        <v>1.08</v>
+      </c>
+      <c r="AC172">
+        <v>3.4</v>
+      </c>
+      <c r="AD172">
+        <v>3.6</v>
+      </c>
+      <c r="AE172">
+        <v>1.98</v>
+      </c>
+      <c r="AF172">
+        <v>1.04</v>
+      </c>
+      <c r="AG172">
+        <v>12</v>
+      </c>
+      <c r="AH172">
+        <v>1.27</v>
+      </c>
+      <c r="AI172">
+        <v>3.5</v>
+      </c>
+      <c r="AJ172">
+        <v>1.88</v>
+      </c>
+      <c r="AK172">
+        <v>1.88</v>
+      </c>
+      <c r="AL172">
+        <v>1.75</v>
+      </c>
+      <c r="AM172">
+        <v>2</v>
+      </c>
+      <c r="AN172">
+        <v>1.78</v>
+      </c>
+      <c r="AO172">
+        <v>1.29</v>
+      </c>
+      <c r="AP172">
+        <v>1.27</v>
+      </c>
+      <c r="AQ172">
+        <v>1.4</v>
+      </c>
+      <c r="AR172">
+        <v>2.13</v>
+      </c>
+      <c r="AS172">
+        <v>1.27</v>
+      </c>
+      <c r="AT172">
+        <v>2.22</v>
+      </c>
+      <c r="AU172">
+        <v>1.54</v>
+      </c>
+      <c r="AV172">
+        <v>1.47</v>
+      </c>
+      <c r="AW172">
+        <v>3.01</v>
+      </c>
+      <c r="AX172">
+        <v>2.05</v>
+      </c>
+      <c r="AY172">
+        <v>8</v>
+      </c>
+      <c r="AZ172">
+        <v>2</v>
+      </c>
+      <c r="BA172">
+        <v>1.27</v>
+      </c>
+      <c r="BB172">
+        <v>1.51</v>
+      </c>
+      <c r="BC172">
+        <v>2.1</v>
+      </c>
+      <c r="BD172">
+        <v>2.88</v>
+      </c>
+      <c r="BE172">
+        <v>4</v>
+      </c>
+      <c r="BF172">
+        <v>7</v>
+      </c>
+      <c r="BG172">
+        <v>3</v>
+      </c>
+      <c r="BH172">
+        <v>3</v>
+      </c>
+      <c r="BI172">
+        <v>3</v>
+      </c>
+      <c r="BJ172">
+        <v>10</v>
+      </c>
+      <c r="BK172">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,21 @@
     <t>['5', '10', '51', '77']</t>
   </si>
   <si>
+    <t>['8', '47']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['13', '36', '88']</t>
+  </si>
+  <si>
+    <t>['66', '69']</t>
+  </si>
+  <si>
+    <t>['64', '90+3']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -878,6 +893,12 @@
   </si>
   <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['28', '35']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK172"/>
+  <dimension ref="A1:BK180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1483,7 +1504,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1570,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT2">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1761,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT3">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2056,7 +2077,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2337,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2438,7 +2459,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2820,7 +2841,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2907,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT9">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3011,7 +3032,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3098,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT10">
         <v>0.8</v>
@@ -3202,7 +3223,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3292,7 +3313,7 @@
         <v>0.67</v>
       </c>
       <c r="AT11">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3584,7 +3605,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3775,7 +3796,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3862,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT14">
         <v>1.56</v>
@@ -3966,7 +3987,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4053,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT15">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4157,7 +4178,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4435,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT17">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4539,7 +4560,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4626,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT18">
         <v>0.78</v>
@@ -4730,7 +4751,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4817,10 +4838,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT19">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU19">
         <v>1.53</v>
@@ -4921,7 +4942,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -5112,7 +5133,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5199,10 +5220,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT21">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU21">
         <v>1.61</v>
@@ -5303,7 +5324,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5393,7 +5414,7 @@
         <v>0.82</v>
       </c>
       <c r="AT22">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU22">
         <v>1.4</v>
@@ -5494,7 +5515,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5584,7 +5605,7 @@
         <v>1.27</v>
       </c>
       <c r="AT23">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5775,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU24">
         <v>0.79</v>
@@ -6067,7 +6088,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6154,10 +6175,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT26">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6345,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT27">
         <v>0.5600000000000001</v>
@@ -6536,7 +6557,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT28">
         <v>1.78</v>
@@ -6640,7 +6661,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -7022,7 +7043,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7303,7 +7324,7 @@
         <v>1.11</v>
       </c>
       <c r="AT32">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU32">
         <v>1.7</v>
@@ -7595,7 +7616,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7682,7 +7703,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT34">
         <v>1.78</v>
@@ -7876,7 +7897,7 @@
         <v>2.11</v>
       </c>
       <c r="AT35">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU35">
         <v>1.14</v>
@@ -7977,7 +7998,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8067,7 +8088,7 @@
         <v>0.67</v>
       </c>
       <c r="AT36">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>2.48</v>
@@ -8168,7 +8189,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8255,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT37">
         <v>1.3</v>
@@ -8446,10 +8467,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT38">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU38">
         <v>2.05</v>
@@ -8550,7 +8571,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8640,7 +8661,7 @@
         <v>0.82</v>
       </c>
       <c r="AT39">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>0.96</v>
@@ -8831,7 +8852,7 @@
         <v>2.56</v>
       </c>
       <c r="AT40">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU40">
         <v>1.61</v>
@@ -8932,7 +8953,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9019,7 +9040,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT41">
         <v>0.78</v>
@@ -9123,7 +9144,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9210,10 +9231,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU42">
         <v>1.84</v>
@@ -9401,7 +9422,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT43">
         <v>2.22</v>
@@ -9592,10 +9613,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT44">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU44">
         <v>1.37</v>
@@ -9783,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT45">
         <v>0.5600000000000001</v>
@@ -9887,7 +9908,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -9974,10 +9995,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT46">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU46">
         <v>1.39</v>
@@ -10078,7 +10099,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10165,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT47">
         <v>1.6</v>
@@ -10269,7 +10290,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10460,7 +10481,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10651,7 +10672,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10842,7 +10863,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11033,7 +11054,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11311,10 +11332,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT53">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU53">
         <v>0.95</v>
@@ -11505,7 +11526,7 @@
         <v>1.6</v>
       </c>
       <c r="AT54">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU54">
         <v>1.08</v>
@@ -11606,7 +11627,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11887,7 +11908,7 @@
         <v>2.56</v>
       </c>
       <c r="AT56">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -12075,7 +12096,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT57">
         <v>1.56</v>
@@ -12370,7 +12391,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12460,7 +12481,7 @@
         <v>1.6</v>
       </c>
       <c r="AT59">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU59">
         <v>1.05</v>
@@ -12561,7 +12582,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12651,7 +12672,7 @@
         <v>2.11</v>
       </c>
       <c r="AT60">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU60">
         <v>1.47</v>
@@ -12839,7 +12860,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT61">
         <v>1.6</v>
@@ -13030,7 +13051,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
         <v>1.3</v>
@@ -13221,10 +13242,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT63">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.41</v>
@@ -13412,10 +13433,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT64">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU64">
         <v>1.3</v>
@@ -13516,7 +13537,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13707,7 +13728,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13985,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT67">
         <v>0.5600000000000001</v>
@@ -14089,7 +14110,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14179,7 +14200,7 @@
         <v>0.67</v>
       </c>
       <c r="AT68">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU68">
         <v>1.93</v>
@@ -14280,7 +14301,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14367,7 +14388,7 @@
         <v>2.25</v>
       </c>
       <c r="AS69">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT69">
         <v>1.78</v>
@@ -14471,7 +14492,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14558,10 +14579,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT70">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU70">
         <v>1.28</v>
@@ -14662,7 +14683,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14853,7 +14874,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14943,7 +14964,7 @@
         <v>2.11</v>
       </c>
       <c r="AT72">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU72">
         <v>1.48</v>
@@ -15044,7 +15065,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15235,7 +15256,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15322,10 +15343,10 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT74">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU74">
         <v>2.14</v>
@@ -15426,7 +15447,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15516,7 +15537,7 @@
         <v>2</v>
       </c>
       <c r="AT75">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU75">
         <v>1.32</v>
@@ -15808,7 +15829,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15999,7 +16020,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16089,7 +16110,7 @@
         <v>1.27</v>
       </c>
       <c r="AT78">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16190,7 +16211,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16381,7 +16402,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16468,10 +16489,10 @@
         <v>1.25</v>
       </c>
       <c r="AS80">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT80">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU80">
         <v>1.44</v>
@@ -16659,7 +16680,7 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT81">
         <v>1.6</v>
@@ -16850,10 +16871,10 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT82">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU82">
         <v>1.7</v>
@@ -16954,7 +16975,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17044,7 +17065,7 @@
         <v>0.82</v>
       </c>
       <c r="AT83">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU83">
         <v>1.03</v>
@@ -17145,7 +17166,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17426,7 +17447,7 @@
         <v>2</v>
       </c>
       <c r="AT85">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU85">
         <v>1.42</v>
@@ -17527,7 +17548,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17996,10 +18017,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT88">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.19</v>
@@ -18100,7 +18121,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18187,7 +18208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT89">
         <v>1.3</v>
@@ -18482,7 +18503,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18572,7 +18593,7 @@
         <v>1.11</v>
       </c>
       <c r="AT91">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU91">
         <v>1.68</v>
@@ -18673,7 +18694,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18864,7 +18885,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18951,10 +18972,10 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU93">
         <v>1.88</v>
@@ -19055,7 +19076,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19142,10 +19163,10 @@
         <v>1.4</v>
       </c>
       <c r="AS94">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT94">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU94">
         <v>1.02</v>
@@ -19333,10 +19354,10 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT95">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU95">
         <v>1.33</v>
@@ -19437,7 +19458,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19524,7 +19545,7 @@
         <v>3</v>
       </c>
       <c r="AS96">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT96">
         <v>2.22</v>
@@ -19628,7 +19649,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -20010,7 +20031,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20100,7 +20121,7 @@
         <v>1.11</v>
       </c>
       <c r="AT99">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU99">
         <v>1.59</v>
@@ -20288,7 +20309,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT100">
         <v>0.8</v>
@@ -20392,7 +20413,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20479,7 +20500,7 @@
         <v>0.6</v>
       </c>
       <c r="AS101">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT101">
         <v>0.67</v>
@@ -20583,7 +20604,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20673,7 +20694,7 @@
         <v>2.56</v>
       </c>
       <c r="AT102">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU102">
         <v>1.36</v>
@@ -21055,7 +21076,7 @@
         <v>1.6</v>
       </c>
       <c r="AT104">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU104">
         <v>1.03</v>
@@ -21246,7 +21267,7 @@
         <v>2</v>
       </c>
       <c r="AT105">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU105">
         <v>1.51</v>
@@ -21434,7 +21455,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT106">
         <v>1.56</v>
@@ -21538,7 +21559,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21625,7 +21646,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT107">
         <v>1.56</v>
@@ -21729,7 +21750,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -22111,7 +22132,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22201,7 +22222,7 @@
         <v>0.67</v>
       </c>
       <c r="AT110">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU110">
         <v>1.74</v>
@@ -22389,10 +22410,10 @@
         <v>0.4</v>
       </c>
       <c r="AS111">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT111">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU111">
         <v>1.2</v>
@@ -22493,7 +22514,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22583,7 +22604,7 @@
         <v>1</v>
       </c>
       <c r="AT112">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU112">
         <v>1.25</v>
@@ -22771,7 +22792,7 @@
         <v>1.17</v>
       </c>
       <c r="AS113">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT113">
         <v>1.56</v>
@@ -23066,7 +23087,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23156,7 +23177,7 @@
         <v>1.27</v>
       </c>
       <c r="AT115">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU115">
         <v>1.35</v>
@@ -23344,7 +23365,7 @@
         <v>0.17</v>
       </c>
       <c r="AS116">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT116">
         <v>0.8</v>
@@ -23448,7 +23469,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23538,7 +23559,7 @@
         <v>1.11</v>
       </c>
       <c r="AT117">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU117">
         <v>1.79</v>
@@ -23726,7 +23747,7 @@
         <v>1.33</v>
       </c>
       <c r="AS118">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT118">
         <v>1.6</v>
@@ -23830,7 +23851,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23920,7 +23941,7 @@
         <v>1.33</v>
       </c>
       <c r="AT119">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU119">
         <v>1.21</v>
@@ -24021,7 +24042,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24111,7 +24132,7 @@
         <v>0.67</v>
       </c>
       <c r="AT120">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU120">
         <v>1.63</v>
@@ -24212,7 +24233,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24299,7 +24320,7 @@
         <v>2.17</v>
       </c>
       <c r="AS121">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT121">
         <v>1.3</v>
@@ -24681,7 +24702,7 @@
         <v>2.6</v>
       </c>
       <c r="AS123">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT123">
         <v>2.22</v>
@@ -24872,7 +24893,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT124">
         <v>0.78</v>
@@ -24976,7 +24997,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25063,10 +25084,10 @@
         <v>1.43</v>
       </c>
       <c r="AS125">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT125">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU125">
         <v>1.84</v>
@@ -25167,7 +25188,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25358,7 +25379,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25448,7 +25469,7 @@
         <v>2</v>
       </c>
       <c r="AT127">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU127">
         <v>1.52</v>
@@ -25636,10 +25657,10 @@
         <v>1</v>
       </c>
       <c r="AS128">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT128">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU128">
         <v>1.93</v>
@@ -25740,7 +25761,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25827,10 +25848,10 @@
         <v>2.14</v>
       </c>
       <c r="AS129">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT129">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU129">
         <v>1.26</v>
@@ -25931,7 +25952,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26122,7 +26143,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26403,7 +26424,7 @@
         <v>1.6</v>
       </c>
       <c r="AT132">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU132">
         <v>1</v>
@@ -26782,7 +26803,7 @@
         <v>0.83</v>
       </c>
       <c r="AS134">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT134">
         <v>0.5600000000000001</v>
@@ -26886,7 +26907,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26973,7 +26994,7 @@
         <v>1.86</v>
       </c>
       <c r="AS135">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT135">
         <v>1.3</v>
@@ -27077,7 +27098,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27167,7 +27188,7 @@
         <v>2.11</v>
       </c>
       <c r="AT136">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU136">
         <v>1.33</v>
@@ -27268,7 +27289,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27459,7 +27480,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27546,10 +27567,10 @@
         <v>1.86</v>
       </c>
       <c r="AS138">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT138">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU138">
         <v>1.46</v>
@@ -27650,7 +27671,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27737,7 +27758,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT139">
         <v>0.8</v>
@@ -27841,7 +27862,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28032,7 +28053,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28119,10 +28140,10 @@
         <v>1.71</v>
       </c>
       <c r="AS141">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT141">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU141">
         <v>1.45</v>
@@ -28310,10 +28331,10 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT142">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU142">
         <v>2.04</v>
@@ -28501,10 +28522,10 @@
         <v>2</v>
       </c>
       <c r="AS143">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT143">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU143">
         <v>1.7</v>
@@ -28605,7 +28626,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29074,10 +29095,10 @@
         <v>1.88</v>
       </c>
       <c r="AS146">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT146">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU146">
         <v>1.27</v>
@@ -29178,7 +29199,7 @@
         <v>147</v>
       </c>
       <c r="P147" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29268,7 +29289,7 @@
         <v>1.27</v>
       </c>
       <c r="AT147">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU147">
         <v>1.53</v>
@@ -29369,7 +29390,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29456,7 +29477,7 @@
         <v>0.43</v>
       </c>
       <c r="AS148">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT148">
         <v>0.67</v>
@@ -29650,7 +29671,7 @@
         <v>1.33</v>
       </c>
       <c r="AT149">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU149">
         <v>1.2</v>
@@ -29751,7 +29772,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29838,10 +29859,10 @@
         <v>0.67</v>
       </c>
       <c r="AS150">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT150">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU150">
         <v>1.85</v>
@@ -30220,7 +30241,7 @@
         <v>1.63</v>
       </c>
       <c r="AS152">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT152">
         <v>1.3</v>
@@ -30324,7 +30345,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q153">
         <v>10</v>
@@ -30414,7 +30435,7 @@
         <v>1.11</v>
       </c>
       <c r="AT153">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU153">
         <v>1.8</v>
@@ -30602,7 +30623,7 @@
         <v>0.75</v>
       </c>
       <c r="AS154">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT154">
         <v>0.78</v>
@@ -30897,7 +30918,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31088,7 +31109,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31178,7 +31199,7 @@
         <v>1</v>
       </c>
       <c r="AT157">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU157">
         <v>1.42</v>
@@ -31279,7 +31300,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31366,10 +31387,10 @@
         <v>1.89</v>
       </c>
       <c r="AS158">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT158">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU158">
         <v>1.87</v>
@@ -31470,7 +31491,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31557,10 +31578,10 @@
         <v>1.78</v>
       </c>
       <c r="AS159">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT159">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU159">
         <v>2.03</v>
@@ -31661,7 +31682,7 @@
         <v>154</v>
       </c>
       <c r="P160" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31748,7 +31769,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT160">
         <v>1.3</v>
@@ -31852,7 +31873,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -31939,7 +31960,7 @@
         <v>2</v>
       </c>
       <c r="AS161">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT161">
         <v>2.22</v>
@@ -32130,10 +32151,10 @@
         <v>0.75</v>
       </c>
       <c r="AS162">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT162">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU162">
         <v>1.58</v>
@@ -32515,7 +32536,7 @@
         <v>1.33</v>
       </c>
       <c r="AT164">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU164">
         <v>1.17</v>
@@ -32894,7 +32915,7 @@
         <v>1.44</v>
       </c>
       <c r="AS166">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT166">
         <v>1.3</v>
@@ -33380,7 +33401,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33467,7 +33488,7 @@
         <v>1.44</v>
       </c>
       <c r="AS169">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT169">
         <v>1.6</v>
@@ -33571,7 +33592,7 @@
         <v>149</v>
       </c>
       <c r="P170" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q170">
         <v>2</v>
@@ -33661,7 +33682,7 @@
         <v>2</v>
       </c>
       <c r="AT170">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU170">
         <v>1.52</v>
@@ -33852,7 +33873,7 @@
         <v>2.56</v>
       </c>
       <c r="AT171">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU171">
         <v>1.55</v>
@@ -33953,7 +33974,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34095,6 +34116,1534 @@
       </c>
       <c r="BK172">
         <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>5189104</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45115.25</v>
+      </c>
+      <c r="F173">
+        <v>20</v>
+      </c>
+      <c r="G173" t="s">
+        <v>80</v>
+      </c>
+      <c r="H173" t="s">
+        <v>75</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>2</v>
+      </c>
+      <c r="K173">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>201</v>
+      </c>
+      <c r="P173" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q173">
+        <v>9</v>
+      </c>
+      <c r="R173">
+        <v>2</v>
+      </c>
+      <c r="S173">
+        <v>11</v>
+      </c>
+      <c r="T173">
+        <v>2.88</v>
+      </c>
+      <c r="U173">
+        <v>2.38</v>
+      </c>
+      <c r="V173">
+        <v>3.2</v>
+      </c>
+      <c r="W173">
+        <v>1.29</v>
+      </c>
+      <c r="X173">
+        <v>3.5</v>
+      </c>
+      <c r="Y173">
+        <v>2.25</v>
+      </c>
+      <c r="Z173">
+        <v>1.57</v>
+      </c>
+      <c r="AA173">
+        <v>5.5</v>
+      </c>
+      <c r="AB173">
+        <v>1.14</v>
+      </c>
+      <c r="AC173">
+        <v>2.25</v>
+      </c>
+      <c r="AD173">
+        <v>3.25</v>
+      </c>
+      <c r="AE173">
+        <v>2.75</v>
+      </c>
+      <c r="AF173">
+        <v>1.02</v>
+      </c>
+      <c r="AG173">
+        <v>15</v>
+      </c>
+      <c r="AH173">
+        <v>1.17</v>
+      </c>
+      <c r="AI173">
+        <v>4.6</v>
+      </c>
+      <c r="AJ173">
+        <v>1.7</v>
+      </c>
+      <c r="AK173">
+        <v>2.05</v>
+      </c>
+      <c r="AL173">
+        <v>1.5</v>
+      </c>
+      <c r="AM173">
+        <v>2.5</v>
+      </c>
+      <c r="AN173">
+        <v>1.4</v>
+      </c>
+      <c r="AO173">
+        <v>1.22</v>
+      </c>
+      <c r="AP173">
+        <v>1.55</v>
+      </c>
+      <c r="AQ173">
+        <v>2.2</v>
+      </c>
+      <c r="AR173">
+        <v>1.9</v>
+      </c>
+      <c r="AS173">
+        <v>2.09</v>
+      </c>
+      <c r="AT173">
+        <v>1.82</v>
+      </c>
+      <c r="AU173">
+        <v>1.46</v>
+      </c>
+      <c r="AV173">
+        <v>1.41</v>
+      </c>
+      <c r="AW173">
+        <v>2.87</v>
+      </c>
+      <c r="AX173">
+        <v>1.91</v>
+      </c>
+      <c r="AY173">
+        <v>8</v>
+      </c>
+      <c r="AZ173">
+        <v>2.2</v>
+      </c>
+      <c r="BA173">
+        <v>1.24</v>
+      </c>
+      <c r="BB173">
+        <v>1.47</v>
+      </c>
+      <c r="BC173">
+        <v>1.8</v>
+      </c>
+      <c r="BD173">
+        <v>2.3</v>
+      </c>
+      <c r="BE173">
+        <v>3.2</v>
+      </c>
+      <c r="BF173">
+        <v>8</v>
+      </c>
+      <c r="BG173">
+        <v>6</v>
+      </c>
+      <c r="BH173">
+        <v>6</v>
+      </c>
+      <c r="BI173">
+        <v>7</v>
+      </c>
+      <c r="BJ173">
+        <v>14</v>
+      </c>
+      <c r="BK173">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>5189105</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45115.27083333334</v>
+      </c>
+      <c r="F174">
+        <v>20</v>
+      </c>
+      <c r="G174" t="s">
+        <v>66</v>
+      </c>
+      <c r="H174" t="s">
+        <v>79</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>131</v>
+      </c>
+      <c r="P174" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q174">
+        <v>6</v>
+      </c>
+      <c r="R174">
+        <v>5</v>
+      </c>
+      <c r="S174">
+        <v>11</v>
+      </c>
+      <c r="T174">
+        <v>2.75</v>
+      </c>
+      <c r="U174">
+        <v>2.05</v>
+      </c>
+      <c r="V174">
+        <v>4.5</v>
+      </c>
+      <c r="W174">
+        <v>1.5</v>
+      </c>
+      <c r="X174">
+        <v>2.5</v>
+      </c>
+      <c r="Y174">
+        <v>3.4</v>
+      </c>
+      <c r="Z174">
+        <v>1.3</v>
+      </c>
+      <c r="AA174">
+        <v>10</v>
+      </c>
+      <c r="AB174">
+        <v>1.06</v>
+      </c>
+      <c r="AC174">
+        <v>2.1</v>
+      </c>
+      <c r="AD174">
+        <v>2.9</v>
+      </c>
+      <c r="AE174">
+        <v>3.3</v>
+      </c>
+      <c r="AF174">
+        <v>1.06</v>
+      </c>
+      <c r="AG174">
+        <v>8.75</v>
+      </c>
+      <c r="AH174">
+        <v>1.4</v>
+      </c>
+      <c r="AI174">
+        <v>2.8</v>
+      </c>
+      <c r="AJ174">
+        <v>2.35</v>
+      </c>
+      <c r="AK174">
+        <v>1.53</v>
+      </c>
+      <c r="AL174">
+        <v>2</v>
+      </c>
+      <c r="AM174">
+        <v>1.75</v>
+      </c>
+      <c r="AN174">
+        <v>1.26</v>
+      </c>
+      <c r="AO174">
+        <v>1.33</v>
+      </c>
+      <c r="AP174">
+        <v>1.77</v>
+      </c>
+      <c r="AQ174">
+        <v>1.78</v>
+      </c>
+      <c r="AR174">
+        <v>1.7</v>
+      </c>
+      <c r="AS174">
+        <v>1.7</v>
+      </c>
+      <c r="AT174">
+        <v>1.64</v>
+      </c>
+      <c r="AU174">
+        <v>1.97</v>
+      </c>
+      <c r="AV174">
+        <v>1.25</v>
+      </c>
+      <c r="AW174">
+        <v>3.22</v>
+      </c>
+      <c r="AX174">
+        <v>1.4</v>
+      </c>
+      <c r="AY174">
+        <v>8.5</v>
+      </c>
+      <c r="AZ174">
+        <v>3.4</v>
+      </c>
+      <c r="BA174">
+        <v>1.4</v>
+      </c>
+      <c r="BB174">
+        <v>1.74</v>
+      </c>
+      <c r="BC174">
+        <v>2.05</v>
+      </c>
+      <c r="BD174">
+        <v>2.8</v>
+      </c>
+      <c r="BE174">
+        <v>3.9</v>
+      </c>
+      <c r="BF174">
+        <v>5</v>
+      </c>
+      <c r="BG174">
+        <v>7</v>
+      </c>
+      <c r="BH174">
+        <v>6</v>
+      </c>
+      <c r="BI174">
+        <v>4</v>
+      </c>
+      <c r="BJ174">
+        <v>11</v>
+      </c>
+      <c r="BK174">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>5189106</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45115.29166666666</v>
+      </c>
+      <c r="F175">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
+        <v>82</v>
+      </c>
+      <c r="H175" t="s">
+        <v>67</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175" t="s">
+        <v>84</v>
+      </c>
+      <c r="P175" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q175">
+        <v>5</v>
+      </c>
+      <c r="R175">
+        <v>4</v>
+      </c>
+      <c r="S175">
+        <v>9</v>
+      </c>
+      <c r="T175">
+        <v>2.5</v>
+      </c>
+      <c r="U175">
+        <v>2.1</v>
+      </c>
+      <c r="V175">
+        <v>4.75</v>
+      </c>
+      <c r="W175">
+        <v>1.4</v>
+      </c>
+      <c r="X175">
+        <v>2.75</v>
+      </c>
+      <c r="Y175">
+        <v>3</v>
+      </c>
+      <c r="Z175">
+        <v>1.36</v>
+      </c>
+      <c r="AA175">
+        <v>9</v>
+      </c>
+      <c r="AB175">
+        <v>1.07</v>
+      </c>
+      <c r="AC175">
+        <v>1.73</v>
+      </c>
+      <c r="AD175">
+        <v>3.2</v>
+      </c>
+      <c r="AE175">
+        <v>4.4</v>
+      </c>
+      <c r="AF175">
+        <v>1.01</v>
+      </c>
+      <c r="AG175">
+        <v>10.25</v>
+      </c>
+      <c r="AH175">
+        <v>1.26</v>
+      </c>
+      <c r="AI175">
+        <v>3.25</v>
+      </c>
+      <c r="AJ175">
+        <v>2.15</v>
+      </c>
+      <c r="AK175">
+        <v>1.61</v>
+      </c>
+      <c r="AL175">
+        <v>1.91</v>
+      </c>
+      <c r="AM175">
+        <v>1.91</v>
+      </c>
+      <c r="AN175">
+        <v>1.17</v>
+      </c>
+      <c r="AO175">
+        <v>1.25</v>
+      </c>
+      <c r="AP175">
+        <v>1.95</v>
+      </c>
+      <c r="AQ175">
+        <v>2.22</v>
+      </c>
+      <c r="AR175">
+        <v>0.6</v>
+      </c>
+      <c r="AS175">
+        <v>2.1</v>
+      </c>
+      <c r="AT175">
+        <v>0.64</v>
+      </c>
+      <c r="AU175">
+        <v>1.66</v>
+      </c>
+      <c r="AV175">
+        <v>1.16</v>
+      </c>
+      <c r="AW175">
+        <v>2.82</v>
+      </c>
+      <c r="AX175">
+        <v>1.62</v>
+      </c>
+      <c r="AY175">
+        <v>8</v>
+      </c>
+      <c r="AZ175">
+        <v>2.75</v>
+      </c>
+      <c r="BA175">
+        <v>1.3</v>
+      </c>
+      <c r="BB175">
+        <v>1.58</v>
+      </c>
+      <c r="BC175">
+        <v>1.95</v>
+      </c>
+      <c r="BD175">
+        <v>2.5</v>
+      </c>
+      <c r="BE175">
+        <v>3.7</v>
+      </c>
+      <c r="BF175">
+        <v>4</v>
+      </c>
+      <c r="BG175">
+        <v>3</v>
+      </c>
+      <c r="BH175">
+        <v>4</v>
+      </c>
+      <c r="BI175">
+        <v>6</v>
+      </c>
+      <c r="BJ175">
+        <v>8</v>
+      </c>
+      <c r="BK175">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>5189107</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45115.29166666666</v>
+      </c>
+      <c r="F176">
+        <v>20</v>
+      </c>
+      <c r="G176" t="s">
+        <v>73</v>
+      </c>
+      <c r="H176" t="s">
+        <v>74</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>202</v>
+      </c>
+      <c r="P176" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q176">
+        <v>3</v>
+      </c>
+      <c r="R176">
+        <v>9</v>
+      </c>
+      <c r="S176">
+        <v>12</v>
+      </c>
+      <c r="T176">
+        <v>2.88</v>
+      </c>
+      <c r="U176">
+        <v>2.05</v>
+      </c>
+      <c r="V176">
+        <v>4</v>
+      </c>
+      <c r="W176">
+        <v>1.44</v>
+      </c>
+      <c r="X176">
+        <v>2.63</v>
+      </c>
+      <c r="Y176">
+        <v>3.25</v>
+      </c>
+      <c r="Z176">
+        <v>1.33</v>
+      </c>
+      <c r="AA176">
+        <v>9</v>
+      </c>
+      <c r="AB176">
+        <v>1.07</v>
+      </c>
+      <c r="AC176">
+        <v>2.1</v>
+      </c>
+      <c r="AD176">
+        <v>3.1</v>
+      </c>
+      <c r="AE176">
+        <v>3.1</v>
+      </c>
+      <c r="AF176">
+        <v>1.03</v>
+      </c>
+      <c r="AG176">
+        <v>12</v>
+      </c>
+      <c r="AH176">
+        <v>1.4</v>
+      </c>
+      <c r="AI176">
+        <v>2.8</v>
+      </c>
+      <c r="AJ176">
+        <v>1.95</v>
+      </c>
+      <c r="AK176">
+        <v>1.75</v>
+      </c>
+      <c r="AL176">
+        <v>1.8</v>
+      </c>
+      <c r="AM176">
+        <v>1.95</v>
+      </c>
+      <c r="AN176">
+        <v>1.25</v>
+      </c>
+      <c r="AO176">
+        <v>1.28</v>
+      </c>
+      <c r="AP176">
+        <v>1.66</v>
+      </c>
+      <c r="AQ176">
+        <v>0.8</v>
+      </c>
+      <c r="AR176">
+        <v>0.6</v>
+      </c>
+      <c r="AS176">
+        <v>0.82</v>
+      </c>
+      <c r="AT176">
+        <v>0.64</v>
+      </c>
+      <c r="AU176">
+        <v>1.43</v>
+      </c>
+      <c r="AV176">
+        <v>1.38</v>
+      </c>
+      <c r="AW176">
+        <v>2.81</v>
+      </c>
+      <c r="AX176">
+        <v>2.05</v>
+      </c>
+      <c r="AY176">
+        <v>8</v>
+      </c>
+      <c r="AZ176">
+        <v>2</v>
+      </c>
+      <c r="BA176">
+        <v>1.28</v>
+      </c>
+      <c r="BB176">
+        <v>1.53</v>
+      </c>
+      <c r="BC176">
+        <v>1.95</v>
+      </c>
+      <c r="BD176">
+        <v>2.5</v>
+      </c>
+      <c r="BE176">
+        <v>3.7</v>
+      </c>
+      <c r="BF176">
+        <v>3</v>
+      </c>
+      <c r="BG176">
+        <v>7</v>
+      </c>
+      <c r="BH176">
+        <v>5</v>
+      </c>
+      <c r="BI176">
+        <v>1</v>
+      </c>
+      <c r="BJ176">
+        <v>8</v>
+      </c>
+      <c r="BK176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>5189108</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45115.29166666666</v>
+      </c>
+      <c r="F177">
+        <v>20</v>
+      </c>
+      <c r="G177" t="s">
+        <v>65</v>
+      </c>
+      <c r="H177" t="s">
+        <v>68</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>203</v>
+      </c>
+      <c r="P177" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q177">
+        <v>2</v>
+      </c>
+      <c r="R177">
+        <v>6</v>
+      </c>
+      <c r="S177">
+        <v>8</v>
+      </c>
+      <c r="T177">
+        <v>1.83</v>
+      </c>
+      <c r="U177">
+        <v>2.5</v>
+      </c>
+      <c r="V177">
+        <v>7</v>
+      </c>
+      <c r="W177">
+        <v>1.3</v>
+      </c>
+      <c r="X177">
+        <v>3.4</v>
+      </c>
+      <c r="Y177">
+        <v>2.5</v>
+      </c>
+      <c r="Z177">
+        <v>1.5</v>
+      </c>
+      <c r="AA177">
+        <v>6</v>
+      </c>
+      <c r="AB177">
+        <v>1.13</v>
+      </c>
+      <c r="AC177">
+        <v>1.44</v>
+      </c>
+      <c r="AD177">
+        <v>3.9</v>
+      </c>
+      <c r="AE177">
+        <v>7</v>
+      </c>
+      <c r="AF177">
+        <v>1.02</v>
+      </c>
+      <c r="AG177">
+        <v>16</v>
+      </c>
+      <c r="AH177">
+        <v>1.2</v>
+      </c>
+      <c r="AI177">
+        <v>4.2</v>
+      </c>
+      <c r="AJ177">
+        <v>1.91</v>
+      </c>
+      <c r="AK177">
+        <v>1.8</v>
+      </c>
+      <c r="AL177">
+        <v>1.95</v>
+      </c>
+      <c r="AM177">
+        <v>1.8</v>
+      </c>
+      <c r="AN177">
+        <v>1.07</v>
+      </c>
+      <c r="AO177">
+        <v>1.15</v>
+      </c>
+      <c r="AP177">
+        <v>2.95</v>
+      </c>
+      <c r="AQ177">
+        <v>1.5</v>
+      </c>
+      <c r="AR177">
+        <v>0.63</v>
+      </c>
+      <c r="AS177">
+        <v>1.67</v>
+      </c>
+      <c r="AT177">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU177">
+        <v>1.53</v>
+      </c>
+      <c r="AV177">
+        <v>1.5</v>
+      </c>
+      <c r="AW177">
+        <v>3.03</v>
+      </c>
+      <c r="AX177">
+        <v>1.36</v>
+      </c>
+      <c r="AY177">
+        <v>9</v>
+      </c>
+      <c r="AZ177">
+        <v>3.6</v>
+      </c>
+      <c r="BA177">
+        <v>1.35</v>
+      </c>
+      <c r="BB177">
+        <v>1.65</v>
+      </c>
+      <c r="BC177">
+        <v>2.05</v>
+      </c>
+      <c r="BD177">
+        <v>2.8</v>
+      </c>
+      <c r="BE177">
+        <v>3.9</v>
+      </c>
+      <c r="BF177">
+        <v>7</v>
+      </c>
+      <c r="BG177">
+        <v>3</v>
+      </c>
+      <c r="BH177">
+        <v>7</v>
+      </c>
+      <c r="BI177">
+        <v>5</v>
+      </c>
+      <c r="BJ177">
+        <v>14</v>
+      </c>
+      <c r="BK177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>5189109</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45115.29166666666</v>
+      </c>
+      <c r="F178">
+        <v>20</v>
+      </c>
+      <c r="G178" t="s">
+        <v>77</v>
+      </c>
+      <c r="H178" t="s">
+        <v>69</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>147</v>
+      </c>
+      <c r="P178" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q178">
+        <v>5</v>
+      </c>
+      <c r="R178">
+        <v>6</v>
+      </c>
+      <c r="S178">
+        <v>11</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>2.25</v>
+      </c>
+      <c r="V178">
+        <v>4.33</v>
+      </c>
+      <c r="W178">
+        <v>1.36</v>
+      </c>
+      <c r="X178">
+        <v>3</v>
+      </c>
+      <c r="Y178">
+        <v>2.75</v>
+      </c>
+      <c r="Z178">
+        <v>1.4</v>
+      </c>
+      <c r="AA178">
+        <v>7</v>
+      </c>
+      <c r="AB178">
+        <v>1.1</v>
+      </c>
+      <c r="AC178">
+        <v>2</v>
+      </c>
+      <c r="AD178">
+        <v>3.2</v>
+      </c>
+      <c r="AE178">
+        <v>3.25</v>
+      </c>
+      <c r="AF178">
+        <v>1.03</v>
+      </c>
+      <c r="AG178">
+        <v>13</v>
+      </c>
+      <c r="AH178">
+        <v>1.28</v>
+      </c>
+      <c r="AI178">
+        <v>3.5</v>
+      </c>
+      <c r="AJ178">
+        <v>1.8</v>
+      </c>
+      <c r="AK178">
+        <v>1.91</v>
+      </c>
+      <c r="AL178">
+        <v>1.7</v>
+      </c>
+      <c r="AM178">
+        <v>2.05</v>
+      </c>
+      <c r="AN178">
+        <v>1.2</v>
+      </c>
+      <c r="AO178">
+        <v>1.22</v>
+      </c>
+      <c r="AP178">
+        <v>1.85</v>
+      </c>
+      <c r="AQ178">
+        <v>1.33</v>
+      </c>
+      <c r="AR178">
+        <v>1.1</v>
+      </c>
+      <c r="AS178">
+        <v>1.5</v>
+      </c>
+      <c r="AT178">
+        <v>1</v>
+      </c>
+      <c r="AU178">
+        <v>1.81</v>
+      </c>
+      <c r="AV178">
+        <v>1.25</v>
+      </c>
+      <c r="AW178">
+        <v>3.06</v>
+      </c>
+      <c r="AX178">
+        <v>1.5</v>
+      </c>
+      <c r="AY178">
+        <v>8.5</v>
+      </c>
+      <c r="AZ178">
+        <v>3</v>
+      </c>
+      <c r="BA178">
+        <v>1.26</v>
+      </c>
+      <c r="BB178">
+        <v>1.51</v>
+      </c>
+      <c r="BC178">
+        <v>2</v>
+      </c>
+      <c r="BD178">
+        <v>2.7</v>
+      </c>
+      <c r="BE178">
+        <v>3.9</v>
+      </c>
+      <c r="BF178">
+        <v>3</v>
+      </c>
+      <c r="BG178">
+        <v>0</v>
+      </c>
+      <c r="BH178">
+        <v>5</v>
+      </c>
+      <c r="BI178">
+        <v>5</v>
+      </c>
+      <c r="BJ178">
+        <v>8</v>
+      </c>
+      <c r="BK178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>5189110</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45115.29166666666</v>
+      </c>
+      <c r="F179">
+        <v>20</v>
+      </c>
+      <c r="G179" t="s">
+        <v>78</v>
+      </c>
+      <c r="H179" t="s">
+        <v>76</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>204</v>
+      </c>
+      <c r="P179" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q179">
+        <v>1</v>
+      </c>
+      <c r="R179">
+        <v>9</v>
+      </c>
+      <c r="S179">
+        <v>10</v>
+      </c>
+      <c r="T179">
+        <v>3.6</v>
+      </c>
+      <c r="U179">
+        <v>2.2</v>
+      </c>
+      <c r="V179">
+        <v>3</v>
+      </c>
+      <c r="W179">
+        <v>1.4</v>
+      </c>
+      <c r="X179">
+        <v>2.75</v>
+      </c>
+      <c r="Y179">
+        <v>2.75</v>
+      </c>
+      <c r="Z179">
+        <v>1.4</v>
+      </c>
+      <c r="AA179">
+        <v>8</v>
+      </c>
+      <c r="AB179">
+        <v>1.08</v>
+      </c>
+      <c r="AC179">
+        <v>2.4</v>
+      </c>
+      <c r="AD179">
+        <v>3.2</v>
+      </c>
+      <c r="AE179">
+        <v>2.55</v>
+      </c>
+      <c r="AF179">
+        <v>1.04</v>
+      </c>
+      <c r="AG179">
+        <v>11</v>
+      </c>
+      <c r="AH179">
+        <v>1.28</v>
+      </c>
+      <c r="AI179">
+        <v>3.35</v>
+      </c>
+      <c r="AJ179">
+        <v>1.73</v>
+      </c>
+      <c r="AK179">
+        <v>2</v>
+      </c>
+      <c r="AL179">
+        <v>1.75</v>
+      </c>
+      <c r="AM179">
+        <v>2</v>
+      </c>
+      <c r="AN179">
+        <v>1.61</v>
+      </c>
+      <c r="AO179">
+        <v>1.31</v>
+      </c>
+      <c r="AP179">
+        <v>1.38</v>
+      </c>
+      <c r="AQ179">
+        <v>1.7</v>
+      </c>
+      <c r="AR179">
+        <v>1.7</v>
+      </c>
+      <c r="AS179">
+        <v>1.82</v>
+      </c>
+      <c r="AT179">
+        <v>1.55</v>
+      </c>
+      <c r="AU179">
+        <v>1.53</v>
+      </c>
+      <c r="AV179">
+        <v>1.53</v>
+      </c>
+      <c r="AW179">
+        <v>3.06</v>
+      </c>
+      <c r="AX179">
+        <v>2.2</v>
+      </c>
+      <c r="AY179">
+        <v>7.5</v>
+      </c>
+      <c r="AZ179">
+        <v>1.91</v>
+      </c>
+      <c r="BA179">
+        <v>1.4</v>
+      </c>
+      <c r="BB179">
+        <v>1.74</v>
+      </c>
+      <c r="BC179">
+        <v>2.3</v>
+      </c>
+      <c r="BD179">
+        <v>3.2</v>
+      </c>
+      <c r="BE179">
+        <v>5</v>
+      </c>
+      <c r="BF179">
+        <v>4</v>
+      </c>
+      <c r="BG179">
+        <v>3</v>
+      </c>
+      <c r="BH179">
+        <v>2</v>
+      </c>
+      <c r="BI179">
+        <v>9</v>
+      </c>
+      <c r="BJ179">
+        <v>6</v>
+      </c>
+      <c r="BK179">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>5189111</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45115.3125</v>
+      </c>
+      <c r="F180">
+        <v>20</v>
+      </c>
+      <c r="G180" t="s">
+        <v>72</v>
+      </c>
+      <c r="H180" t="s">
+        <v>70</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>3</v>
+      </c>
+      <c r="O180" t="s">
+        <v>205</v>
+      </c>
+      <c r="P180" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q180">
+        <v>7</v>
+      </c>
+      <c r="R180">
+        <v>11</v>
+      </c>
+      <c r="S180">
+        <v>18</v>
+      </c>
+      <c r="T180">
+        <v>3.6</v>
+      </c>
+      <c r="U180">
+        <v>2.05</v>
+      </c>
+      <c r="V180">
+        <v>3.2</v>
+      </c>
+      <c r="W180">
+        <v>1.44</v>
+      </c>
+      <c r="X180">
+        <v>2.63</v>
+      </c>
+      <c r="Y180">
+        <v>3.25</v>
+      </c>
+      <c r="Z180">
+        <v>1.33</v>
+      </c>
+      <c r="AA180">
+        <v>10</v>
+      </c>
+      <c r="AB180">
+        <v>1.06</v>
+      </c>
+      <c r="AC180">
+        <v>2.65</v>
+      </c>
+      <c r="AD180">
+        <v>3</v>
+      </c>
+      <c r="AE180">
+        <v>2.4</v>
+      </c>
+      <c r="AF180">
+        <v>1.03</v>
+      </c>
+      <c r="AG180">
+        <v>8.5</v>
+      </c>
+      <c r="AH180">
+        <v>1.34</v>
+      </c>
+      <c r="AI180">
+        <v>2.85</v>
+      </c>
+      <c r="AJ180">
+        <v>1.95</v>
+      </c>
+      <c r="AK180">
+        <v>1.75</v>
+      </c>
+      <c r="AL180">
+        <v>1.91</v>
+      </c>
+      <c r="AM180">
+        <v>1.91</v>
+      </c>
+      <c r="AN180">
+        <v>1.48</v>
+      </c>
+      <c r="AO180">
+        <v>1.32</v>
+      </c>
+      <c r="AP180">
+        <v>1.33</v>
+      </c>
+      <c r="AQ180">
+        <v>1.2</v>
+      </c>
+      <c r="AR180">
+        <v>1.78</v>
+      </c>
+      <c r="AS180">
+        <v>1.36</v>
+      </c>
+      <c r="AT180">
+        <v>1.6</v>
+      </c>
+      <c r="AU180">
+        <v>1.18</v>
+      </c>
+      <c r="AV180">
+        <v>1.2</v>
+      </c>
+      <c r="AW180">
+        <v>2.38</v>
+      </c>
+      <c r="AX180">
+        <v>1.73</v>
+      </c>
+      <c r="AY180">
+        <v>7.5</v>
+      </c>
+      <c r="AZ180">
+        <v>2.4</v>
+      </c>
+      <c r="BA180">
+        <v>1.37</v>
+      </c>
+      <c r="BB180">
+        <v>1.69</v>
+      </c>
+      <c r="BC180">
+        <v>2.2</v>
+      </c>
+      <c r="BD180">
+        <v>3.1</v>
+      </c>
+      <c r="BE180">
+        <v>4.33</v>
+      </c>
+      <c r="BF180">
+        <v>7</v>
+      </c>
+      <c r="BG180">
+        <v>8</v>
+      </c>
+      <c r="BH180">
+        <v>4</v>
+      </c>
+      <c r="BI180">
+        <v>3</v>
+      </c>
+      <c r="BJ180">
+        <v>11</v>
+      </c>
+      <c r="BK180">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
